--- a/TD_Tarasevich(Teams).xlsx
+++ b/TD_Tarasevich(Teams).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="107">
   <si>
     <t>ID</t>
   </si>
@@ -83,13 +83,269 @@
   </si>
   <si>
     <t>Статистика по всем дефектам</t>
+  </si>
+  <si>
+    <t>Тестирование установки</t>
+  </si>
+  <si>
+    <t>Функциональное тестирование</t>
+  </si>
+  <si>
+    <t>Тестирование интерфейса</t>
+  </si>
+  <si>
+    <t>Тестирование удобства</t>
+  </si>
+  <si>
+    <t>Установка</t>
+  </si>
+  <si>
+    <t>Удаление</t>
+  </si>
+  <si>
+    <t>Установка приложения на устройство используя сайт</t>
+  </si>
+  <si>
+    <t>Приложение установлено</t>
+  </si>
+  <si>
+    <t>сайт: https://www.microsoft.com/ru-ru/microsoft-teams/download-app#office-CustomSpacingTemplate-uoh60pc</t>
+  </si>
+  <si>
+    <t>1)Происходит переход в Google Play
+2)Приложение установлено</t>
+  </si>
+  <si>
+    <t>Установка приложения на устройство используя Google Play</t>
+  </si>
+  <si>
+    <t>Удаление приложения с устройства</t>
+  </si>
+  <si>
+    <t>Приложение удалено</t>
+  </si>
+  <si>
+    <t>Удаление приложения с устройства через Google Play</t>
+  </si>
+  <si>
+    <t>INSA_1.1</t>
+  </si>
+  <si>
+    <t>INSA_1.2</t>
+  </si>
+  <si>
+    <t>INSA_2.1</t>
+  </si>
+  <si>
+    <t>INSA_2.2</t>
+  </si>
+  <si>
+    <t>FUNA_</t>
+  </si>
+  <si>
+    <t>GUIA_</t>
+  </si>
+  <si>
+    <t>USAA_</t>
+  </si>
+  <si>
+    <t>FUNI_</t>
+  </si>
+  <si>
+    <t>GUII_</t>
+  </si>
+  <si>
+    <t>USAI_</t>
+  </si>
+  <si>
+    <t>FUNW_</t>
+  </si>
+  <si>
+    <t>GUIW_</t>
+  </si>
+  <si>
+    <t>USAW_</t>
+  </si>
+  <si>
+    <t>FUNM_</t>
+  </si>
+  <si>
+    <t>GUIM_</t>
+  </si>
+  <si>
+    <t>USAM_</t>
+  </si>
+  <si>
+    <t>FUNC_</t>
+  </si>
+  <si>
+    <t>GUIC_</t>
+  </si>
+  <si>
+    <t>USAC_</t>
+  </si>
+  <si>
+    <t>Установка приложения на устройство используя App Store</t>
+  </si>
+  <si>
+    <t>Удаление приложения с устройства через App Store</t>
+  </si>
+  <si>
+    <t>INSI_1.1</t>
+  </si>
+  <si>
+    <t>INSI_1.2</t>
+  </si>
+  <si>
+    <t>INSI_2.1</t>
+  </si>
+  <si>
+    <t>INSI_2.2</t>
+  </si>
+  <si>
+    <t>Установка приложения на устройство используя Microsoft Store</t>
+  </si>
+  <si>
+    <t>Удаление приложения с устройства через Microsoft Store</t>
+  </si>
+  <si>
+    <t>INSW_1.1</t>
+  </si>
+  <si>
+    <t>INSW_1.2</t>
+  </si>
+  <si>
+    <t>INSW_2.1</t>
+  </si>
+  <si>
+    <t>INSW_2.2</t>
+  </si>
+  <si>
+    <t>INSM_1.1</t>
+  </si>
+  <si>
+    <t>INSM_1.2</t>
+  </si>
+  <si>
+    <t>INSM_2.1</t>
+  </si>
+  <si>
+    <t>INSM_2.2</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Создание чата</t>
+  </si>
+  <si>
+    <t>Удаление чата</t>
+  </si>
+  <si>
+    <t>Авторизация</t>
+  </si>
+  <si>
+    <t>Редактирование профиля</t>
+  </si>
+  <si>
+    <t>Настройка</t>
+  </si>
+  <si>
+    <t>Отправка сообщения</t>
+  </si>
+  <si>
+    <t>Создание собрания</t>
+  </si>
+  <si>
+    <t>Аудио звонок</t>
+  </si>
+  <si>
+    <t>Видео звонок</t>
+  </si>
+  <si>
+    <t>Отправка текста в чате</t>
+  </si>
+  <si>
+    <t>Отправка фото в чате</t>
+  </si>
+  <si>
+    <t>Отправка GIF в чате</t>
+  </si>
+  <si>
+    <t>Отправка аудио собщения в чате</t>
+  </si>
+  <si>
+    <t>Отправка эмодзи в чате</t>
+  </si>
+  <si>
+    <t>Отправка файла в чате</t>
+  </si>
+  <si>
+    <t>Отправка 11 фото в чате</t>
+  </si>
+  <si>
+    <t>Изменение имени/фамилии в профиле</t>
+  </si>
+  <si>
+    <t>Изменение аватарки в профиле</t>
+  </si>
+  <si>
+    <t>Изменение внешнего вида приложения в настройках</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поиск </t>
+  </si>
+  <si>
+    <t>Поиск сообщения используя 2 символа в поле "Поиск" в разделе Чат</t>
+  </si>
+  <si>
+    <t>Поиск сообщения используя &gt;2 символов в поле "Поиск" в разделе Чат</t>
+  </si>
+  <si>
+    <t>Поиск сообщения используя 1 символ в поле "Поиск" в разделе Чат</t>
+  </si>
+  <si>
+    <t>Удаление сообщения</t>
+  </si>
+  <si>
+    <t>Редактирование сообщения</t>
+  </si>
+  <si>
+    <t>Поиск файла используя 1 символ в поле "Поиск" в разделе Чат</t>
+  </si>
+  <si>
+    <t>Поиск файла используя 2 символа в поле "Поиск" в разделе Чат</t>
+  </si>
+  <si>
+    <t>Поиск файла используя &gt;2 символов в поле "Поиск" в разделе Чат</t>
+  </si>
+  <si>
+    <t>Удаление собрания</t>
+  </si>
+  <si>
+    <t>Появляется сообщение: Нельзя выбрать больше 10 элементов галереи</t>
+  </si>
+  <si>
+    <t>Android Microsoft Teams</t>
+  </si>
+  <si>
+    <t>iOS Microsoft Teams</t>
+  </si>
+  <si>
+    <t>Windows Microsoft Teams</t>
+  </si>
+  <si>
+    <t>macOS Microsoft Teams</t>
+  </si>
+  <si>
+    <t>Chrome URL: https://teams.live.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +371,31 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +405,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -152,6 +455,81 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,20 +832,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F210"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="4" width="45.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -490,8 +868,2195 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+    </row>
+    <row r="52" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+    </row>
+    <row r="92" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="15"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="15"/>
+    </row>
+    <row r="95" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" s="15"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+    </row>
+    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C97" s="7"/>
+    </row>
+    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" s="7"/>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102" s="7"/>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" s="7"/>
+    </row>
+    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" s="7"/>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C112" s="7"/>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C113" s="7"/>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C118" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C121" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B133" s="13"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+    </row>
+    <row r="135" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A135" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F135" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C140" s="7"/>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C141" s="7"/>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C144" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C145" s="7"/>
+    </row>
+    <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C146" s="7"/>
+    </row>
+    <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B149" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C149" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C154" s="7"/>
+    </row>
+    <row r="155" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C155" s="7"/>
+    </row>
+    <row r="156" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C156" s="7"/>
+    </row>
+    <row r="157" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B160" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C160" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B161" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C161" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B162" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C162" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B163" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C163" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B164" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C164" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B165" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C165" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+    </row>
+    <row r="172" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="5"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+    </row>
+    <row r="176" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C178" s="7"/>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C179" s="7"/>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B182" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C182" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C183" s="7"/>
+    </row>
+    <row r="184" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C184" s="7"/>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B187" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C187" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C192" s="7"/>
+    </row>
+    <row r="193" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C193" s="7"/>
+    </row>
+    <row r="194" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C194" s="7"/>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B198" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C198" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B199" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C199" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B200" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C200" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B201" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C201" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B202" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C202" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B203" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C203" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B204" s="12"/>
+      <c r="C204" s="12"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+    </row>
+    <row r="205" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B209" s="12"/>
+      <c r="C209" s="12"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="12"/>
+    </row>
+    <row r="210" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A176:F176"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="A166:F166"/>
+    <mergeCell ref="A171:F171"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A204:F204"/>
+    <mergeCell ref="A209:F209"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="A177:F177"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -502,7 +3067,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,8 +3202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TD_Tarasevich(Teams).xlsx
+++ b/TD_Tarasevich(Teams).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="354">
   <si>
     <t>ID</t>
   </si>
@@ -120,12 +120,6 @@
   </si>
   <si>
     <t>USAA_</t>
-  </si>
-  <si>
-    <t>GUIW_</t>
-  </si>
-  <si>
-    <t>USAW_</t>
   </si>
   <si>
     <t>Passed</t>
@@ -775,9 +769,6 @@
     <t>Скрытие собрания</t>
   </si>
   <si>
-    <t>Скрытие созданого собрания</t>
-  </si>
-  <si>
     <t>Собрание скрыто</t>
   </si>
   <si>
@@ -926,22 +917,10 @@
     <t>Раздел Действия/Чат/Собрание/Календарь открываются при клике на них</t>
   </si>
   <si>
-    <t>Отзывчивость веб-приложение</t>
-  </si>
-  <si>
     <t>Google Chrome Version 103.0.5060.134</t>
   </si>
   <si>
-    <t>Работа веб-приложение с хорошим соединением к интернету</t>
-  </si>
-  <si>
-    <t>Работа веб-приложение со слабым сигналом интернета</t>
-  </si>
-  <si>
     <t>Веб-приложение функционирует</t>
-  </si>
-  <si>
-    <t>Веб-приложение недоступно</t>
   </si>
   <si>
     <t>1)Нажать F5</t>
@@ -953,14 +932,6 @@
   <si>
     <t>1)Нажать F5
 2)Кликнуть на раздел Календарь</t>
-  </si>
-  <si>
-    <t>1)Кликнуть на аватар профиля
-2)Кликнуть на поле Имени профиля
-3)Кликнуть на Изменить имя
-4)Ввести Имя Алексей
-5)Ввести Фамилия Басакевич
-6)Кликнуться на Сохранить</t>
   </si>
   <si>
     <t>1)Появляется окно с информацией профиля
@@ -975,36 +946,228 @@
 2)Раздел Календарь открыт</t>
   </si>
   <si>
+    <t>Поиск людей/чата используя &gt;2 символов в поле "Поиск"</t>
+  </si>
+  <si>
+    <t>Иконки: https://prnt.sc/ZBGgizj4TzQs</t>
+  </si>
+  <si>
+    <t>Сайт: https://www.microsoft.com/ru-ru/microsoft-teams/download-app#office-CustomSpacingTemplate-uoh60pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Авторизация при заполненных обязательных полях </t>
+  </si>
+  <si>
+    <t>Авторизация при незаполненных обязательных полях</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>App/Browser</t>
+  </si>
+  <si>
+    <t>Microsoft Teams Version 1.5.00.17656</t>
+  </si>
+  <si>
+    <t>Microsoft Teams открыт</t>
+  </si>
+  <si>
+    <t>1)Кликнуть на аватар профиля
+2)Кликнуть на поле Имени профиля
+3)Кликнуть на Изменить имя
+4)Ввести Имя Иван
+5)Ввести Фамилия Иванов
+6)Кликнуться на Сохранить</t>
+  </si>
+  <si>
+    <t>Pop-up: https://prnt.sc/aEEX-7hIpTr8</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Lenovo Y540-15IRH</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Windows 10 Version 21H2</t>
+  </si>
+  <si>
+    <t>Pop-up: https://prnt.sc/upp9byksb4-v</t>
+  </si>
+  <si>
+    <t>Pop-up: https://prnt.sc/F5eTEGwiGibD</t>
+  </si>
+  <si>
+    <t>Microsoft Teams открыт
+Чат с другим пользователем: Новый чат</t>
+  </si>
+  <si>
+    <t>Удаление отправленого сообщения</t>
+  </si>
+  <si>
+    <t>Редактирование отправленого сообщения</t>
+  </si>
+  <si>
+    <t>Скрытие созданого собрания в разделе Чат</t>
+  </si>
+  <si>
+    <t>1)Поле Новый чат перехолит в состояние активное, чат открывается
+2)Появляется pop-up, происходит вызов дургого пользователя по голосовому звонку
+3)Связь с другим пользователем по голосовому звонку установлена</t>
+  </si>
+  <si>
+    <t>1)Поле Новый чат перехолит в состояние активное, чат открывается
+2)Появляется pop-up, происходит вызов дургого пользователя по видеозвонку
+3)Связь с другим пользователем по видеозвонку установлена</t>
+  </si>
+  <si>
+    <t>Pop-up: https://prnt.sc/z7ksvBfPy37g</t>
+  </si>
+  <si>
+    <t>Масштабируемость</t>
+  </si>
+  <si>
+    <t>Работа cursor: resize</t>
+  </si>
+  <si>
+    <t>Наведение курсора на края окна меняет его внешний вид</t>
+  </si>
+  <si>
+    <t>При наведение курсора на края окна менят его внешний вид на cursor: resize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resize: </t>
+  </si>
+  <si>
+    <t>GUIW_1</t>
+  </si>
+  <si>
+    <t>GUIW_2</t>
+  </si>
+  <si>
+    <t>GUIW_3</t>
+  </si>
+  <si>
+    <t>GUIW_4</t>
+  </si>
+  <si>
+    <t>GUIW_5.2</t>
+  </si>
+  <si>
+    <t>GUIW_5.1</t>
+  </si>
+  <si>
+    <t>Окно принимает размер экрана устройства</t>
+  </si>
+  <si>
+    <t>Размер окна мастабируется до размеров разрешения экрана устройства</t>
+  </si>
+  <si>
+    <t>Размер окна мастабируется до 720/500рх</t>
+  </si>
+  <si>
+    <t>Окно принимает размер 720/500рх</t>
+  </si>
+  <si>
+    <t>Запуск</t>
+  </si>
+  <si>
+    <t>Время холодного старта приложения</t>
+  </si>
+  <si>
+    <t>Холодный старт выполняется за 5 секунд</t>
+  </si>
+  <si>
+    <t>Время горячего старта приложения</t>
+  </si>
+  <si>
+    <t>Горячий старт выполняется за 1 секунд</t>
+  </si>
+  <si>
+    <t>USAW_1</t>
+  </si>
+  <si>
+    <t>USAW_2</t>
+  </si>
+  <si>
+    <t>USAW_3</t>
+  </si>
+  <si>
+    <t>USAW_4.1</t>
+  </si>
+  <si>
+    <t>USAW_4.2</t>
+  </si>
+  <si>
+    <t>Появляется сообщение: Вы не в сети. Сообщения, отправляемые в автономном режиме, будут отправлены, когда вы вновь подключитесь к Интернету.</t>
+  </si>
+  <si>
+    <t>USAW_5.2</t>
+  </si>
+  <si>
+    <t>Pop-up: https://prnt.sc/lgyLmEYA2zr4</t>
+  </si>
+  <si>
+    <t>Приложение функционирует</t>
+  </si>
+  <si>
+    <t>Отзывчивость приложения</t>
+  </si>
+  <si>
     <t>Открыт URL: https://teams.live.com/
-Используя Charles сделать отсутствие интернет соединения</t>
-  </si>
-  <si>
-    <t>При отстутствии подключения к интернету веб-приложение недоступно</t>
-  </si>
-  <si>
-    <t>1)Веб-приложение недоступно</t>
-  </si>
-  <si>
-    <t>Поиск людей/чата используя &gt;2 символов в поле "Поиск"</t>
-  </si>
-  <si>
-    <t>Иконки: https://prnt.sc/ZBGgizj4TzQs</t>
-  </si>
-  <si>
-    <t>Сайт: https://www.microsoft.com/ru-ru/microsoft-teams/download-app#office-CustomSpacingTemplate-uoh60pc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Авторизация при заполненных обязательных полях </t>
-  </si>
-  <si>
-    <t>Авторизация при незаполненных обязательных полях</t>
+Выключить интернет на устройтсве</t>
+  </si>
+  <si>
+    <t>1)Появляется сообщение: Вы не в сети. Сообщения, отправляемые в автономном режиме, будут отправлены, когда вы вновь подключитесь к Интернету.</t>
+  </si>
+  <si>
+    <t>Появляется сообщение: Вы не в сети. Сообщения, отправляемые в автономном режиме, будут отправлены, когда вы вновь подключитесь к Интернету/появляется pop-up</t>
+  </si>
+  <si>
+    <t>USAW_5.1</t>
+  </si>
+  <si>
+    <t>Работа приложение со слабым интернет соединением</t>
+  </si>
+  <si>
+    <t>USAW_5.3</t>
+  </si>
+  <si>
+    <t>Отзывчивость веб-приложения</t>
+  </si>
+  <si>
+    <t>Работа веб-приложения со слабым интернет соединением</t>
+  </si>
+  <si>
+    <t>Работа веб-приложения при отсутствии интернет соединения</t>
+  </si>
+  <si>
+    <t>Работа веб-приложения с хорошим интернет соединением</t>
+  </si>
+  <si>
+    <t>Работа приложения с хорошим интернет соединением</t>
+  </si>
+  <si>
+    <t>Работа приложения со слабым интернет соединением</t>
+  </si>
+  <si>
+    <t>Работа приложения при отсутствии интернет соединения</t>
+  </si>
+  <si>
+    <t>Microsoft Teams открыт
+Чат с другим пользователем: Новый чат
+Используя Charles сделать сигнал интернета слабым 56 kbps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,6 +1224,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF242424"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1135,7 +1306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1190,24 +1361,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1239,9 +1392,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1263,6 +1413,45 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1283,13 +1472,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1327,13 +1516,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>298939</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1371,13 +1560,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1411,6 +1600,270 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>260839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10201275" y="29756100"/>
+          <a:ext cx="200025" cy="260839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10334625" y="49949100"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>815340</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10334625" y="30213300"/>
+          <a:ext cx="320040" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10648950" y="30165675"/>
+          <a:ext cx="295275" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10906125" y="30203775"/>
+          <a:ext cx="352425" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1390650</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>309996</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11229975" y="30184726"/>
+          <a:ext cx="238125" cy="281420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1418,15 +1871,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>971551</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1274235</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1462,15 +1915,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1000126</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1220612</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>438150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1506,15 +1959,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>1438275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1550,15 +2003,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1000124</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1228724</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>447675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1594,15 +2047,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>990601</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>219076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>413905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1628,6 +2081,270 @@
         <a:xfrm>
           <a:off x="13268326" y="11630026"/>
           <a:ext cx="238124" cy="194829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>971551</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1274235</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16421101" y="11353800"/>
+          <a:ext cx="302684" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1000126</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1220612</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16449676" y="13335000"/>
+          <a:ext cx="220486" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16449675" y="19535775"/>
+          <a:ext cx="266700" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1000124</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1228724</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16449674" y="22783800"/>
+          <a:ext cx="228600" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>990601</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>413905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16440151" y="23964901"/>
+          <a:ext cx="238124" cy="194829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1000124</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1228724</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16449674" y="11382375"/>
+          <a:ext cx="228600" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1926,11 +2643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,28 +2680,28 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>25</v>
@@ -1996,15 +2713,15 @@
         <v>29</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>26</v>
@@ -2016,331 +2733,331 @@
         <v>31</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="A6" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
@@ -2369,14 +3086,14 @@
       <c r="F29" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -2413,28 +3130,28 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
+      <c r="A36" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
     </row>
     <row r="38" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>25</v>
@@ -2446,15 +3163,15 @@
         <v>28</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>26</v>
@@ -2469,332 +3186,332 @@
       <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
+      <c r="A40" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
     </row>
     <row r="41" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B55" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B56" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
     </row>
     <row r="57" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
     <row r="58" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2827,18 +3544,18 @@
       <c r="F64" s="8"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2847,28 +3564,28 @@
       <c r="F66" s="4"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
+      <c r="A70" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
     </row>
     <row r="72" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>25</v>
@@ -2880,15 +3597,15 @@
         <v>28</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>26</v>
@@ -2899,1305 +3616,1573 @@
       <c r="D73" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E73" s="10"/>
+      <c r="E73" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
+      <c r="A74" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
     </row>
     <row r="75" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E75" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="76" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E76" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E77" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="78" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>91</v>
+        <v>38</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>206</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E79" s="10"/>
-    </row>
-    <row r="80" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E80" s="10"/>
+        <v>215</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E81" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E82" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="83" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E83" s="10"/>
+        <v>217</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="84" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>51</v>
+        <v>219</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>68</v>
+        <v>304</v>
       </c>
       <c r="D85" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>71</v>
+      <c r="E86" s="18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>50</v>
+        <v>231</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>75</v>
+        <v>232</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>82</v>
+        <v>239</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
+      <c r="B92" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D91" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
-        <v>149</v>
-      </c>
       <c r="B93" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>57</v>
+        <v>244</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>34</v>
+      <c r="B94" s="42"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+    </row>
+    <row r="95" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" s="29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B97" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" s="28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" s="50" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="20" t="s">
+      <c r="A99" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B99" s="21"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="21"/>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+    </row>
+    <row r="102" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-    </row>
-    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
+    <row r="103" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F103" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F104" s="4"/>
     </row>
     <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="D108" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F109" s="48" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" s="40"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="40"/>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-    </row>
-    <row r="106" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B106" s="11" t="s">
+      <c r="B111" s="42"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42"/>
+    </row>
+    <row r="112" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C112" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D112" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F106" s="12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B108" s="21"/>
-      <c r="C108" s="21"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="21"/>
-    </row>
-    <row r="109" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A110" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A112" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>92</v>
+      <c r="F112" s="12" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B114" s="42"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="42"/>
+      <c r="E114" s="42"/>
+      <c r="F114" s="42"/>
+    </row>
+    <row r="115" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C115" s="11" t="s">
-        <v>77</v>
+      <c r="C115" s="13" t="s">
+        <v>289</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="14" t="s">
-        <v>157</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A116" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="B116" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B117" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C116" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B117" s="11" t="s">
+      <c r="C117" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C117" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D117" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>192</v>
+        <v>38</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>71</v>
+        <v>44</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
-        <v>165</v>
+      <c r="A124" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C126" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D126" s="19" t="s">
+      <c r="C126" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C132" s="15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D127" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="20" t="s">
+      <c r="D132" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B128" s="21"/>
-      <c r="C128" s="21"/>
-      <c r="D128" s="21"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="21"/>
-    </row>
-    <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
+      <c r="B134" s="42"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="42"/>
+      <c r="E134" s="42"/>
+      <c r="F134" s="42"/>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B139" s="42"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="42"/>
+      <c r="E139" s="42"/>
+      <c r="F139" s="42"/>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="5"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B144" s="39"/>
+      <c r="C144" s="39"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="39"/>
+      <c r="F144" s="39"/>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="41" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B133" s="21"/>
-      <c r="C133" s="21"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="21"/>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-    </row>
-    <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="5"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-    </row>
-    <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-    </row>
-    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B138" s="23"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="23"/>
-      <c r="F138" s="23"/>
-    </row>
-    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B139" s="21"/>
-      <c r="C139" s="21"/>
-      <c r="D139" s="21"/>
-      <c r="E139" s="21"/>
-      <c r="F139" s="21"/>
-    </row>
-    <row r="140" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D140" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A141" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="D141" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C143" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D143" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D145" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B145" s="42"/>
+      <c r="C145" s="42"/>
+      <c r="D145" s="42"/>
+      <c r="E145" s="42"/>
+      <c r="F145" s="42"/>
+    </row>
+    <row r="146" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B146" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C146" s="11" t="s">
-        <v>77</v>
+      <c r="C146" s="13" t="s">
+        <v>289</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="14" t="s">
-        <v>176</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A147" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="B147" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B148" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C147" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D148" s="13" t="s">
-        <v>219</v>
+      <c r="C148" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>192</v>
+        <v>38</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>71</v>
+        <v>214</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>234</v>
+        <v>70</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>235</v>
+        <v>71</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="D154" s="13" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="14" t="s">
-        <v>184</v>
+      <c r="A155" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="D155" s="13" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C156" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="D156" s="19" t="s">
-        <v>247</v>
+        <v>46</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C157" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="D157" s="19" t="s">
-        <v>247</v>
+      <c r="C157" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C158" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="D158" s="19" t="s">
-        <v>247</v>
+        <v>41</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B159" s="21"/>
-      <c r="C159" s="21"/>
-      <c r="D159" s="21"/>
-      <c r="E159" s="21"/>
-      <c r="F159" s="21"/>
-    </row>
-    <row r="160" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A159" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B160" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="C160" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="D160" s="31" t="s">
-        <v>266</v>
+        <v>181</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D160" s="13" t="s">
+        <v>239</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F160" s="32"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="161" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="B161" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="C161" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="D161" s="29" t="s">
-        <v>263</v>
+        <v>182</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>240</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F161" s="34" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="B162" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="C162" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="D162" s="30" t="s">
-        <v>269</v>
+        <v>183</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D162" s="19" t="s">
+        <v>244</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F162" s="35" t="s">
-        <v>276</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D163" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D164" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B165" s="42"/>
+      <c r="C165" s="42"/>
+      <c r="D165" s="42"/>
+      <c r="E165" s="42"/>
+      <c r="F165" s="42"/>
+    </row>
+    <row r="166" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A166" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B166" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C166" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D166" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E166" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F166" s="26"/>
+    </row>
+    <row r="167" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A167" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B167" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C167" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="D167" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F167" s="28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A168" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B168" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C168" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="D168" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="E168" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F168" s="29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A169" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B169" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C169" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="D169" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E169" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F169" s="28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B170" s="42"/>
+      <c r="C170" s="42"/>
+      <c r="D170" s="42"/>
+      <c r="E170" s="42"/>
+      <c r="F170" s="42"/>
+    </row>
+    <row r="171" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B171" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C171" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D171" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A172" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="B163" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C163" s="30" t="s">
+      <c r="B172" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D172" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D163" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="E163" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F163" s="34" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B164" s="21"/>
-      <c r="C164" s="21"/>
-      <c r="D164" s="21"/>
-      <c r="E164" s="21"/>
-      <c r="F164" s="21"/>
-    </row>
-    <row r="165" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="27" t="s">
+      <c r="E172" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F172" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B173" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="C173" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D173" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F173" s="22"/>
+    </row>
+    <row r="174" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A174" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="B165" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="C165" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="D165" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="E165" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="27" t="s">
+      <c r="B174" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="C174" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="D174" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A175" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="B166" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="C166" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D166" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="E166" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F166" s="28" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="27" t="s">
+      <c r="B175" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="C175" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="D175" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A176" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="B167" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="C167" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="D167" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="E167" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F167" s="28"/>
-    </row>
-    <row r="168" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="B168" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="C168" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="D168" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="E168" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="B169" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="C169" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="D169" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="E169" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="B170" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="C170" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="D170" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="E170" s="16" t="s">
-        <v>36</v>
+      <c r="B176" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="C176" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="D176" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A71:F71"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A159:F159"/>
-    <mergeCell ref="A164:F164"/>
+    <mergeCell ref="A165:F165"/>
+    <mergeCell ref="A170:F170"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="A111:F111"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="A94:F94"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A144:F144"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4207,12 +5192,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4221,15 +5206,16 @@
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" customWidth="1"/>
-    <col min="9" max="10" width="45.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="9" width="36.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+    <col min="11" max="12" width="45.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4243,465 +5229,1004 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>292</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-    </row>
-    <row r="9" spans="1:12" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="E10" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="J13" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="126" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="22"/>
+    </row>
+    <row r="16" spans="1:14" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="J16" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="J18" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L18" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+    </row>
+    <row r="20" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="J20" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+    </row>
+    <row r="23" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="126" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="126" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="39" t="s">
+      <c r="B25" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" s="29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="126" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="30" t="s">
+      <c r="D27" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" s="26"/>
+    </row>
+    <row r="28" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" s="26"/>
+    </row>
+    <row r="29" spans="1:14" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="L29" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" s="26"/>
+    </row>
+    <row r="30" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L30" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" s="26"/>
+    </row>
+    <row r="31" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L31" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" s="26"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+    </row>
+    <row r="33" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="I33" s="26"/>
+      <c r="J33" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="K33" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="F9" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="126" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="32"/>
-    </row>
-    <row r="14" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="15" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-    </row>
-    <row r="19" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="L33" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="J19" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="32"/>
-    </row>
-    <row r="20" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="I20" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="J20" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="32"/>
+      <c r="M33" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" s="26"/>
+    </row>
+    <row r="34" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="I34" s="26"/>
+      <c r="J34" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="K34" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="L34" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A18:L18"/>
+  <mergeCells count="6">
+    <mergeCell ref="A21:N21"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="A32:N32"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A19:N19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TD_Tarasevich(Teams).xlsx
+++ b/TD_Tarasevich(Teams).xlsx
@@ -708,9 +708,6 @@
 3)Тема изменена на Темная</t>
   </si>
   <si>
-    <t>Удаление отправленного сообщения</t>
-  </si>
-  <si>
     <t>Скрытие собрания</t>
   </si>
   <si>
@@ -1232,11 +1229,6 @@
 3)Связь с другим пользователем по голосовому звонку установлена</t>
   </si>
   <si>
-    <t>1)Поле forms перехолит в состояние активное, чат открывается
-2)Появляется pop-up, происходит вызов дургого пользователя по видеозвонку
-3)Связь с другим пользователем по видеозвонку установлена</t>
-  </si>
-  <si>
     <t>Microsoft Teams открыт
 Чат с другим пользователем: forms
 Используя Charles сделать сигнал интернета слабым 56 kbps</t>
@@ -1254,16 +1246,6 @@
 6)Сообщение отредактировано, Жара заменена на Стужа</t>
   </si>
   <si>
-    <t>1)Поле forms перехолит в состояние активное, чат открывается
-2)Происходит вызов дургого пользователя по голосовому звонку
-3)Связь с другим пользователем по голосовому звонку установлена</t>
-  </si>
-  <si>
-    <t>1)Поле forms перехолит в состояние активное, чат открывается
-2)Происходит вызов дургого пользователя по видеозвонку
-3)Связь с другим пользователем по видеозвонку установлена</t>
-  </si>
-  <si>
     <t>1)Кликнуть на forms
 2)Отправить сообщение Жара
 3)Кликнуть правым кликом по отправленому сообщению
@@ -1421,6 +1403,26 @@
     <t>Microsoft Teams открыт
 Чат с другим пользователем: forms
 Настройка слабого интернет соединения на устройствах</t>
+  </si>
+  <si>
+    <t>1)Поле forms перехолит в состояние активное, чат открывается
+2)Появляется pop-up, происходит вызов другого пользователя по видеозвонку
+3)Связь с другим пользователем по видеозвонку установлена</t>
+  </si>
+  <si>
+    <t>1)Поле forms перехолит в состояние активное, чат открывается
+2)Появляется pop-up, происходит вызов другого пользователя по голосовому звонку
+3)Связь с другим пользователем по голосовому звонку установлена</t>
+  </si>
+  <si>
+    <t>1)Поле forms перехолит в состояние активное, чат открывается
+2)Происходит вызов другого пользователя по видеозвонку
+3)Связь с другим пользователем по видеозвонку установлена</t>
+  </si>
+  <si>
+    <t>1)Поле forms перехолит в состояние активное, чат открывается
+2)Происходит вызов другого пользователя по голосовому звонку
+3)Связь с другим пользователем по голосовому звонку установлена</t>
   </si>
 </sst>
 </file>
@@ -1701,39 +1703,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1751,6 +1720,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3342,7 +3344,7 @@
   <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -3376,24 +3378,24 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -3412,7 +3414,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3434,14 +3436,14 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
     </row>
     <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
@@ -3451,7 +3453,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>57</v>
@@ -3469,7 +3471,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>183</v>
@@ -3541,7 +3543,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>61</v>
@@ -3631,7 +3633,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>64</v>
@@ -3649,7 +3651,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>65</v>
@@ -3702,10 +3704,10 @@
         <v>74</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>32</v>
@@ -3719,10 +3721,10 @@
         <v>75</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>32</v>
@@ -3736,13 +3738,13 @@
         <v>43</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -3753,7 +3755,7 @@
         <v>43</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>53</v>
@@ -3770,7 +3772,7 @@
         <v>43</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>53</v>
@@ -3780,27 +3782,27 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>381</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>383</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>382</v>
+        <v>385</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>378</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>32</v>
@@ -3809,36 +3811,36 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="C28" s="44" t="s">
         <v>390</v>
       </c>
-      <c r="B28" s="55" t="s">
-        <v>384</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>394</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>393</v>
+      <c r="D28" s="44" t="s">
+        <v>389</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="57" t="s">
-        <v>399</v>
+      <c r="F28" s="46" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>32</v>
@@ -3847,61 +3849,61 @@
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>385</v>
+        <v>388</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>381</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B32" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="D32" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>304</v>
-      </c>
       <c r="E32" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="58"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C33" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D33" s="23" t="s">
         <v>305</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>306</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>32</v>
@@ -3910,16 +3912,16 @@
     </row>
     <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>32</v>
@@ -3928,16 +3930,16 @@
     </row>
     <row r="35" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>32</v>
@@ -3946,16 +3948,16 @@
     </row>
     <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B36" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D36" s="24" t="s">
         <v>259</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>260</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>32</v>
@@ -3964,16 +3966,16 @@
     </row>
     <row r="37" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>32</v>
@@ -3982,16 +3984,16 @@
     </row>
     <row r="38" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>32</v>
@@ -4000,16 +4002,16 @@
     </row>
     <row r="39" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>32</v>
@@ -4017,24 +4019,24 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
     </row>
     <row r="42" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
@@ -4053,7 +4055,7 @@
         <v>32</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4073,14 +4075,14 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
@@ -4090,7 +4092,7 @@
         <v>35</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>57</v>
@@ -4106,7 +4108,7 @@
         <v>35</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>187</v>
@@ -4250,7 +4252,7 @@
         <v>44</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>64</v>
@@ -4266,7 +4268,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>65</v>
@@ -4387,14 +4389,14 @@
       <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -4431,14 +4433,14 @@
       <c r="F68" s="8"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
@@ -4451,24 +4453,24 @@
       <c r="F70" s="4"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="44" t="s">
+      <c r="A74" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B74" s="46"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
     </row>
     <row r="76" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
@@ -4487,7 +4489,7 @@
         <v>32</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4508,14 +4510,14 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="52"/>
     </row>
     <row r="79" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
@@ -4525,7 +4527,7 @@
         <v>35</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>57</v>
@@ -4542,7 +4544,7 @@
         <v>35</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D80" s="13" t="s">
         <v>58</v>
@@ -4695,7 +4697,7 @@
         <v>44</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>64</v>
@@ -4712,7 +4714,7 @@
         <v>45</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>65</v>
@@ -4743,13 +4745,13 @@
         <v>138</v>
       </c>
       <c r="B92" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D92" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="E92" s="18" t="s">
         <v>32</v>
@@ -4763,10 +4765,10 @@
         <v>74</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E93" s="18" t="s">
         <v>32</v>
@@ -4780,10 +4782,10 @@
         <v>75</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E94" s="18" t="s">
         <v>32</v>
@@ -4797,10 +4799,10 @@
         <v>43</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E95" s="18" t="s">
         <v>32</v>
@@ -4814,10 +4816,10 @@
         <v>43</v>
       </c>
       <c r="C96" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D96" s="19" t="s">
         <v>228</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>229</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>32</v>
@@ -4831,37 +4833,37 @@
         <v>43</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="42" t="s">
+      <c r="A98" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="43"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="52"/>
     </row>
     <row r="99" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>32</v>
@@ -4869,76 +4871,76 @@
     </row>
     <row r="100" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F100" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F101" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B102" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="C102" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="C102" s="24" t="s">
+      <c r="D102" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="D102" s="24" t="s">
+      <c r="E102" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102" s="41" t="s">
         <v>290</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F102" s="41" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C103" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="D103" s="24" t="s">
         <v>300</v>
-      </c>
-      <c r="D103" s="24" t="s">
-        <v>301</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>32</v>
@@ -4946,43 +4948,43 @@
     </row>
     <row r="104" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="42" t="s">
+      <c r="A105" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B105" s="43"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="43"/>
+      <c r="B105" s="52"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="52"/>
+      <c r="E105" s="52"/>
+      <c r="F105" s="52"/>
     </row>
     <row r="106" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C106" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D106" s="24" t="s">
         <v>257</v>
-      </c>
-      <c r="D106" s="24" t="s">
-        <v>258</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>32</v>
@@ -4991,36 +4993,36 @@
     </row>
     <row r="107" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B107" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C107" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="C107" s="24" t="s">
-        <v>254</v>
-      </c>
       <c r="D107" s="24" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E107" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F107" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B108" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="D108" s="24" t="s">
         <v>259</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="D108" s="24" t="s">
-        <v>260</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>32</v>
@@ -5029,16 +5031,16 @@
     </row>
     <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B109" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="C109" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="C109" s="23" t="s">
+      <c r="D109" s="23" t="s">
         <v>303</v>
-      </c>
-      <c r="D109" s="23" t="s">
-        <v>304</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>32</v>
@@ -5047,16 +5049,16 @@
     </row>
     <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C110" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D110" s="23" t="s">
         <v>305</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>306</v>
       </c>
       <c r="E110" s="16" t="s">
         <v>32</v>
@@ -5065,16 +5067,16 @@
     </row>
     <row r="111" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>32</v>
@@ -5083,16 +5085,16 @@
     </row>
     <row r="112" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>32</v>
@@ -5101,43 +5103,43 @@
     </row>
     <row r="113" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E113" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F113" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="44" t="s">
+      <c r="A114" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B114" s="46"/>
-      <c r="C114" s="46"/>
-      <c r="D114" s="46"/>
-      <c r="E114" s="46"/>
-      <c r="F114" s="46"/>
+      <c r="B114" s="50"/>
+      <c r="C114" s="50"/>
+      <c r="D114" s="50"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="50"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="42" t="s">
+      <c r="A115" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B115" s="43"/>
-      <c r="C115" s="43"/>
-      <c r="D115" s="43"/>
-      <c r="E115" s="43"/>
-      <c r="F115" s="43"/>
+      <c r="B115" s="52"/>
+      <c r="C115" s="52"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="52"/>
+      <c r="F115" s="52"/>
     </row>
     <row r="116" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
@@ -5153,7 +5155,7 @@
         <v>28</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5171,14 +5173,14 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="42" t="s">
+      <c r="A118" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B118" s="43"/>
-      <c r="C118" s="43"/>
-      <c r="D118" s="43"/>
-      <c r="E118" s="43"/>
-      <c r="F118" s="43"/>
+      <c r="B118" s="52"/>
+      <c r="C118" s="52"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="52"/>
+      <c r="F118" s="52"/>
     </row>
     <row r="119" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
@@ -5188,7 +5190,7 @@
         <v>35</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D119" s="11" t="s">
         <v>57</v>
@@ -5202,7 +5204,7 @@
         <v>35</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D120" s="13" t="s">
         <v>58</v>
@@ -5328,7 +5330,7 @@
         <v>44</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>64</v>
@@ -5342,7 +5344,7 @@
         <v>45</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D130" s="11" t="s">
         <v>65</v>
@@ -5447,14 +5449,14 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="42" t="s">
+      <c r="A138" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B138" s="43"/>
-      <c r="C138" s="43"/>
-      <c r="D138" s="43"/>
-      <c r="E138" s="43"/>
-      <c r="F138" s="43"/>
+      <c r="B138" s="52"/>
+      <c r="C138" s="52"/>
+      <c r="D138" s="52"/>
+      <c r="E138" s="52"/>
+      <c r="F138" s="52"/>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
@@ -5462,14 +5464,14 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="42" t="s">
+      <c r="A143" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B143" s="43"/>
-      <c r="C143" s="43"/>
-      <c r="D143" s="43"/>
-      <c r="E143" s="43"/>
-      <c r="F143" s="43"/>
+      <c r="B143" s="52"/>
+      <c r="C143" s="52"/>
+      <c r="D143" s="52"/>
+      <c r="E143" s="52"/>
+      <c r="F143" s="52"/>
     </row>
     <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
@@ -5498,24 +5500,24 @@
       <c r="F146" s="4"/>
     </row>
     <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="44" t="s">
+      <c r="A148" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B148" s="45"/>
-      <c r="C148" s="45"/>
-      <c r="D148" s="45"/>
-      <c r="E148" s="45"/>
-      <c r="F148" s="45"/>
+      <c r="B148" s="49"/>
+      <c r="C148" s="49"/>
+      <c r="D148" s="49"/>
+      <c r="E148" s="49"/>
+      <c r="F148" s="49"/>
     </row>
     <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="42" t="s">
+      <c r="A149" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B149" s="43"/>
-      <c r="C149" s="43"/>
-      <c r="D149" s="43"/>
-      <c r="E149" s="43"/>
-      <c r="F149" s="43"/>
+      <c r="B149" s="52"/>
+      <c r="C149" s="52"/>
+      <c r="D149" s="52"/>
+      <c r="E149" s="52"/>
+      <c r="F149" s="52"/>
     </row>
     <row r="150" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
@@ -5525,7 +5527,7 @@
         <v>35</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D150" s="11" t="s">
         <v>57</v>
@@ -5542,7 +5544,7 @@
         <v>35</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D151" s="13" t="s">
         <v>184</v>
@@ -5695,7 +5697,7 @@
         <v>44</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>64</v>
@@ -5712,7 +5714,7 @@
         <v>45</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D161" s="11" t="s">
         <v>65</v>
@@ -5743,13 +5745,13 @@
         <v>176</v>
       </c>
       <c r="B163" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D163" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="E163" s="16" t="s">
         <v>32</v>
@@ -5763,10 +5765,10 @@
         <v>74</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E164" s="16" t="s">
         <v>32</v>
@@ -5780,10 +5782,10 @@
         <v>75</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E165" s="16" t="s">
         <v>32</v>
@@ -5797,10 +5799,10 @@
         <v>43</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E166" s="16" t="s">
         <v>32</v>
@@ -5814,10 +5816,10 @@
         <v>43</v>
       </c>
       <c r="C167" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D167" s="19" t="s">
         <v>228</v>
-      </c>
-      <c r="D167" s="19" t="s">
-        <v>229</v>
       </c>
       <c r="E167" s="16" t="s">
         <v>32</v>
@@ -5831,37 +5833,37 @@
         <v>43</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E168" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="42" t="s">
+      <c r="A169" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B169" s="43"/>
-      <c r="C169" s="43"/>
-      <c r="D169" s="43"/>
-      <c r="E169" s="43"/>
-      <c r="F169" s="43"/>
+      <c r="B169" s="52"/>
+      <c r="C169" s="52"/>
+      <c r="D169" s="52"/>
+      <c r="E169" s="52"/>
+      <c r="F169" s="52"/>
     </row>
     <row r="170" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B170" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E170" s="16" t="s">
         <v>32</v>
@@ -5870,86 +5872,86 @@
     </row>
     <row r="171" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B171" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C171" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D171" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F171" s="28" t="s">
         <v>245</v>
-      </c>
-      <c r="E171" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F171" s="28" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C172" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D172" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E172" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F172" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B173" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C173" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D173" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E173" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F173" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="42" t="s">
+      <c r="A174" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B174" s="43"/>
-      <c r="C174" s="43"/>
-      <c r="D174" s="43"/>
-      <c r="E174" s="43"/>
-      <c r="F174" s="43"/>
+      <c r="B174" s="52"/>
+      <c r="C174" s="52"/>
+      <c r="D174" s="52"/>
+      <c r="E174" s="52"/>
+      <c r="F174" s="52"/>
     </row>
     <row r="175" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A175" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B175" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C175" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D175" s="20" t="s">
         <v>257</v>
-      </c>
-      <c r="D175" s="20" t="s">
-        <v>258</v>
       </c>
       <c r="E175" s="16" t="s">
         <v>32</v>
@@ -5957,36 +5959,36 @@
     </row>
     <row r="176" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A176" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B176" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C176" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="C176" s="20" t="s">
-        <v>254</v>
-      </c>
       <c r="D176" s="20" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E176" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F176" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B177" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C177" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="D177" s="20" t="s">
         <v>259</v>
-      </c>
-      <c r="C177" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="D177" s="20" t="s">
-        <v>260</v>
       </c>
       <c r="E177" s="16" t="s">
         <v>32</v>
@@ -5995,16 +5997,16 @@
     </row>
     <row r="178" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A178" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B178" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C178" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D178" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E178" s="16" t="s">
         <v>32</v>
@@ -6012,16 +6014,16 @@
     </row>
     <row r="179" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A179" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B179" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C179" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="C179" s="24" t="s">
-        <v>324</v>
-      </c>
       <c r="D179" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E179" s="16" t="s">
         <v>32</v>
@@ -6029,16 +6031,16 @@
     </row>
     <row r="180" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A180" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B180" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C180" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E180" s="16" t="s">
         <v>32</v>
@@ -6046,6 +6048,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A75:F75"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="A169:F169"/>
@@ -6062,14 +6072,6 @@
     <mergeCell ref="A105:F105"/>
     <mergeCell ref="A149:F149"/>
     <mergeCell ref="A148:F148"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A75:F75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6081,10 +6083,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6117,13 +6119,13 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
@@ -6148,40 +6150,40 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
     </row>
     <row r="4" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -6197,32 +6199,32 @@
         <v>198</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>332</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>199</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="K4" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="42" t="s">
         <v>333</v>
-      </c>
-      <c r="L4" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="53" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
@@ -6239,32 +6241,32 @@
         <v>198</v>
       </c>
       <c r="E5" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>332</v>
       </c>
       <c r="H5" s="33" t="s">
         <v>202</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="K5" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="41" t="s">
         <v>335</v>
-      </c>
-      <c r="L5" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="141.75" x14ac:dyDescent="0.25">
@@ -6281,32 +6283,32 @@
         <v>198</v>
       </c>
       <c r="E6" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>332</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>205</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="K6" s="53" t="s">
-        <v>339</v>
-      </c>
-      <c r="L6" s="53" t="s">
-        <v>345</v>
+        <v>275</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>344</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="53" t="s">
-        <v>341</v>
+      <c r="N6" s="42" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
@@ -6323,32 +6325,32 @@
         <v>198</v>
       </c>
       <c r="E7" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>332</v>
-      </c>
       <c r="H7" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="K7" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="42" t="s">
         <v>342</v>
-      </c>
-      <c r="L7" s="53" t="s">
-        <v>344</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="53" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
@@ -6365,32 +6367,32 @@
         <v>198</v>
       </c>
       <c r="E8" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>332</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>186</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="K8" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="K8" s="53" t="s">
-        <v>353</v>
-      </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="42" t="s">
         <v>346</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="53" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
@@ -6407,32 +6409,32 @@
         <v>198</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>332</v>
-      </c>
       <c r="H9" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="K9" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="L9" s="53" t="s">
+        <v>351</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="42" t="s">
         <v>350</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="53" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="126" x14ac:dyDescent="0.25">
@@ -6449,32 +6451,32 @@
         <v>198</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>332</v>
-      </c>
       <c r="H10" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="K10" s="53" t="s">
-        <v>372</v>
-      </c>
-      <c r="L10" s="53" t="s">
-        <v>373</v>
+        <v>351</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>369</v>
       </c>
       <c r="M10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="53" t="s">
-        <v>371</v>
+      <c r="N10" s="42" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -6482,7 +6484,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>74</v>
@@ -6491,26 +6493,26 @@
         <v>198</v>
       </c>
       <c r="E11" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>332</v>
-      </c>
       <c r="H11" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="K11" s="53" t="s">
-        <v>374</v>
-      </c>
-      <c r="L11" s="53" t="s">
-        <v>380</v>
+        <v>351</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>376</v>
       </c>
       <c r="M11" s="16" t="s">
         <v>32</v>
@@ -6522,7 +6524,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>75</v>
@@ -6531,26 +6533,26 @@
         <v>198</v>
       </c>
       <c r="E12" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>332</v>
-      </c>
       <c r="H12" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="K12" s="53" t="s">
-        <v>374</v>
-      </c>
-      <c r="L12" s="53" t="s">
-        <v>379</v>
+        <v>351</v>
+      </c>
+      <c r="K12" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>375</v>
       </c>
       <c r="M12" s="16" t="s">
         <v>32</v>
@@ -6558,57 +6560,57 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
     </row>
     <row r="14" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>332</v>
-      </c>
       <c r="H14" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="40" t="s">
-        <v>413</v>
-      </c>
-      <c r="K14" s="53" t="s">
-        <v>374</v>
-      </c>
-      <c r="L14" s="53" t="s">
-        <v>380</v>
+        <v>409</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>376</v>
       </c>
       <c r="M14" s="16" t="s">
         <v>32</v>
@@ -6616,40 +6618,40 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
+      <c r="A15" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
     </row>
     <row r="17" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -6665,32 +6667,32 @@
         <v>198</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H17" s="33" t="s">
         <v>199</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="K17" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="L17" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="22" t="s">
         <v>277</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="22" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
@@ -6707,20 +6709,20 @@
         <v>198</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H18" s="33" t="s">
         <v>202</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K18" s="29" t="s">
         <v>204</v>
@@ -6732,7 +6734,7 @@
         <v>32</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
@@ -6749,20 +6751,20 @@
         <v>198</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>205</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K19" s="29" t="s">
         <v>207</v>
@@ -6774,7 +6776,7 @@
         <v>32</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
@@ -6791,20 +6793,20 @@
         <v>198</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>210</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K20" s="29" t="s">
         <v>212</v>
@@ -6816,7 +6818,7 @@
         <v>32</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="126" x14ac:dyDescent="0.25">
@@ -6833,26 +6835,26 @@
         <v>198</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>186</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="K21" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="L21" s="29" t="s">
         <v>356</v>
-      </c>
-      <c r="L21" s="29" t="s">
-        <v>357</v>
       </c>
       <c r="M21" s="16" t="s">
         <v>32</v>
@@ -6873,26 +6875,26 @@
         <v>198</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K22" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="L22" s="29" t="s">
         <v>358</v>
-      </c>
-      <c r="L22" s="29" t="s">
-        <v>359</v>
       </c>
       <c r="M22" s="16" t="s">
         <v>32</v>
@@ -6913,26 +6915,26 @@
         <v>198</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L23" s="29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M23" s="16" t="s">
         <v>32</v>
@@ -6944,7 +6946,7 @@
         <v>139</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>74</v>
@@ -6953,32 +6955,32 @@
         <v>198</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="M24" s="16" t="s">
         <v>32</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
@@ -6986,7 +6988,7 @@
         <v>140</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>75</v>
@@ -6995,129 +6997,129 @@
         <v>198</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="M25" s="16" t="s">
         <v>32</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
     </row>
     <row r="27" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="40" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K27" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="L27" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="L27" s="29" t="s">
-        <v>362</v>
-      </c>
       <c r="M27" s="16" t="s">
         <v>32</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
     </row>
     <row r="30" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
@@ -7133,13 +7135,13 @@
         <v>198</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H30" s="33" t="s">
         <v>199</v>
@@ -7149,10 +7151,10 @@
         <v>200</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L30" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M30" s="16" t="s">
         <v>32</v>
@@ -7161,7 +7163,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="126" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>166</v>
       </c>
@@ -7175,13 +7177,13 @@
         <v>198</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H31" s="33" t="s">
         <v>202</v>
@@ -7203,7 +7205,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="126" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>167</v>
       </c>
@@ -7217,13 +7219,13 @@
         <v>198</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H32" s="32" t="s">
         <v>205</v>
@@ -7259,13 +7261,13 @@
         <v>198</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H33" s="33" t="s">
         <v>210</v>
@@ -7301,26 +7303,26 @@
         <v>198</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H34" s="33" t="s">
         <v>186</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L34" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M34" s="16" t="s">
         <v>32</v>
@@ -7341,26 +7343,26 @@
         <v>198</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G35" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>219</v>
+        <v>279</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>347</v>
       </c>
       <c r="I35" s="26"/>
       <c r="J35" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="K35" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="K35" s="29" t="s">
-        <v>369</v>
-      </c>
       <c r="L35" s="29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M35" s="16" t="s">
         <v>32</v>
@@ -7381,26 +7383,26 @@
         <v>198</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>348</v>
       </c>
       <c r="I36" s="26"/>
       <c r="J36" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K36" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L36" s="29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M36" s="16" t="s">
         <v>32</v>
@@ -7412,7 +7414,7 @@
         <v>177</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C37" s="32" t="s">
         <v>74</v>
@@ -7421,26 +7423,26 @@
         <v>198</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>349</v>
+        <v>222</v>
       </c>
       <c r="I37" s="26"/>
       <c r="J37" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K37" s="29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L37" s="29" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="M37" s="16" t="s">
         <v>32</v>
@@ -7452,7 +7454,7 @@
         <v>178</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C38" s="32" t="s">
         <v>75</v>
@@ -7461,26 +7463,26 @@
         <v>198</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I38" s="26"/>
       <c r="J38" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K38" s="29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L38" s="29" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="M38" s="16" t="s">
         <v>32</v>
@@ -7488,57 +7490,57 @@
       <c r="N38" s="26"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
     </row>
     <row r="40" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I40" s="26"/>
       <c r="J40" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="K40" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="K40" s="37" t="s">
-        <v>265</v>
-      </c>
       <c r="L40" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M40" s="16" t="s">
         <v>32</v>
@@ -7547,38 +7549,38 @@
     </row>
     <row r="41" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I41" s="26"/>
       <c r="J41" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="K41" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="L41" s="37" t="s">
         <v>317</v>
-      </c>
-      <c r="K41" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="L41" s="37" t="s">
-        <v>318</v>
       </c>
       <c r="M41" s="16" t="s">
         <v>32</v>
@@ -7587,15 +7589,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="A26:N26"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A13:N13"/>
     <mergeCell ref="A28:N28"/>
     <mergeCell ref="A29:N29"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A16:N16"/>
-    <mergeCell ref="A26:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TD_Tarasevich(Teams).xlsx
+++ b/TD_Tarasevich(Teams).xlsx
@@ -1858,11 +1858,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1871,6 +1872,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1891,18 +1898,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3625,8 +3625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
@@ -3660,24 +3660,24 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -3718,14 +3718,14 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
     </row>
     <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -4064,14 +4064,14 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
@@ -4147,14 +4147,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
@@ -4301,24 +4301,24 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
     </row>
     <row r="42" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
@@ -4359,14 +4359,14 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
     </row>
     <row r="45" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
@@ -4546,7 +4546,7 @@
       <c r="E54" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="62" t="s">
+      <c r="F54" s="49" t="s">
         <v>427</v>
       </c>
     </row>
@@ -4713,14 +4713,14 @@
       <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
     </row>
     <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
@@ -4777,14 +4777,14 @@
       <c r="F67" s="7"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
@@ -4913,24 +4913,24 @@
       <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="49" t="s">
+      <c r="A76" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="52"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="47" t="s">
+      <c r="A77" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="48"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
     </row>
     <row r="78" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
@@ -4970,14 +4970,14 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="48"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="48"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="54"/>
     </row>
     <row r="81" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
@@ -5303,14 +5303,14 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="47" t="s">
+      <c r="A100" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B100" s="48"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="48"/>
-      <c r="E100" s="48"/>
-      <c r="F100" s="48"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="54"/>
+      <c r="F100" s="54"/>
     </row>
     <row r="101" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
@@ -5424,14 +5424,14 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="47" t="s">
+      <c r="A107" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B107" s="48"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="48"/>
-      <c r="F107" s="48"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="54"/>
     </row>
     <row r="108" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="20" t="s">
@@ -5582,24 +5582,24 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="49" t="s">
+      <c r="A116" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B116" s="51"/>
-      <c r="C116" s="51"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="51"/>
-      <c r="F116" s="51"/>
+      <c r="B116" s="52"/>
+      <c r="C116" s="52"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="52"/>
+      <c r="F116" s="52"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="47" t="s">
+      <c r="A117" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B117" s="48"/>
-      <c r="C117" s="48"/>
-      <c r="D117" s="48"/>
-      <c r="E117" s="48"/>
-      <c r="F117" s="48"/>
+      <c r="B117" s="54"/>
+      <c r="C117" s="54"/>
+      <c r="D117" s="54"/>
+      <c r="E117" s="54"/>
+      <c r="F117" s="54"/>
     </row>
     <row r="118" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
@@ -5633,14 +5633,14 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="47" t="s">
+      <c r="A120" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B120" s="48"/>
-      <c r="C120" s="48"/>
-      <c r="D120" s="48"/>
-      <c r="E120" s="48"/>
-      <c r="F120" s="48"/>
+      <c r="B120" s="54"/>
+      <c r="C120" s="54"/>
+      <c r="D120" s="54"/>
+      <c r="E120" s="54"/>
+      <c r="F120" s="54"/>
     </row>
     <row r="121" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
@@ -5909,14 +5909,14 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="47" t="s">
+      <c r="A140" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B140" s="48"/>
-      <c r="C140" s="48"/>
-      <c r="D140" s="48"/>
-      <c r="E140" s="48"/>
-      <c r="F140" s="48"/>
+      <c r="B140" s="54"/>
+      <c r="C140" s="54"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="54"/>
+      <c r="F140" s="54"/>
     </row>
     <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
@@ -5924,14 +5924,14 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="47" t="s">
+      <c r="A145" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B145" s="48"/>
-      <c r="C145" s="48"/>
-      <c r="D145" s="48"/>
-      <c r="E145" s="48"/>
-      <c r="F145" s="48"/>
+      <c r="B145" s="54"/>
+      <c r="C145" s="54"/>
+      <c r="D145" s="54"/>
+      <c r="E145" s="54"/>
+      <c r="F145" s="54"/>
     </row>
     <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
@@ -5960,24 +5960,24 @@
       <c r="F148" s="4"/>
     </row>
     <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="49" t="s">
+      <c r="A150" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B150" s="50"/>
-      <c r="C150" s="50"/>
-      <c r="D150" s="50"/>
-      <c r="E150" s="50"/>
-      <c r="F150" s="50"/>
+      <c r="B150" s="51"/>
+      <c r="C150" s="51"/>
+      <c r="D150" s="51"/>
+      <c r="E150" s="51"/>
+      <c r="F150" s="51"/>
     </row>
     <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="47" t="s">
+      <c r="A151" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B151" s="48"/>
-      <c r="C151" s="48"/>
-      <c r="D151" s="48"/>
-      <c r="E151" s="48"/>
-      <c r="F151" s="48"/>
+      <c r="B151" s="54"/>
+      <c r="C151" s="54"/>
+      <c r="D151" s="54"/>
+      <c r="E151" s="54"/>
+      <c r="F151" s="54"/>
     </row>
     <row r="152" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
@@ -6303,14 +6303,14 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="47" t="s">
+      <c r="A171" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B171" s="48"/>
-      <c r="C171" s="48"/>
-      <c r="D171" s="48"/>
-      <c r="E171" s="48"/>
-      <c r="F171" s="48"/>
+      <c r="B171" s="54"/>
+      <c r="C171" s="54"/>
+      <c r="D171" s="54"/>
+      <c r="E171" s="54"/>
+      <c r="F171" s="54"/>
     </row>
     <row r="172" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
@@ -6391,14 +6391,14 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="47" t="s">
+      <c r="A176" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B176" s="48"/>
-      <c r="C176" s="48"/>
-      <c r="D176" s="48"/>
-      <c r="E176" s="48"/>
-      <c r="F176" s="48"/>
+      <c r="B176" s="54"/>
+      <c r="C176" s="54"/>
+      <c r="D176" s="54"/>
+      <c r="E176" s="54"/>
+      <c r="F176" s="54"/>
     </row>
     <row r="177" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A177" s="20" t="s">
@@ -6508,6 +6508,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A77:F77"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A76:F76"/>
     <mergeCell ref="A171:F171"/>
@@ -6524,14 +6532,6 @@
     <mergeCell ref="A107:F107"/>
     <mergeCell ref="A151:F151"/>
     <mergeCell ref="A150:F150"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A77:F77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6610,40 +6610,40 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
     </row>
     <row r="4" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -7020,22 +7020,22 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
     </row>
     <row r="14" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
@@ -7078,40 +7078,40 @@
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="61" t="s">
         <v>409</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
     </row>
     <row r="17" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
@@ -7138,14 +7138,14 @@
       <c r="H17" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="I17" s="58"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="K17" s="59" t="s">
+      <c r="K17" s="48" t="s">
         <v>413</v>
       </c>
-      <c r="L17" s="59" t="s">
+      <c r="L17" s="48" t="s">
         <v>333</v>
       </c>
       <c r="M17" s="15" t="s">
@@ -7180,14 +7180,14 @@
       <c r="H18" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="I18" s="58"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="K18" s="59" t="s">
+      <c r="K18" s="48" t="s">
         <v>417</v>
       </c>
-      <c r="L18" s="59" t="s">
+      <c r="L18" s="48" t="s">
         <v>416</v>
       </c>
       <c r="M18" s="15" t="s">
@@ -7222,14 +7222,14 @@
       <c r="H19" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="I19" s="58"/>
+      <c r="I19" s="47"/>
       <c r="J19" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="K19" s="59" t="s">
+      <c r="K19" s="48" t="s">
         <v>418</v>
       </c>
-      <c r="L19" s="59" t="s">
+      <c r="L19" s="48" t="s">
         <v>419</v>
       </c>
       <c r="M19" s="15" t="s">
@@ -7264,14 +7264,14 @@
       <c r="H20" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="I20" s="58"/>
+      <c r="I20" s="47"/>
       <c r="J20" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="K20" s="59" t="s">
+      <c r="K20" s="48" t="s">
         <v>421</v>
       </c>
-      <c r="L20" s="59" t="s">
+      <c r="L20" s="48" t="s">
         <v>422</v>
       </c>
       <c r="M20" s="15" t="s">
@@ -7306,14 +7306,14 @@
       <c r="H21" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="I21" s="58"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="K21" s="59" t="s">
+      <c r="K21" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="L21" s="59" t="s">
+      <c r="L21" s="48" t="s">
         <v>425</v>
       </c>
       <c r="M21" s="15" t="s">
@@ -7348,14 +7348,14 @@
       <c r="H22" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="I22" s="58"/>
+      <c r="I22" s="47"/>
       <c r="J22" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="K22" s="59" t="s">
+      <c r="K22" s="48" t="s">
         <v>428</v>
       </c>
-      <c r="L22" s="59" t="s">
+      <c r="L22" s="48" t="s">
         <v>345</v>
       </c>
       <c r="M22" s="15" t="s">
@@ -7390,14 +7390,14 @@
       <c r="H23" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="I23" s="58"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="K23" s="59" t="s">
+      <c r="K23" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="L23" s="59" t="s">
+      <c r="L23" s="48" t="s">
         <v>432</v>
       </c>
       <c r="M23" s="15" t="s">
@@ -7432,7 +7432,7 @@
       <c r="H24" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="I24" s="58"/>
+      <c r="I24" s="47"/>
       <c r="J24" s="39" t="s">
         <v>347</v>
       </c>
@@ -7472,7 +7472,7 @@
       <c r="H25" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="I25" s="58"/>
+      <c r="I25" s="47"/>
       <c r="J25" s="39" t="s">
         <v>347</v>
       </c>
@@ -7488,22 +7488,22 @@
       <c r="N25" s="9"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
     </row>
     <row r="27" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
@@ -7530,7 +7530,7 @@
       <c r="H27" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="I27" s="58"/>
+      <c r="I27" s="47"/>
       <c r="J27" s="39" t="s">
         <v>443</v>
       </c>
@@ -7546,40 +7546,40 @@
       <c r="N27" s="9"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="56" t="s">
         <v>270</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
     </row>
     <row r="30" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
@@ -7954,22 +7954,22 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
     </row>
     <row r="40" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
@@ -8014,40 +8014,40 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="58"/>
     </row>
     <row r="43" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
@@ -8418,22 +8418,22 @@
       <c r="N51" s="25"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
     </row>
     <row r="53" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">

--- a/TD_Tarasevich(Teams).xlsx
+++ b/TD_Tarasevich(Teams).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="518">
   <si>
     <t>ID</t>
   </si>
@@ -1137,22 +1137,10 @@
 4)Выбрать 11 фото из имеющихся на локальной машине</t>
   </si>
   <si>
-    <t>1)Поле forms перехолит в состояние активное, чат открывается
-2)Появляется окно с выбором источника фото
-3)Появляется системное окно для выбора изображения
-4)Появляется сообщение: Можно отправить до 10 файлов одновременно</t>
-  </si>
-  <si>
     <t>1)Кликнуть на forms 
 2)Отправить сообщение Жара
 3)Кликнуть правым кликом по отправленому сообщению
 4)Кликнуть на Удалить</t>
-  </si>
-  <si>
-    <t>1)Поле forms перехолит в состояние активное, чат открывается
-2)Сообщение отправлено
-3)Появляется окно с Дополнительными действиями
-4)Сообщение удалено</t>
   </si>
   <si>
     <t xml:space="preserve">1)Кликнуть на forms
@@ -1168,11 +1156,6 @@
 3)Другой пользователь принимает звонок</t>
   </si>
   <si>
-    <t>1)Поле forms перехолит в состояние активное, чат открывается
-2)Появляется pop-up, происходит вызов дургого пользователя по голосовому звонку
-3)Связь с другим пользователем по голосовому звонку установлена</t>
-  </si>
-  <si>
     <t>Microsoft Teams открыт
 Чат с другим пользователем: forms
 Используя Charles сделать сигнал интернета слабым 56 kbps</t>
@@ -1180,14 +1163,6 @@
   <si>
     <t>Открыт URL: https://teams.live.com/
 Чат с другим пользователем: forms</t>
-  </si>
-  <si>
-    <t>1)Поле forms перехолит в состояние активное, чат открывается
-2)Сообщение отправлено
-3)Появляется окно с Дополнительными действиями
-4)Появляется поле редактирования сообщения
-5)Стужа введена
-6)Сообщение отредактировано, Жара заменена на Стужа</t>
   </si>
   <si>
     <t>1)Кликнуть на forms
@@ -1342,26 +1317,6 @@
   </si>
   <si>
     <t>Android 11.0/10.0/9.0</t>
-  </si>
-  <si>
-    <t>1)Поле forms перехолит в состояние активное, чат открывается
-2)Появляется pop-up, происходит вызов другого пользователя по видеозвонку
-3)Связь с другим пользователем по видеозвонку установлена</t>
-  </si>
-  <si>
-    <t>1)Поле forms перехолит в состояние активное, чат открывается
-2)Появляется pop-up, происходит вызов другого пользователя по голосовому звонку
-3)Связь с другим пользователем по голосовому звонку установлена</t>
-  </si>
-  <si>
-    <t>1)Поле forms перехолит в состояние активное, чат открывается
-2)Происходит вызов другого пользователя по видеозвонку
-3)Связь с другим пользователем по видеозвонку установлена</t>
-  </si>
-  <si>
-    <t>1)Поле forms перехолит в состояние активное, чат открывается
-2)Происходит вызов другого пользователя по голосовому звонку
-3)Связь с другим пользователем по голосовому звонку установлена</t>
   </si>
   <si>
     <t>iOS</t>
@@ -1644,40 +1599,18 @@
     <t>GUIm_4</t>
   </si>
   <si>
-    <t>GUIm_5.1</t>
-  </si>
-  <si>
-    <t>GUIm_5.2</t>
-  </si>
-  <si>
     <t>macOS</t>
   </si>
   <si>
     <t>Тарасевич Алексей</t>
   </si>
   <si>
-    <t>BSMO_1</t>
-  </si>
-  <si>
     <t>MacBook Air M1 2020</t>
   </si>
   <si>
     <t>Critical</t>
   </si>
   <si>
-    <t>iOS Microsoft Teams Version 4.13.1
-Android Microsoft Teams Version 1416/1.0.0.2022325603</t>
-  </si>
-  <si>
-    <t>iOS 15.5/15.4
-Android 11.0/10.0/9.0</t>
-  </si>
-  <si>
-    <t>iPhone SE 2020/11
-Samsung A50/J7 2017
-Redmi 9A</t>
-  </si>
-  <si>
     <t>Не происходит поиск сообщения/файлов/людей/чата используя 1 символ в поле "Поиск"</t>
   </si>
   <si>
@@ -1688,9 +1621,6 @@
   </si>
   <si>
     <t>Minor</t>
-  </si>
-  <si>
-    <t>BUSA_1</t>
   </si>
   <si>
     <t>Отображение аватара</t>
@@ -1718,9 +1648,6 @@
   <si>
     <t>Открыт URL: https://teams.live.com/
 Чат с другим пользователем: forms, before, balfor</t>
-  </si>
-  <si>
-    <t>Невозможно использовать веб-приложением дальше</t>
   </si>
   <si>
     <t>Веб-приложение повторно обновляет страницу</t>
@@ -1758,6 +1685,324 @@
   </si>
   <si>
     <t>Pop-up: https://prnt.sc/v5GxB1jic6iB</t>
+  </si>
+  <si>
+    <t>1)Кликнуть на forms 
+2)Отправить сообщение Жара
+3)Навести курсор на отправленное сообщение
+4)Кликнуть на 
+5)Кликнуть на Удалить</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Окно реакций: https://prnt.sc/lzXFzkYEQ490
+Окно дополнительных действий:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://prnt.sc/kxz9nNEikVgN</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Кликнуть на forms
+2)Отправить сообщение Жара
+3)Навести курсор на отправленное сообщение
+4)Кликнуть на 
+5)Кликнуть на Изменить
+6)Заменить Жара на Стужа
+7)Кликнуть на </t>
+  </si>
+  <si>
+    <t>Pop-up: https://prnt.sc/Ffpl7Jx_ylRk</t>
+  </si>
+  <si>
+    <t>1)Поле forms переходит в состояние активное, чат открывается
+2)Появляется окно с выбором источника фото
+3)Появляется системное окно для выбора изображения
+4)Появляется сообщение: Можно отправить до 10 файлов одновременно</t>
+  </si>
+  <si>
+    <t>1)Поле forms переходит в состояние активное, чат открывается
+2)Сообщение отправлено
+3)Появляется окно с Дополнительными действиями
+4)Появляется поле редактирования сообщения
+5)Стужа введена
+6)Сообщение отредактировано, Жара заменена на Стужа</t>
+  </si>
+  <si>
+    <t>1)Поле forms переходит в состояние активное, чат открывается
+2)Сообщение отправлено
+3)Появляется окно с Дополнительными действиями
+4)Сообщение удалено</t>
+  </si>
+  <si>
+    <t>1)Поле forms переходит в состояние активное, чат открывается
+2)Сообщение отправлено
+3)Появляется окно с реакциями
+4)Появляется окно с Дополнительными действиями
+5)Сообщение удалено</t>
+  </si>
+  <si>
+    <t>1)Поле forms переходит в состояние активное, чат открывается
+2)Появляется pop-up, происходит вызов другого пользователя по голосовому звонку
+3)Связь с другим пользователем по голосовому звонку установлена</t>
+  </si>
+  <si>
+    <t>1)Поле forms переходит в состояние активное, чат открывается
+2)Появляется pop-up, происходит вызов другого пользователя по видеозвонку
+3)Связь с другим пользователем по видеозвонку установлена</t>
+  </si>
+  <si>
+    <t>1)Поле forms переходит в состояние активное, чат открывается
+2)Появляется pop-up, происходит вызов дургого пользователя по голосовому звонку
+3)Связь с другим пользователем по голосовому звонку установлена</t>
+  </si>
+  <si>
+    <t>1)Поле forms переходит в состояние активное, чат открывается
+2)Сообщение отправлено
+3)Появляется окно с реакциями
+4)Появляется окно с Дополнительными действиями
+5)Появляется поле редактирования сообщения
+6)Стужа введена
+7)Сообщение отредактировано, Жара заменена на Стужа</t>
+  </si>
+  <si>
+    <t>1)Поле forms переходит в состояние активное, чат открывается
+2)Происходит вызов другого пользователя по голосовому звонку
+3)Связь с другим пользователем по голосовому звонку установлена</t>
+  </si>
+  <si>
+    <t>1)Поле forms переходит в состояние активное, чат открывается
+2)Происходит вызов другого пользователя по видеозвонку
+3)Связь с другим пользователем по видеозвонку установлена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Teams Version 4.13.1
+</t>
+  </si>
+  <si>
+    <t>BSMO_1.1</t>
+  </si>
+  <si>
+    <t>BSMO_1.2</t>
+  </si>
+  <si>
+    <t>BUSA_1.1</t>
+  </si>
+  <si>
+    <t>BUSA_1.2</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/XM4KT-oxmHga</t>
+  </si>
+  <si>
+    <t>GUIm_5</t>
+  </si>
+  <si>
+    <t>BUSA_2</t>
+  </si>
+  <si>
+    <t>Холодный старт выполняется за 11 секунд</t>
+  </si>
+  <si>
+    <t>Время холодного старта больше чем указано</t>
+  </si>
+  <si>
+    <t>1)Запустить Microsoft Teams</t>
+  </si>
+  <si>
+    <t>QA Engineer: Тарасевич Алексей</t>
+  </si>
+  <si>
+    <t>Microsoft Teams
+Приложение создано для общения, объединяет коллег и партнеров и включает в себя инструменты, необходимые командам для продуктивной совместной работы.</t>
+  </si>
+  <si>
+    <t>Найдено 6 багов (Android 1 баг, iOS 1 баг, Windows 1 баг, macOS 2 бага, Chrome 1 баг) из них:
+Critical = 1
+Major = 2
+Minor = 3</t>
+  </si>
+  <si>
+    <t>Подготовка к тестированию была осуществлена до 29.07.2022 18:00.
+Тестирование программного продукта проводилось с 30.07.2022 по 01.08.2022 18:00.
+Анализ результатов тестирования проводился до 02.08.2022 19:00.</t>
+  </si>
+  <si>
+    <t>Багов функциональности приложения = 3
+Багов удобства использования приложения = 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Для каждой платформы использовалось своё тестовое окружение:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1)Android</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Приложение: Microsoft Teams Version 1416/1.0.0.2022325603
+ОС: Android 11.0/10.0/9.0
+Устройства: Samsung A50, Samsung J7 2017, Redmi 9A
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2)iOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Приложение: Microsoft Teams Version 4.13.1
+ОС: iOS 15.5/15.4
+Устройства: iPhone SE 2020, iPhone 11
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3)Windows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Приложение: Microsoft Teams Version 1.5.00.17656
+ОС: Windows 10 Version 21H2
+Устройство: Lenovo Y540-15IRH
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4)macOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Приложение: Microsoft Teams Version 1.5.00.17261
+ОС: macOS Monterey Version 12.4
+Устройство: MacBook Air M1 2020
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5)Chrome (веб-приложение)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Версия браузера: Google Chrome Version 103.0.5060.134
+ОС: Windows 10 Version 21H2
+Устройство: Lenovo Y540-15IRH</t>
+    </r>
+  </si>
+  <si>
+    <t>Вывод</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Невозможно использовать веб-приложением дальше </t>
+  </si>
+  <si>
+    <t>По итогам тестирования, программный продукт готов к релизу. То что был найден баг ID BAHT_1, не помешает пользователю пользоваться программным продуктом, потому что для его воспроиздения пользователю придется использовать DevTools, о наличие котором мало кто знает.</t>
+  </si>
+  <si>
+    <t>Тестирование программного продукта проводилось на 4 платформах, две из которых покрывали тестирование мобильной версии и две платформы покрыли тестирование десктопной версии, так же было проведено тестирование веб-приложения.
+Использовались два вида тестирования: Функциональное и нефункционально. С помощью которых были протестированы основные функциональные возможности приложения, удобство его использования и интерфейс.
+Тестировались модули: профиль (авторизация, редактирование), связь (чат, звонок, собрание), поиск, настройка (внешний вид), приложение (установка, удаление).
+В сумме была проведена 161 проверка.</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +2121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1931,6 +2176,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1945,7 +2196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2082,6 +2333,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2121,23 +2396,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2160,13 +2426,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2204,13 +2470,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>298939</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2248,13 +2514,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4009,6 +4275,182 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1257337</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>990628</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Рисунок 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16840200" y="51663600"/>
+          <a:ext cx="266737" cy="200053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1419225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1657350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Рисунок 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16868775" y="53692425"/>
+          <a:ext cx="266700" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1247812</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1000153</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Рисунок 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16830675" y="53073300"/>
+          <a:ext cx="266737" cy="200053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>971551</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1274235</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Рисунок 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16821151" y="36090225"/>
+          <a:ext cx="302684" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4299,11 +4741,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4336,24 +4778,24 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -4394,14 +4836,14 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -4696,13 +5138,13 @@
         <v>39</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -4713,7 +5155,7 @@
         <v>39</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>49</v>
@@ -4730,7 +5172,7 @@
         <v>39</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>49</v>
@@ -4740,27 +5182,27 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>31</v>
@@ -4769,33 +5211,33 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="C28" s="41" t="s">
         <v>370</v>
       </c>
-      <c r="B28" s="41" t="s">
-        <v>364</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>374</v>
-      </c>
       <c r="D28" s="41" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>215</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>233</v>
@@ -4807,34 +5249,34 @@
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>287</v>
@@ -4852,7 +5294,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>287</v>
@@ -4870,16 +5312,16 @@
     </row>
     <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>223</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>31</v>
@@ -4888,16 +5330,16 @@
     </row>
     <row r="35" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>238</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>31</v>
@@ -4906,13 +5348,13 @@
     </row>
     <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>244</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>245</v>
@@ -4924,7 +5366,7 @@
     </row>
     <row r="37" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>301</v>
@@ -4942,7 +5384,7 @@
     </row>
     <row r="38" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>301</v>
@@ -4960,7 +5402,7 @@
     </row>
     <row r="39" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>301</v>
@@ -4969,7 +5411,7 @@
         <v>314</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>31</v>
@@ -4977,24 +5419,24 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
     </row>
     <row r="42" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -5035,14 +5477,14 @@
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
     </row>
     <row r="45" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
@@ -5217,13 +5659,13 @@
         <v>172</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5342,13 +5784,13 @@
         <v>39</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F61" s="5"/>
     </row>
@@ -5360,7 +5802,7 @@
         <v>39</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>49</v>
@@ -5378,7 +5820,7 @@
         <v>39</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>49</v>
@@ -5389,27 +5831,27 @@
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="48" t="s">
+      <c r="A64" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
     </row>
     <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>31</v>
@@ -5418,13 +5860,13 @@
     </row>
     <row r="66" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>215</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>233</v>
@@ -5436,16 +5878,16 @@
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>31</v>
@@ -5453,18 +5895,18 @@
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>287</v>
@@ -5482,16 +5924,16 @@
     </row>
     <row r="70" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>223</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>31</v>
@@ -5500,16 +5942,16 @@
     </row>
     <row r="71" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>238</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>31</v>
@@ -5518,13 +5960,13 @@
     </row>
     <row r="72" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>244</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D72" s="21" t="s">
         <v>245</v>
@@ -5536,7 +5978,7 @@
     </row>
     <row r="73" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>301</v>
@@ -5554,7 +5996,7 @@
     </row>
     <row r="74" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>301</v>
@@ -5572,7 +6014,7 @@
     </row>
     <row r="75" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>301</v>
@@ -5581,7 +6023,7 @@
         <v>314</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>31</v>
@@ -5589,24 +6031,24 @@
       <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="50" t="s">
+      <c r="A76" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B76" s="52"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="52"/>
-      <c r="E76" s="52"/>
-      <c r="F76" s="52"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
+      <c r="A77" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="57"/>
     </row>
     <row r="78" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -5646,14 +6088,14 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="48" t="s">
+      <c r="A80" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="49"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
     </row>
     <row r="81" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
@@ -5979,14 +6421,14 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="48" t="s">
+      <c r="A100" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="49"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49"/>
-      <c r="E100" s="49"/>
-      <c r="F100" s="49"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="57"/>
     </row>
     <row r="101" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
@@ -5996,7 +6438,7 @@
         <v>215</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D101" s="22" t="s">
         <v>233</v>
@@ -6100,14 +6542,14 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="48" t="s">
+      <c r="A107" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B107" s="49"/>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
-      <c r="E107" s="49"/>
-      <c r="F107" s="49"/>
+      <c r="B107" s="57"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="57"/>
     </row>
     <row r="108" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
@@ -6138,7 +6580,7 @@
         <v>239</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E109" s="13" t="s">
         <v>31</v>
@@ -6155,7 +6597,7 @@
         <v>244</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D110" s="21" t="s">
         <v>245</v>
@@ -6258,24 +6700,24 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="50" t="s">
+      <c r="A116" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B116" s="52"/>
-      <c r="C116" s="52"/>
-      <c r="D116" s="52"/>
-      <c r="E116" s="52"/>
-      <c r="F116" s="52"/>
+      <c r="B116" s="60"/>
+      <c r="C116" s="60"/>
+      <c r="D116" s="60"/>
+      <c r="E116" s="60"/>
+      <c r="F116" s="60"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="48" t="s">
+      <c r="A117" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B117" s="49"/>
-      <c r="C117" s="49"/>
-      <c r="D117" s="49"/>
-      <c r="E117" s="49"/>
-      <c r="F117" s="49"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="57"/>
+      <c r="D117" s="57"/>
+      <c r="E117" s="57"/>
+      <c r="F117" s="57"/>
     </row>
     <row r="118" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
@@ -6315,14 +6757,14 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="48" t="s">
+      <c r="A120" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B120" s="49"/>
-      <c r="C120" s="49"/>
-      <c r="D120" s="49"/>
-      <c r="E120" s="49"/>
-      <c r="F120" s="49"/>
+      <c r="B120" s="57"/>
+      <c r="C120" s="57"/>
+      <c r="D120" s="57"/>
+      <c r="E120" s="57"/>
+      <c r="F120" s="57"/>
     </row>
     <row r="121" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
@@ -6371,6 +6813,9 @@
       <c r="D123" s="8" t="s">
         <v>52</v>
       </c>
+      <c r="E123" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="124" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
@@ -6385,6 +6830,9 @@
       <c r="D124" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="E124" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
@@ -6399,6 +6847,9 @@
       <c r="D125" s="8" t="s">
         <v>53</v>
       </c>
+      <c r="E125" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="126" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
@@ -6413,6 +6864,9 @@
       <c r="D126" s="10" t="s">
         <v>54</v>
       </c>
+      <c r="E126" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
@@ -6495,6 +6949,9 @@
       <c r="D131" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="E131" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="132" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
@@ -6509,6 +6966,9 @@
       <c r="D132" s="8" t="s">
         <v>58</v>
       </c>
+      <c r="E132" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
@@ -6630,24 +7090,24 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="48" t="s">
+      <c r="A140" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B140" s="49"/>
-      <c r="C140" s="49"/>
-      <c r="D140" s="49"/>
-      <c r="E140" s="49"/>
-      <c r="F140" s="49"/>
+      <c r="B140" s="57"/>
+      <c r="C140" s="57"/>
+      <c r="D140" s="57"/>
+      <c r="E140" s="57"/>
+      <c r="F140" s="57"/>
     </row>
     <row r="141" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B141" s="20" t="s">
         <v>215</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D141" s="22" t="s">
         <v>233</v>
@@ -6659,7 +7119,7 @@
     </row>
     <row r="142" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B142" s="24" t="s">
         <v>217</v>
@@ -6679,7 +7139,7 @@
     </row>
     <row r="143" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B143" s="24" t="s">
         <v>218</v>
@@ -6699,7 +7159,7 @@
     </row>
     <row r="144" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B144" s="24" t="s">
         <v>273</v>
@@ -6717,128 +7177,132 @@
         <v>276</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="B145" s="24" t="s">
         <v>272</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B146" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="C146" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D146" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E146" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="48" t="s">
+      <c r="E145" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B147" s="49"/>
-      <c r="C147" s="49"/>
-      <c r="D147" s="49"/>
-      <c r="E147" s="49"/>
-      <c r="F147" s="49"/>
-    </row>
-    <row r="148" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B146" s="57"/>
+      <c r="C146" s="57"/>
+      <c r="D146" s="57"/>
+      <c r="E146" s="57"/>
+      <c r="F146" s="57"/>
+    </row>
+    <row r="147" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D147" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F147" s="4"/>
+    </row>
+    <row r="148" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="B148" s="20" t="s">
-        <v>223</v>
+        <v>446</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>238</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>243</v>
+        <v>374</v>
       </c>
       <c r="E148" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>239</v>
+        <v>383</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>378</v>
+        <v>245</v>
       </c>
       <c r="E149" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="B150" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="C150" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D150" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="E150" s="13" t="s">
-        <v>31</v>
+        <v>448</v>
+      </c>
+      <c r="B150" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C150" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D150" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E150" s="53" t="s">
+        <v>351</v>
       </c>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>288</v>
+        <v>301</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>312</v>
       </c>
       <c r="D151" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="E151" s="66" t="s">
-        <v>355</v>
+        <v>300</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="F151" s="4"/>
     </row>
     <row r="152" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B152" s="20" t="s">
         <v>301</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D152" s="20" t="s">
         <v>300</v>
@@ -6848,125 +7312,124 @@
       </c>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="18" t="s">
-        <v>458</v>
+    <row r="153" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="14" t="s">
+        <v>451</v>
       </c>
       <c r="B153" s="20" t="s">
         <v>301</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="D153" s="20" t="s">
-        <v>300</v>
+        <v>314</v>
+      </c>
+      <c r="D153" s="21" t="s">
+        <v>304</v>
       </c>
       <c r="E153" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="B154" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="C154" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="D154" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="E154" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F154" s="4"/>
+    <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B154" s="59"/>
+      <c r="C154" s="59"/>
+      <c r="D154" s="59"/>
+      <c r="E154" s="59"/>
+      <c r="F154" s="59"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B155" s="51"/>
-      <c r="C155" s="51"/>
-      <c r="D155" s="51"/>
-      <c r="E155" s="51"/>
-      <c r="F155" s="51"/>
-    </row>
-    <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="48" t="s">
+      <c r="A155" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B156" s="49"/>
-      <c r="C156" s="49"/>
-      <c r="D156" s="49"/>
-      <c r="E156" s="49"/>
-      <c r="F156" s="49"/>
-    </row>
-    <row r="157" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="11" t="s">
+      <c r="B155" s="57"/>
+      <c r="C155" s="57"/>
+      <c r="D155" s="57"/>
+      <c r="E155" s="57"/>
+      <c r="F155" s="57"/>
+    </row>
+    <row r="156" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
         <v>149</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E156" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A157" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>50</v>
+        <v>257</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="E157" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A158" s="14" t="s">
-        <v>150</v>
+    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>170</v>
+        <v>35</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E158" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="11" t="s">
-        <v>151</v>
+    <row r="159" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C159" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>52</v>
+      <c r="C159" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="E159" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="14" t="s">
-        <v>152</v>
+    <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C160" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D160" s="10" t="s">
-        <v>171</v>
+      <c r="C160" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="E160" s="13" t="s">
         <v>31</v>
@@ -6974,16 +7437,16 @@
     </row>
     <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="E161" s="13" t="s">
         <v>31</v>
@@ -6991,16 +7454,16 @@
     </row>
     <row r="162" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D162" s="10" t="s">
-        <v>197</v>
+        <v>32</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="E162" s="13" t="s">
         <v>31</v>
@@ -7008,101 +7471,101 @@
     </row>
     <row r="163" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E163" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="E164" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="11" t="s">
-        <v>157</v>
+      <c r="A165" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C165" s="10" t="s">
-        <v>200</v>
+      <c r="C165" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E165" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="14" t="s">
-        <v>158</v>
+    <row r="166" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>201</v>
+        <v>331</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="E166" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>331</v>
+        <v>41</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>332</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E167" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>332</v>
+        <v>38</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E168" s="13" t="s">
         <v>31</v>
@@ -7110,33 +7573,33 @@
     </row>
     <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>65</v>
+        <v>270</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="E169" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>206</v>
+        <v>67</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="E170" s="13" t="s">
         <v>31</v>
@@ -7144,16 +7607,16 @@
     </row>
     <row r="171" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>208</v>
+        <v>68</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E171" s="13" t="s">
         <v>31</v>
@@ -7161,16 +7624,16 @@
     </row>
     <row r="172" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D172" s="10" t="s">
-        <v>211</v>
+        <v>39</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="E172" s="13" t="s">
         <v>31</v>
@@ -7178,13 +7641,13 @@
     </row>
     <row r="173" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D173" s="16" t="s">
         <v>214</v>
@@ -7195,13 +7658,13 @@
     </row>
     <row r="174" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="D174" s="16" t="s">
         <v>214</v>
@@ -7210,185 +7673,185 @@
         <v>31</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C175" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D175" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="E175" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="48" t="s">
+    <row r="175" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B176" s="49"/>
-      <c r="C176" s="49"/>
-      <c r="D176" s="49"/>
-      <c r="E176" s="49"/>
-      <c r="F176" s="49"/>
-    </row>
-    <row r="177" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B175" s="57"/>
+      <c r="C175" s="57"/>
+      <c r="D175" s="57"/>
+      <c r="E175" s="57"/>
+      <c r="F175" s="57"/>
+    </row>
+    <row r="176" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A176" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B176" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="D176" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E176" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F176" s="23"/>
+    </row>
+    <row r="177" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B177" s="20" t="s">
-        <v>215</v>
+        <v>220</v>
+      </c>
+      <c r="B177" s="24" t="s">
+        <v>216</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="D177" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="D177" s="20" t="s">
+        <v>230</v>
       </c>
       <c r="E177" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F177" s="23"/>
-    </row>
-    <row r="178" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F177" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B178" s="24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D178" s="20" t="s">
-        <v>230</v>
+        <v>236</v>
+      </c>
+      <c r="D178" s="21" t="s">
+        <v>235</v>
       </c>
       <c r="E178" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F178" s="25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F178" s="26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B179" s="24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E179" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F179" s="26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B180" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="C180" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="D180" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="E180" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F180" s="25" t="s">
+      <c r="F179" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="48" t="s">
+    <row r="180" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B181" s="49"/>
-      <c r="C181" s="49"/>
-      <c r="D181" s="49"/>
-      <c r="E181" s="49"/>
-      <c r="F181" s="49"/>
+      <c r="B180" s="57"/>
+      <c r="C180" s="57"/>
+      <c r="D180" s="57"/>
+      <c r="E180" s="57"/>
+      <c r="F180" s="57"/>
+    </row>
+    <row r="181" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B181" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C181" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D181" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E181" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="182" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A182" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="B182" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C182" s="21" t="s">
-        <v>242</v>
+        <v>225</v>
+      </c>
+      <c r="B182" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>239</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>243</v>
+        <v>374</v>
       </c>
       <c r="E182" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F182" s="19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>239</v>
+        <v>383</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>378</v>
+        <v>245</v>
       </c>
       <c r="E183" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F183" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F183" s="19"/>
+    </row>
+    <row r="184" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="C184" s="17" t="s">
-        <v>387</v>
+        <v>308</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>311</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E184" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F184" s="19"/>
     </row>
     <row r="185" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B185" s="21" t="s">
         <v>308</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D185" s="17" t="s">
         <v>247</v>
@@ -7397,37 +7860,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="18" t="s">
-        <v>228</v>
+    <row r="186" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A186" s="14" t="s">
+        <v>229</v>
       </c>
       <c r="B186" s="21" t="s">
         <v>308</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="E186" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A187" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B187" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C187" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="D187" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="E187" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7435,8 +7881,8 @@
   <mergeCells count="24">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A176:F176"/>
-    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A175:F175"/>
+    <mergeCell ref="A180:F180"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A44:F44"/>
@@ -7447,11 +7893,11 @@
     <mergeCell ref="A80:F80"/>
     <mergeCell ref="A100:F100"/>
     <mergeCell ref="A107:F107"/>
-    <mergeCell ref="A156:F156"/>
     <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A154:F154"/>
     <mergeCell ref="A120:F120"/>
     <mergeCell ref="A140:F140"/>
-    <mergeCell ref="A147:F147"/>
+    <mergeCell ref="A146:F146"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A26:F26"/>
@@ -7468,10 +7914,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7535,40 +7981,40 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="65" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
     </row>
     <row r="4" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -7587,7 +8033,7 @@
         <v>316</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>317</v>
@@ -7629,7 +8075,7 @@
         <v>316</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>317</v>
@@ -7642,10 +8088,10 @@
         <v>261</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>31</v>
@@ -7671,7 +8117,7 @@
         <v>316</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>317</v>
@@ -7713,7 +8159,7 @@
         <v>316</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>317</v>
@@ -7755,7 +8201,7 @@
         <v>316</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>317</v>
@@ -7797,7 +8243,7 @@
         <v>316</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>317</v>
@@ -7839,7 +8285,7 @@
         <v>316</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>317</v>
@@ -7852,16 +8298,16 @@
         <v>335</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N10" s="39" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -7881,7 +8327,7 @@
         <v>316</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>317</v>
@@ -7894,10 +8340,10 @@
         <v>335</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>31</v>
@@ -7921,7 +8367,7 @@
         <v>316</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>317</v>
@@ -7934,10 +8380,10 @@
         <v>335</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L12" s="39" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>31</v>
@@ -7961,28 +8407,28 @@
         <v>316</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>317</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="I13" s="64" t="s">
-        <v>432</v>
+        <v>352</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>424</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="K13" s="39" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="L13" s="39" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N13" s="7"/>
     </row>
@@ -8003,25 +8449,25 @@
         <v>316</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>317</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="I14" s="64" t="s">
-        <v>433</v>
+        <v>353</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>425</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>31</v>
@@ -8045,25 +8491,25 @@
         <v>316</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>317</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="I15" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="K15" s="39" t="s">
         <v>434</v>
       </c>
-      <c r="J15" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="K15" s="39" t="s">
-        <v>442</v>
-      </c>
       <c r="L15" s="39" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>31</v>
@@ -8071,26 +8517,26 @@
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
     </row>
     <row r="17" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>207</v>
@@ -8105,7 +8551,7 @@
         <v>316</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>317</v>
@@ -8115,13 +8561,13 @@
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="37" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L17" s="39" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>31</v>
@@ -8129,40 +8575,40 @@
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
-        <v>397</v>
-      </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
+      <c r="A18" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
     </row>
     <row r="20" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
@@ -8178,13 +8624,13 @@
         <v>184</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>185</v>
@@ -8194,7 +8640,7 @@
         <v>261</v>
       </c>
       <c r="K20" s="46" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="L20" s="46" t="s">
         <v>321</v>
@@ -8203,7 +8649,7 @@
         <v>31</v>
       </c>
       <c r="N20" s="39" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
@@ -8220,13 +8666,13 @@
         <v>184</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>188</v>
@@ -8236,16 +8682,16 @@
         <v>261</v>
       </c>
       <c r="K21" s="46" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="L21" s="46" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="M21" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N21" s="39" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="141.75" x14ac:dyDescent="0.25">
@@ -8262,13 +8708,13 @@
         <v>184</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>191</v>
@@ -8278,16 +8724,16 @@
         <v>261</v>
       </c>
       <c r="K22" s="46" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="L22" s="46" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N22" s="39" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="63" x14ac:dyDescent="0.25">
@@ -8304,13 +8750,13 @@
         <v>184</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>323</v>
@@ -8320,16 +8766,16 @@
         <v>261</v>
       </c>
       <c r="K23" s="46" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="L23" s="46" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="M23" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N23" s="39" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -8346,13 +8792,13 @@
         <v>184</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>172</v>
@@ -8362,16 +8808,16 @@
         <v>335</v>
       </c>
       <c r="K24" s="46" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="L24" s="46" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N24" s="39" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
@@ -8388,13 +8834,13 @@
         <v>184</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>331</v>
@@ -8404,7 +8850,7 @@
         <v>335</v>
       </c>
       <c r="K25" s="46" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="L25" s="46" t="s">
         <v>333</v>
@@ -8413,7 +8859,7 @@
         <v>31</v>
       </c>
       <c r="N25" s="39" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="141.75" x14ac:dyDescent="0.25">
@@ -8430,13 +8876,13 @@
         <v>184</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>332</v>
@@ -8446,16 +8892,16 @@
         <v>335</v>
       </c>
       <c r="K26" s="46" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="L26" s="46" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N26" s="39" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -8472,13 +8918,13 @@
         <v>184</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>208</v>
@@ -8488,10 +8934,10 @@
         <v>335</v>
       </c>
       <c r="K27" s="39" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L27" s="39" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>31</v>
@@ -8512,13 +8958,13 @@
         <v>184</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>209</v>
@@ -8528,17 +8974,17 @@
         <v>335</v>
       </c>
       <c r="K28" s="39" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L28" s="39" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>89</v>
       </c>
@@ -8552,31 +8998,31 @@
         <v>184</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="I29" s="64" t="s">
-        <v>432</v>
+        <v>352</v>
+      </c>
+      <c r="I29" s="51" t="s">
+        <v>424</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="K29" s="39" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="L29" s="39" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N29" s="7"/>
     </row>
@@ -8594,28 +9040,28 @@
         <v>184</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="I30" s="64" t="s">
-        <v>433</v>
+        <v>353</v>
+      </c>
+      <c r="I30" s="51" t="s">
+        <v>425</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="K30" s="39" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="L30" s="39" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>31</v>
@@ -8636,28 +9082,28 @@
         <v>184</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="I31" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="I31" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="J31" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="K31" s="39" t="s">
         <v>434</v>
       </c>
-      <c r="J31" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="K31" s="39" t="s">
-        <v>442</v>
-      </c>
       <c r="L31" s="39" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="M31" s="13" t="s">
         <v>31</v>
@@ -8665,26 +9111,26 @@
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
     </row>
     <row r="33" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B33" s="32" t="s">
         <v>207</v>
@@ -8696,26 +9142,26 @@
         <v>184</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H33" s="21" t="s">
         <v>313</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="37" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="K33" s="39" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L33" s="39" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M33" s="13" t="s">
         <v>31</v>
@@ -8723,40 +9169,40 @@
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
     </row>
     <row r="36" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
@@ -8959,7 +9405,7 @@
         <v>339</v>
       </c>
       <c r="L40" s="26" t="s">
-        <v>340</v>
+        <v>487</v>
       </c>
       <c r="M40" s="13" t="s">
         <v>31</v>
@@ -8996,10 +9442,10 @@
         <v>338</v>
       </c>
       <c r="K41" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L41" s="26" t="s">
-        <v>342</v>
+        <v>489</v>
       </c>
       <c r="M41" s="13" t="s">
         <v>31</v>
@@ -9036,10 +9482,10 @@
         <v>338</v>
       </c>
       <c r="K42" s="26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L42" s="26" t="s">
-        <v>348</v>
+        <v>488</v>
       </c>
       <c r="M42" s="13" t="s">
         <v>31</v>
@@ -9076,10 +9522,10 @@
         <v>335</v>
       </c>
       <c r="K43" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L43" s="26" t="s">
-        <v>394</v>
+        <v>491</v>
       </c>
       <c r="M43" s="13" t="s">
         <v>31</v>
@@ -9118,10 +9564,10 @@
         <v>335</v>
       </c>
       <c r="K44" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L44" s="26" t="s">
-        <v>393</v>
+        <v>492</v>
       </c>
       <c r="M44" s="13" t="s">
         <v>31</v>
@@ -9155,17 +9601,17 @@
       <c r="H45" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="I45" s="64" t="s">
-        <v>432</v>
+      <c r="I45" s="51" t="s">
+        <v>424</v>
       </c>
       <c r="J45" s="37" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="K45" s="39" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="L45" s="39" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M45" s="13" t="s">
         <v>31</v>
@@ -9197,17 +9643,17 @@
       <c r="H46" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="I46" s="64" t="s">
-        <v>433</v>
+      <c r="I46" s="51" t="s">
+        <v>425</v>
       </c>
       <c r="J46" s="37" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="K46" s="39" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="L46" s="39" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="M46" s="13" t="s">
         <v>31</v>
@@ -9239,17 +9685,17 @@
       <c r="H47" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="I47" s="64" t="s">
-        <v>434</v>
+      <c r="I47" s="51" t="s">
+        <v>426</v>
       </c>
       <c r="J47" s="37" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="K47" s="39" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="L47" s="39" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="M47" s="13" t="s">
         <v>31</v>
@@ -9257,22 +9703,22 @@
       <c r="N47" s="19"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
     </row>
     <row r="49" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
@@ -9301,13 +9747,13 @@
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="37" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K49" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L49" s="26" t="s">
-        <v>345</v>
+        <v>493</v>
       </c>
       <c r="M49" s="13" t="s">
         <v>31</v>
@@ -9317,42 +9763,42 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="59" t="s">
-        <v>466</v>
-      </c>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
+      <c r="A50" s="67" t="s">
+        <v>456</v>
+      </c>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-    </row>
-    <row r="52" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+    </row>
+    <row r="52" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>132</v>
       </c>
@@ -9366,13 +9812,13 @@
         <v>184</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="H52" s="30" t="s">
         <v>185</v>
@@ -9381,12 +9827,20 @@
       <c r="J52" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="K52" s="61"/>
-      <c r="L52" s="61"/>
-      <c r="M52" s="61"/>
-      <c r="N52" s="61"/>
-    </row>
-    <row r="53" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="K52" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="L52" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N52" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>133</v>
       </c>
@@ -9400,13 +9854,13 @@
         <v>184</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="H53" s="30" t="s">
         <v>188</v>
@@ -9415,12 +9869,20 @@
       <c r="J53" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="K53" s="61"/>
-      <c r="L53" s="61"/>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-    </row>
-    <row r="54" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="K53" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="L53" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N53" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>134</v>
       </c>
@@ -9434,13 +9896,13 @@
         <v>184</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="H54" s="29" t="s">
         <v>191</v>
@@ -9449,12 +9911,20 @@
       <c r="J54" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="K54" s="61"/>
-      <c r="L54" s="61"/>
-      <c r="M54" s="61"/>
-      <c r="N54" s="61"/>
-    </row>
-    <row r="55" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="K54" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="L54" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N54" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>135</v>
       </c>
@@ -9468,13 +9938,13 @@
         <v>184</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="H55" s="30" t="s">
         <v>196</v>
@@ -9483,10 +9953,18 @@
       <c r="J55" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="K55" s="61"/>
-      <c r="L55" s="61"/>
-      <c r="M55" s="61"/>
-      <c r="N55" s="61"/>
+      <c r="K55" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="L55" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="19" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="56" spans="1:14" ht="126" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
@@ -9502,13 +9980,13 @@
         <v>184</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="H56" s="30" t="s">
         <v>172</v>
@@ -9521,14 +9999,14 @@
         <v>339</v>
       </c>
       <c r="L56" s="26" t="s">
-        <v>340</v>
+        <v>487</v>
       </c>
       <c r="M56" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N56" s="61"/>
-    </row>
-    <row r="57" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="N56" s="48"/>
+    </row>
+    <row r="57" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>140</v>
       </c>
@@ -9542,13 +10020,13 @@
         <v>184</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="H57" s="10" t="s">
         <v>331</v>
@@ -9557,12 +10035,20 @@
       <c r="J57" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="K57" s="61"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="61"/>
-      <c r="N57" s="61"/>
-    </row>
-    <row r="58" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="K57" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="L57" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="M57" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="54" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>141</v>
       </c>
@@ -9576,13 +10062,13 @@
         <v>184</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="H58" s="10" t="s">
         <v>332</v>
@@ -9591,10 +10077,18 @@
       <c r="J58" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="K58" s="61"/>
-      <c r="L58" s="61"/>
-      <c r="M58" s="61"/>
-      <c r="N58" s="61"/>
+      <c r="K58" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="L58" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="M58" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N58" s="54" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="59" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
@@ -9610,13 +10104,13 @@
         <v>184</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="H59" s="10" t="s">
         <v>208</v>
@@ -9626,16 +10120,16 @@
         <v>335</v>
       </c>
       <c r="K59" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L59" s="26" t="s">
-        <v>394</v>
+        <v>491</v>
       </c>
       <c r="M59" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N59" s="62" t="s">
-        <v>498</v>
+      <c r="N59" s="49" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
@@ -9652,13 +10146,13 @@
         <v>184</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="H60" s="30" t="s">
         <v>209</v>
@@ -9668,16 +10162,16 @@
         <v>335</v>
       </c>
       <c r="K60" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L60" s="26" t="s">
-        <v>393</v>
+        <v>492</v>
       </c>
       <c r="M60" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N60" s="62" t="s">
-        <v>498</v>
+      <c r="N60" s="49" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
@@ -9694,33 +10188,33 @@
         <v>184</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="H61" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="I61" s="64" t="s">
-        <v>432</v>
+      <c r="I61" s="51" t="s">
+        <v>424</v>
       </c>
       <c r="J61" s="37" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="K61" s="39" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="L61" s="39" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M61" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N61" s="61"/>
+      <c r="N61" s="48"/>
     </row>
     <row r="62" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
@@ -9736,28 +10230,28 @@
         <v>184</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="H62" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="I62" s="64" t="s">
-        <v>433</v>
+      <c r="I62" s="51" t="s">
+        <v>425</v>
       </c>
       <c r="J62" s="37" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="K62" s="39" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="L62" s="39" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="M62" s="13" t="s">
         <v>31</v>
@@ -9778,28 +10272,28 @@
         <v>184</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="H63" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="I63" s="64" t="s">
-        <v>434</v>
+      <c r="I63" s="51" t="s">
+        <v>426</v>
       </c>
       <c r="J63" s="37" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="K63" s="39" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="L63" s="39" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="M63" s="13" t="s">
         <v>31</v>
@@ -9807,26 +10301,26 @@
       <c r="N63" s="19"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="53" t="s">
+      <c r="A64" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="53"/>
-      <c r="N64" s="53"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="61"/>
+      <c r="N64" s="61"/>
     </row>
     <row r="65" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B65" s="32" t="s">
         <v>207</v>
@@ -9838,69 +10332,69 @@
         <v>184</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="H65" s="21" t="s">
         <v>313</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="37" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K65" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L65" s="26" t="s">
-        <v>394</v>
+        <v>491</v>
       </c>
       <c r="M65" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N65" s="62" t="s">
-        <v>498</v>
+      <c r="N65" s="49" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="57" t="s">
+      <c r="A66" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="57"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="57"/>
-      <c r="M66" s="57"/>
-      <c r="N66" s="57"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
+      <c r="K66" s="65"/>
+      <c r="L66" s="65"/>
+      <c r="M66" s="65"/>
+      <c r="N66" s="65"/>
     </row>
     <row r="67" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="56" t="s">
+      <c r="A67" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="56"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="64"/>
+      <c r="N67" s="64"/>
     </row>
     <row r="68" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
@@ -10097,13 +10591,13 @@
       </c>
       <c r="I72" s="23"/>
       <c r="J72" s="27" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K72" s="26" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L72" s="26" t="s">
-        <v>340</v>
+        <v>487</v>
       </c>
       <c r="M72" s="13" t="s">
         <v>31</v>
@@ -10137,13 +10631,13 @@
       </c>
       <c r="I73" s="23"/>
       <c r="J73" s="27" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K73" s="26" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L73" s="26" t="s">
-        <v>342</v>
+        <v>489</v>
       </c>
       <c r="M73" s="13" t="s">
         <v>31</v>
@@ -10177,13 +10671,13 @@
       </c>
       <c r="I74" s="23"/>
       <c r="J74" s="27" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K74" s="26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L74" s="26" t="s">
-        <v>348</v>
+        <v>488</v>
       </c>
       <c r="M74" s="13" t="s">
         <v>31</v>
@@ -10217,13 +10711,13 @@
       </c>
       <c r="I75" s="23"/>
       <c r="J75" s="27" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K75" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L75" s="26" t="s">
-        <v>396</v>
+        <v>495</v>
       </c>
       <c r="M75" s="13" t="s">
         <v>31</v>
@@ -10257,13 +10751,13 @@
       </c>
       <c r="I76" s="23"/>
       <c r="J76" s="27" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K76" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L76" s="26" t="s">
-        <v>395</v>
+        <v>496</v>
       </c>
       <c r="M76" s="13" t="s">
         <v>31</v>
@@ -10295,24 +10789,24 @@
       <c r="H77" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="I77" s="64" t="s">
-        <v>432</v>
+      <c r="I77" s="51" t="s">
+        <v>424</v>
       </c>
       <c r="J77" s="37" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="K77" s="39" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="L77" s="39" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M77" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N77" s="23"/>
     </row>
-    <row r="78" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>90</v>
       </c>
@@ -10337,17 +10831,17 @@
       <c r="H78" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="I78" s="64" t="s">
-        <v>433</v>
+      <c r="I78" s="51" t="s">
+        <v>425</v>
       </c>
       <c r="J78" s="37" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="K78" s="39" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="L78" s="39" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="M78" s="13" t="s">
         <v>31</v>
@@ -10379,17 +10873,17 @@
       <c r="H79" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="I79" s="64" t="s">
-        <v>434</v>
+      <c r="I79" s="51" t="s">
+        <v>426</v>
       </c>
       <c r="J79" s="37" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="K79" s="39" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="L79" s="39" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="M79" s="13" t="s">
         <v>31</v>
@@ -10397,22 +10891,22 @@
       <c r="N79" s="23"/>
     </row>
     <row r="80" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="53" t="s">
+      <c r="A80" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="53"/>
-      <c r="M80" s="53"/>
-      <c r="N80" s="53"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="61"/>
+      <c r="L80" s="61"/>
+      <c r="M80" s="61"/>
+      <c r="N80" s="61"/>
     </row>
     <row r="81" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
@@ -10520,11 +11014,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10595,115 +11089,115 @@
     </row>
     <row r="2" spans="1:16" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>482</v>
+      <c r="C2" s="50" t="s">
+        <v>467</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>472</v>
+        <v>391</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>473</v>
+        <v>392</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="J2" s="64" t="s">
-        <v>432</v>
+        <v>460</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>424</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>49</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:16" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>478</v>
+    <row r="3" spans="1:16" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>499</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="63" t="s">
-        <v>477</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>265</v>
+      <c r="C3" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>317</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="J3" s="7"/>
+        <v>460</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>424</v>
+      </c>
       <c r="K3" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>193</v>
+        <v>427</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>428</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>495</v>
+        <v>461</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="P3" s="65" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="63" t="s">
-        <v>470</v>
+      <c r="C4" s="50" t="s">
+        <v>463</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>246</v>
+        <v>464</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>260</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>267</v>
@@ -10712,83 +11206,169 @@
         <v>265</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="64" t="s">
-        <v>491</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>490</v>
+      <c r="K4" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>489</v>
+        <v>478</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>479</v>
       </c>
       <c r="O4" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="P4" s="52" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>463</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="P5" s="52" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>459</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>474</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="P6" s="52" t="s">
         <v>476</v>
       </c>
-      <c r="P4" s="65" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+    </row>
+    <row r="7" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>463</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>506</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="L7" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>462</v>
+      </c>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -11457,10 +12037,47 @@
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
     </row>
+    <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P3" r:id="rId1"/>
-    <hyperlink ref="P4" r:id="rId2"/>
+    <hyperlink ref="P4" r:id="rId1"/>
+    <hyperlink ref="P6" r:id="rId2"/>
+    <hyperlink ref="P5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11468,54 +12085,87 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A8"/>
+  <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="69" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="70" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="333" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="39" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="39" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="39" t="s">
+        <v>511</v>
+      </c>
+      <c r="C6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="69" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="B8" s="69" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="71" t="s">
+        <v>514</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>516</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TD_Tarasevich(Teams).xlsx
+++ b/TD_Tarasevich(Teams).xlsx
@@ -1043,26 +1043,11 @@
 6)Имя и Фамилия изменены</t>
   </si>
   <si>
-    <t xml:space="preserve">1)Свайпнуть по экрану слева на право
-2)Нажать на поле Имени профиля
-3)Нажать на Изменить изображение
-4)Нажать на Открыть фотобиблиотеку
-5)Выбрать изображение из имеющихся устройстве
-</t>
-  </si>
-  <si>
     <t>Выбор внешнего вида приложения в настройках</t>
   </si>
   <si>
     <t>Панель: https://prnt.sc/I6dEAhyfI-PP
 Окно дополнительных действий: https://prnt.sc/Sbvz_UbNVnNO</t>
-  </si>
-  <si>
-    <t>1)Свайпнуть по экрану слева на право
-2)Нажать на Настройки
-3)Нажать на Внешний вид
-4)Нажать на Темный
-5)Нажать на ПЕРЕЗАПУСК</t>
   </si>
   <si>
     <t>Панель: https://prnt.sc/I6dEAhyfI-PP
@@ -1093,12 +1078,6 @@
     <t>Окно выбора источника: https://prnt.sc/cPSM_37LMoc2</t>
   </si>
   <si>
-    <t>Удаление отправленого сообщения в чате</t>
-  </si>
-  <si>
-    <t>Редактирование отправленого сообщения в чате</t>
-  </si>
-  <si>
     <t>1)Чат открыт
 2)Сообщение отправлено
 3)Появляется окно с дополнительными действиями
@@ -1137,20 +1116,6 @@
 4)Выбрать 11 фото из имеющихся на локальной машине</t>
   </si>
   <si>
-    <t>1)Кликнуть на forms 
-2)Отправить сообщение Жара
-3)Кликнуть правым кликом по отправленому сообщению
-4)Кликнуть на Удалить</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Кликнуть на forms
-2)Отправить сообщение Жара
-3)Кликнуть правым кликом по отправленому сообщению
-4)Кликнуть на Изменить
-5)Заменить Жара на Стужа
-6)Кликнуть на </t>
-  </si>
-  <si>
     <t>1)Кликнуть на forms
 2)Кликнуть на 
 3)Другой пользователь принимает звонок</t>
@@ -1163,12 +1128,6 @@
   <si>
     <t>Открыт URL: https://teams.live.com/
 Чат с другим пользователем: forms</t>
-  </si>
-  <si>
-    <t>1)Кликнуть на forms
-2)Отправить сообщение Жара
-3)Кликнуть правым кликом по отправленому сообщению
-4)Кликнуть на Удалить</t>
   </si>
   <si>
     <t>1)Кликнуть на forms
@@ -1331,15 +1290,6 @@
     <t>iPhone SE 2020/11</t>
   </si>
   <si>
-    <t xml:space="preserve">1)Свайпнуть по экрану слева на право
-2)Нажать на поле Имени профиля
-3)Нажать на Изменить изображение
-4)Ввести Имя Иван
-5)Ввести Фамилия Иванов
-6)Нажать на Сохранить
-</t>
-  </si>
-  <si>
     <t>Панель: https://prnt.sc/WVwTjEDFJApe</t>
   </si>
   <si>
@@ -1354,21 +1304,6 @@
 2)Появляется вкладка профиля
 3)Появляется вкладка Изменить имя
 4)Поля Имя/Фамилия пусты, появляется сообщение: Это имя не может быть пустым или оно содержит запрещенное слово или фразу</t>
-  </si>
-  <si>
-    <t>1)Свайпнуть по экрану слева на право
-2)Нажать на поле Имени профиля
-3)Нажать на Изменить изображение
-4)Поля Имя/Фамилия оставить пустыми</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Свайпнуть по экрану слева на право
-2)Нажать на поле Имени профиля
-3)Нажать на Изменить
-4)Нажать на Выбрать фото
-5)Выбрать изображение из имеющихся на устройстве
-6)Нажать на Выбрать
-</t>
   </si>
   <si>
     <t>1)Слева всплывает панель
@@ -1383,12 +1318,6 @@
 Окно дополнительных действий: https://prnt.sc/IW54LZBXMmfb</t>
   </si>
   <si>
-    <t>1)Свайпнуть по экрану слева на право
-2)Нажать на Параметры
-3)Нажать на Внешний вид
-4)Нажать на Темная</t>
-  </si>
-  <si>
     <t>1)Слева всплывает панель
 2)Появляется вкладка Параметры
 3)Появляется вкладка Внешний вид
@@ -1669,13 +1598,7 @@
     <t>https://recordit.co/GBcIu8SpKl</t>
   </si>
   <si>
-    <t xml:space="preserve">Не отображется изображение аватара в заголовке окна </t>
-  </si>
-  <si>
     <t>Изображение аватар не отображается в заголовке окна</t>
-  </si>
-  <si>
-    <t>Изображенеи аватар отображается в заголовке окна</t>
   </si>
   <si>
     <t>Microsoft Teams Version 1.5.00.17261</t>
@@ -1996,13 +1919,91 @@
     <t xml:space="preserve">Невозможно использовать веб-приложением дальше </t>
   </si>
   <si>
-    <t>По итогам тестирования, программный продукт готов к релизу. То что был найден баг ID BAHT_1, не помешает пользователю пользоваться программным продуктом, потому что для его воспроиздения пользователю придется использовать DevTools, о наличие котором мало кто знает.</t>
+    <t>Удаление отправленного сообщения в чате</t>
+  </si>
+  <si>
+    <t>Редактирование отправленного сообщения в чате</t>
+  </si>
+  <si>
+    <t>1)Кликнуть на forms 
+2)Отправить сообщение Жара
+3)Кликнуть правым кликом по отправленному сообщению
+4)Кликнуть на Удалить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Кликнуть на forms
+2)Отправить сообщение Жара
+3)Кликнуть правым кликом по отправленному сообщению
+4)Кликнуть на Изменить
+5)Заменить Жара на Стужа
+6)Кликнуть на </t>
+  </si>
+  <si>
+    <t>1)Кликнуть на forms
+2)Отправить сообщение Жара
+3)Кликнуть правым кликом по отправленному сообщению
+4)Кликнуть на Удалить</t>
+  </si>
+  <si>
+    <t>1)Свайпнуть по экрану слева направо
+2)Нажать на Настройки
+3)Нажать на Внешний вид
+4)Нажать на Темный
+5)Нажать на ПЕРЕЗАПУСК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Свайпнуть по экрану слева направо
+2)Нажать на поле Имени профиля
+3)Нажать на Изменить изображение
+4)Нажать на Открыть фотобиблиотеку
+5)Выбрать изображение из имеющихся устройстве
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Свайпнуть по экрану слева направо
+2)Нажать на поле Имени профиля
+3)Нажать на Изменить изображение
+4)Ввести Имя Иван
+5)Ввести Фамилия Иванов
+6)Нажать на Сохранить
+</t>
+  </si>
+  <si>
+    <t>1)Свайпнуть по экрану слева направо
+2)Нажать на поле Имени профиля
+3)Нажать на Изменить изображение
+4)Поля Имя/Фамилия оставить пустыми</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Свайпнуть по экрану слева направо
+2)Нажать на поле Имени профиля
+3)Нажать на Изменить
+4)Нажать на Выбрать фото
+5)Выбрать изображение из имеющихся на устройстве
+6)Нажать на Выбрать
+</t>
+  </si>
+  <si>
+    <t>1)Свайпнуть по экрану слева направо
+2)Нажать на Параметры
+3)Нажать на Внешний вид
+4)Нажать на Темная</t>
+  </si>
+  <si>
+    <t>Изображение аватар отображается в заголовке окна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не отображается изображение аватара в заголовке окна </t>
   </si>
   <si>
     <t>Тестирование программного продукта проводилось на 4 платформах, две из которых покрывали тестирование мобильной версии и две платформы покрыли тестирование десктопной версии, так же было проведено тестирование веб-приложения.
-Использовались два вида тестирования: Функциональное и нефункционально. С помощью которых были протестированы основные функциональные возможности приложения, удобство его использования и интерфейс.
+Использовались два вида тестирования: функциональное и нефункционально. С помощью которых были протестированы основные функциональные возможности приложения, удобство его использования и интерфейс.
 Тестировались модули: профиль (авторизация, редактирование), связь (чат, звонок, собрание), поиск, настройка (внешний вид), приложение (установка, удаление).
-В сумме была проведена 161 проверка.</t>
+В сумме была проведена 161 проверка.
+Все новые обнаруженные баги зарегистрированы.</t>
+  </si>
+  <si>
+    <t>По итогам тестирования, программный продукт готов к релизу. Так как его основной функционал работает исправно, а удобство использования и интерфейс соответствует требованиям пользователя. То что был найден баг ID BAHT_1, не помешает пользователю пользоваться программным продуктом, потому что для его воспроиздения пользователю придется использовать DevTools, о наличие котором мало кто знает.</t>
   </si>
 </sst>
 </file>
@@ -2357,6 +2358,15 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2395,15 +2405,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4744,8 +4745,8 @@
   <dimension ref="A1:F186"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B184" sqref="B184"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4778,24 +4779,24 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
     </row>
     <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -4836,14 +4837,14 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -4943,7 +4944,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>54</v>
@@ -5033,7 +5034,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>331</v>
+        <v>503</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>57</v>
@@ -5051,7 +5052,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>332</v>
+        <v>504</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>58</v>
@@ -5138,13 +5139,13 @@
         <v>39</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -5155,7 +5156,7 @@
         <v>39</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>49</v>
@@ -5172,7 +5173,7 @@
         <v>39</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>49</v>
@@ -5182,27 +5183,27 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>31</v>
@@ -5211,33 +5212,33 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>215</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>233</v>
@@ -5249,34 +5250,34 @@
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>287</v>
@@ -5294,7 +5295,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>287</v>
@@ -5312,16 +5313,16 @@
     </row>
     <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>223</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>31</v>
@@ -5330,16 +5331,16 @@
     </row>
     <row r="35" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>238</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>31</v>
@@ -5348,13 +5349,13 @@
     </row>
     <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>244</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>245</v>
@@ -5366,7 +5367,7 @@
     </row>
     <row r="37" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>301</v>
@@ -5384,7 +5385,7 @@
     </row>
     <row r="38" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>301</v>
@@ -5402,7 +5403,7 @@
     </row>
     <row r="39" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>301</v>
@@ -5411,7 +5412,7 @@
         <v>314</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>31</v>
@@ -5419,24 +5420,24 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
     </row>
     <row r="42" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -5477,14 +5478,14 @@
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
     </row>
     <row r="45" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
@@ -5584,7 +5585,7 @@
         <v>36</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>54</v>
@@ -5659,13 +5660,13 @@
         <v>172</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5676,7 +5677,7 @@
         <v>40</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>331</v>
+        <v>503</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>57</v>
@@ -5694,7 +5695,7 @@
         <v>41</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>332</v>
+        <v>504</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>58</v>
@@ -5784,13 +5785,13 @@
         <v>39</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F61" s="5"/>
     </row>
@@ -5802,7 +5803,7 @@
         <v>39</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>49</v>
@@ -5820,7 +5821,7 @@
         <v>39</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>49</v>
@@ -5831,27 +5832,27 @@
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="56" t="s">
+      <c r="A64" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
     </row>
     <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>31</v>
@@ -5860,13 +5861,13 @@
     </row>
     <row r="66" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>215</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>233</v>
@@ -5878,16 +5879,16 @@
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>31</v>
@@ -5895,18 +5896,18 @@
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="56" t="s">
+      <c r="A68" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="57"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="57"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>287</v>
@@ -5924,16 +5925,16 @@
     </row>
     <row r="70" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>223</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>31</v>
@@ -5942,16 +5943,16 @@
     </row>
     <row r="71" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>238</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>31</v>
@@ -5960,13 +5961,13 @@
     </row>
     <row r="72" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>244</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D72" s="21" t="s">
         <v>245</v>
@@ -5978,7 +5979,7 @@
     </row>
     <row r="73" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>301</v>
@@ -5996,7 +5997,7 @@
     </row>
     <row r="74" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>301</v>
@@ -6014,7 +6015,7 @@
     </row>
     <row r="75" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>301</v>
@@ -6023,7 +6024,7 @@
         <v>314</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>31</v>
@@ -6031,24 +6032,24 @@
       <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="58" t="s">
+      <c r="A76" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B76" s="60"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="56" t="s">
+      <c r="A77" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="57"/>
-      <c r="F77" s="57"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -6088,14 +6089,14 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="56" t="s">
+      <c r="A80" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="57"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
     </row>
     <row r="81" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
@@ -6275,7 +6276,7 @@
         <v>40</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>331</v>
+        <v>503</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>57</v>
@@ -6292,7 +6293,7 @@
         <v>41</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>332</v>
+        <v>504</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>58</v>
@@ -6421,14 +6422,14 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="56" t="s">
+      <c r="A100" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="57"/>
-      <c r="C100" s="57"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="57"/>
-      <c r="F100" s="57"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
     </row>
     <row r="101" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
@@ -6438,7 +6439,7 @@
         <v>215</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D101" s="22" t="s">
         <v>233</v>
@@ -6542,14 +6543,14 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="56" t="s">
+      <c r="A107" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B107" s="57"/>
-      <c r="C107" s="57"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="57"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="60"/>
     </row>
     <row r="108" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
@@ -6580,7 +6581,7 @@
         <v>239</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E109" s="13" t="s">
         <v>31</v>
@@ -6597,7 +6598,7 @@
         <v>244</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D110" s="21" t="s">
         <v>245</v>
@@ -6700,24 +6701,24 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="58" t="s">
+      <c r="A116" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B116" s="60"/>
-      <c r="C116" s="60"/>
-      <c r="D116" s="60"/>
-      <c r="E116" s="60"/>
-      <c r="F116" s="60"/>
+      <c r="B116" s="63"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="63"/>
+      <c r="E116" s="63"/>
+      <c r="F116" s="63"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="56" t="s">
+      <c r="A117" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B117" s="57"/>
-      <c r="C117" s="57"/>
-      <c r="D117" s="57"/>
-      <c r="E117" s="57"/>
-      <c r="F117" s="57"/>
+      <c r="B117" s="60"/>
+      <c r="C117" s="60"/>
+      <c r="D117" s="60"/>
+      <c r="E117" s="60"/>
+      <c r="F117" s="60"/>
     </row>
     <row r="118" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
@@ -6757,14 +6758,14 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="56" t="s">
+      <c r="A120" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B120" s="57"/>
-      <c r="C120" s="57"/>
-      <c r="D120" s="57"/>
-      <c r="E120" s="57"/>
-      <c r="F120" s="57"/>
+      <c r="B120" s="60"/>
+      <c r="C120" s="60"/>
+      <c r="D120" s="60"/>
+      <c r="E120" s="60"/>
+      <c r="F120" s="60"/>
     </row>
     <row r="121" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
@@ -6944,7 +6945,7 @@
         <v>40</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>331</v>
+        <v>503</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>57</v>
@@ -6961,7 +6962,7 @@
         <v>41</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>332</v>
+        <v>504</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>58</v>
@@ -7090,24 +7091,24 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="56" t="s">
+      <c r="A140" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B140" s="57"/>
-      <c r="C140" s="57"/>
-      <c r="D140" s="57"/>
-      <c r="E140" s="57"/>
-      <c r="F140" s="57"/>
+      <c r="B140" s="60"/>
+      <c r="C140" s="60"/>
+      <c r="D140" s="60"/>
+      <c r="E140" s="60"/>
+      <c r="F140" s="60"/>
     </row>
     <row r="141" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B141" s="20" t="s">
         <v>215</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D141" s="22" t="s">
         <v>233</v>
@@ -7119,7 +7120,7 @@
     </row>
     <row r="142" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B142" s="24" t="s">
         <v>217</v>
@@ -7139,7 +7140,7 @@
     </row>
     <row r="143" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B143" s="24" t="s">
         <v>218</v>
@@ -7159,7 +7160,7 @@
     </row>
     <row r="144" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B144" s="24" t="s">
         <v>273</v>
@@ -7179,7 +7180,7 @@
     </row>
     <row r="145" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="B145" s="24" t="s">
         <v>272</v>
@@ -7195,18 +7196,18 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="56" t="s">
+      <c r="A146" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B146" s="57"/>
-      <c r="C146" s="57"/>
-      <c r="D146" s="57"/>
-      <c r="E146" s="57"/>
-      <c r="F146" s="57"/>
+      <c r="B146" s="60"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="60"/>
+      <c r="E146" s="60"/>
+      <c r="F146" s="60"/>
     </row>
     <row r="147" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B147" s="20" t="s">
         <v>223</v>
@@ -7224,7 +7225,7 @@
     </row>
     <row r="148" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B148" s="21" t="s">
         <v>238</v>
@@ -7233,7 +7234,7 @@
         <v>239</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E148" s="13" t="s">
         <v>31</v>
@@ -7242,13 +7243,13 @@
     </row>
     <row r="149" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B149" s="21" t="s">
         <v>244</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D149" s="21" t="s">
         <v>245</v>
@@ -7260,7 +7261,7 @@
     </row>
     <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B150" s="20" t="s">
         <v>287</v>
@@ -7272,13 +7273,13 @@
         <v>289</v>
       </c>
       <c r="E150" s="53" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F150" s="4"/>
     </row>
     <row r="151" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B151" s="20" t="s">
         <v>301</v>
@@ -7296,7 +7297,7 @@
     </row>
     <row r="152" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B152" s="20" t="s">
         <v>301</v>
@@ -7314,7 +7315,7 @@
     </row>
     <row r="153" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B153" s="20" t="s">
         <v>301</v>
@@ -7331,24 +7332,24 @@
       <c r="F153" s="4"/>
     </row>
     <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="58" t="s">
+      <c r="A154" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B154" s="59"/>
-      <c r="C154" s="59"/>
-      <c r="D154" s="59"/>
-      <c r="E154" s="59"/>
-      <c r="F154" s="59"/>
+      <c r="B154" s="62"/>
+      <c r="C154" s="62"/>
+      <c r="D154" s="62"/>
+      <c r="E154" s="62"/>
+      <c r="F154" s="62"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="56" t="s">
+      <c r="A155" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B155" s="57"/>
-      <c r="C155" s="57"/>
-      <c r="D155" s="57"/>
-      <c r="E155" s="57"/>
-      <c r="F155" s="57"/>
+      <c r="B155" s="60"/>
+      <c r="C155" s="60"/>
+      <c r="D155" s="60"/>
+      <c r="E155" s="60"/>
+      <c r="F155" s="60"/>
     </row>
     <row r="156" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
@@ -7528,7 +7529,7 @@
         <v>40</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>331</v>
+        <v>503</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>57</v>
@@ -7545,7 +7546,7 @@
         <v>41</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>332</v>
+        <v>504</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>58</v>
@@ -7674,14 +7675,14 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="56" t="s">
+      <c r="A175" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B175" s="57"/>
-      <c r="C175" s="57"/>
-      <c r="D175" s="57"/>
-      <c r="E175" s="57"/>
-      <c r="F175" s="57"/>
+      <c r="B175" s="60"/>
+      <c r="C175" s="60"/>
+      <c r="D175" s="60"/>
+      <c r="E175" s="60"/>
+      <c r="F175" s="60"/>
     </row>
     <row r="176" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
@@ -7691,7 +7692,7 @@
         <v>215</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D176" s="22" t="s">
         <v>233</v>
@@ -7762,14 +7763,14 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="56" t="s">
+      <c r="A180" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B180" s="57"/>
-      <c r="C180" s="57"/>
-      <c r="D180" s="57"/>
-      <c r="E180" s="57"/>
-      <c r="F180" s="57"/>
+      <c r="B180" s="60"/>
+      <c r="C180" s="60"/>
+      <c r="D180" s="60"/>
+      <c r="E180" s="60"/>
+      <c r="F180" s="60"/>
     </row>
     <row r="181" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="s">
@@ -7799,7 +7800,7 @@
         <v>239</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E182" s="13" t="s">
         <v>31</v>
@@ -7816,7 +7817,7 @@
         <v>244</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D183" s="17" t="s">
         <v>245</v>
@@ -7914,10 +7915,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7981,40 +7982,40 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="68" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
     </row>
     <row r="4" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -8033,7 +8034,7 @@
         <v>316</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>317</v>
@@ -8075,7 +8076,7 @@
         <v>316</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>317</v>
@@ -8088,10 +8089,10 @@
         <v>261</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>31</v>
@@ -8117,7 +8118,7 @@
         <v>316</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>317</v>
@@ -8130,16 +8131,16 @@
         <v>261</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>322</v>
+        <v>509</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N6" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
@@ -8159,29 +8160,29 @@
         <v>316</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>317</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="37" t="s">
         <v>261</v>
       </c>
       <c r="K7" s="39" t="s">
+        <v>508</v>
+      </c>
+      <c r="L7" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="L7" s="39" t="s">
-        <v>327</v>
-      </c>
       <c r="M7" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
@@ -8201,7 +8202,7 @@
         <v>316</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>317</v>
@@ -8211,19 +8212,19 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="37" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N8" s="39" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
@@ -8243,29 +8244,29 @@
         <v>316</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>317</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>331</v>
+        <v>503</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="37" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N9" s="39" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="126" x14ac:dyDescent="0.25">
@@ -8285,29 +8286,29 @@
         <v>316</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>317</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>332</v>
+        <v>504</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="37" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N10" s="39" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -8327,7 +8328,7 @@
         <v>316</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>317</v>
@@ -8337,13 +8338,13 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="37" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>31</v>
@@ -8367,7 +8368,7 @@
         <v>316</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>317</v>
@@ -8377,13 +8378,13 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="37" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="L12" s="39" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>31</v>
@@ -8407,28 +8408,28 @@
         <v>316</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>317</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="I13" s="51" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="K13" s="39" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="L13" s="39" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="N13" s="7"/>
     </row>
@@ -8449,25 +8450,25 @@
         <v>316</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>317</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>31</v>
@@ -8491,25 +8492,25 @@
         <v>316</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>317</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I15" s="51" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="K15" s="39" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="L15" s="39" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>31</v>
@@ -8517,26 +8518,26 @@
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
     </row>
     <row r="17" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>207</v>
@@ -8551,7 +8552,7 @@
         <v>316</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>317</v>
@@ -8561,13 +8562,13 @@
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="37" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="L17" s="39" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>31</v>
@@ -8575,40 +8576,40 @@
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>389</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
+      <c r="A18" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
     </row>
     <row r="20" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
@@ -8624,13 +8625,13 @@
         <v>184</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>185</v>
@@ -8640,7 +8641,7 @@
         <v>261</v>
       </c>
       <c r="K20" s="46" t="s">
-        <v>393</v>
+        <v>510</v>
       </c>
       <c r="L20" s="46" t="s">
         <v>321</v>
@@ -8649,7 +8650,7 @@
         <v>31</v>
       </c>
       <c r="N20" s="39" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
@@ -8666,13 +8667,13 @@
         <v>184</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>188</v>
@@ -8682,16 +8683,16 @@
         <v>261</v>
       </c>
       <c r="K21" s="46" t="s">
-        <v>397</v>
+        <v>511</v>
       </c>
       <c r="L21" s="46" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="M21" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N21" s="39" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="141.75" x14ac:dyDescent="0.25">
@@ -8708,13 +8709,13 @@
         <v>184</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>191</v>
@@ -8724,16 +8725,16 @@
         <v>261</v>
       </c>
       <c r="K22" s="46" t="s">
-        <v>398</v>
+        <v>512</v>
       </c>
       <c r="L22" s="46" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N22" s="39" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="63" x14ac:dyDescent="0.25">
@@ -8750,32 +8751,32 @@
         <v>184</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I23" s="45"/>
       <c r="J23" s="37" t="s">
         <v>261</v>
       </c>
       <c r="K23" s="46" t="s">
-        <v>401</v>
+        <v>513</v>
       </c>
       <c r="L23" s="46" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="M23" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N23" s="39" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -8792,32 +8793,32 @@
         <v>184</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>172</v>
       </c>
       <c r="I24" s="45"/>
       <c r="J24" s="37" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K24" s="46" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="L24" s="46" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N24" s="39" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
@@ -8834,32 +8835,32 @@
         <v>184</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>331</v>
+        <v>503</v>
       </c>
       <c r="I25" s="45"/>
       <c r="J25" s="37" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K25" s="46" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="L25" s="46" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N25" s="39" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="141.75" x14ac:dyDescent="0.25">
@@ -8876,32 +8877,32 @@
         <v>184</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>332</v>
+        <v>504</v>
       </c>
       <c r="I26" s="45"/>
       <c r="J26" s="37" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K26" s="46" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L26" s="46" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N26" s="39" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -8918,26 +8919,26 @@
         <v>184</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>208</v>
       </c>
       <c r="I27" s="45"/>
       <c r="J27" s="37" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K27" s="39" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="L27" s="39" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>31</v>
@@ -8958,26 +8959,26 @@
         <v>184</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>209</v>
       </c>
       <c r="I28" s="45"/>
       <c r="J28" s="37" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K28" s="39" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="L28" s="39" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>31</v>
@@ -8998,31 +8999,31 @@
         <v>184</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="I29" s="51" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="K29" s="39" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="L29" s="39" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="N29" s="7"/>
     </row>
@@ -9040,28 +9041,28 @@
         <v>184</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="I30" s="51" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="K30" s="39" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="L30" s="39" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>31</v>
@@ -9082,28 +9083,28 @@
         <v>184</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I31" s="51" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="K31" s="39" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="L31" s="39" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="M31" s="13" t="s">
         <v>31</v>
@@ -9111,26 +9112,26 @@
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
     </row>
     <row r="33" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B33" s="32" t="s">
         <v>207</v>
@@ -9142,26 +9143,26 @@
         <v>184</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H33" s="21" t="s">
         <v>313</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="37" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="K33" s="39" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="L33" s="39" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="M33" s="13" t="s">
         <v>31</v>
@@ -9169,40 +9170,40 @@
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
     </row>
     <row r="36" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
@@ -9399,13 +9400,13 @@
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="37" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K40" s="26" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L40" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="M40" s="13" t="s">
         <v>31</v>
@@ -9435,17 +9436,17 @@
         <v>265</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>331</v>
+        <v>503</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="37" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K41" s="26" t="s">
-        <v>340</v>
+        <v>505</v>
       </c>
       <c r="L41" s="26" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="M41" s="13" t="s">
         <v>31</v>
@@ -9475,17 +9476,17 @@
         <v>265</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>332</v>
+        <v>504</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="37" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K42" s="26" t="s">
-        <v>341</v>
+        <v>506</v>
       </c>
       <c r="L42" s="26" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="M42" s="13" t="s">
         <v>31</v>
@@ -9519,13 +9520,13 @@
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="37" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K43" s="26" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L43" s="26" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="M43" s="13" t="s">
         <v>31</v>
@@ -9561,13 +9562,13 @@
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="37" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K44" s="26" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L44" s="26" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="M44" s="13" t="s">
         <v>31</v>
@@ -9602,16 +9603,16 @@
         <v>212</v>
       </c>
       <c r="I45" s="51" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="J45" s="37" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="K45" s="39" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="L45" s="39" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="M45" s="13" t="s">
         <v>31</v>
@@ -9644,16 +9645,16 @@
         <v>213</v>
       </c>
       <c r="I46" s="51" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="J46" s="37" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="K46" s="39" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="L46" s="39" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="M46" s="13" t="s">
         <v>31</v>
@@ -9686,16 +9687,16 @@
         <v>253</v>
       </c>
       <c r="I47" s="51" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="J47" s="37" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="K47" s="39" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="L47" s="39" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="M47" s="13" t="s">
         <v>31</v>
@@ -9703,22 +9704,22 @@
       <c r="N47" s="19"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="61"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
     </row>
     <row r="49" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
@@ -9747,13 +9748,13 @@
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="37" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K49" s="26" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L49" s="26" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="M49" s="13" t="s">
         <v>31</v>
@@ -9763,40 +9764,40 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="67" t="s">
-        <v>456</v>
-      </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
+      <c r="A50" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="70"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
     </row>
     <row r="52" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
@@ -9812,13 +9813,13 @@
         <v>184</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H52" s="30" t="s">
         <v>185</v>
@@ -9854,13 +9855,13 @@
         <v>184</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H53" s="30" t="s">
         <v>188</v>
@@ -9896,13 +9897,13 @@
         <v>184</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H54" s="29" t="s">
         <v>191</v>
@@ -9938,13 +9939,13 @@
         <v>184</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H55" s="30" t="s">
         <v>196</v>
@@ -9963,7 +9964,7 @@
         <v>31</v>
       </c>
       <c r="N55" s="19" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="126" x14ac:dyDescent="0.25">
@@ -9980,26 +9981,26 @@
         <v>184</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H56" s="30" t="s">
         <v>172</v>
       </c>
       <c r="I56" s="23"/>
       <c r="J56" s="37" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K56" s="26" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L56" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="M56" s="13" t="s">
         <v>31</v>
@@ -10020,32 +10021,32 @@
         <v>184</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>331</v>
+        <v>503</v>
       </c>
       <c r="I57" s="23"/>
       <c r="J57" s="37" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K57" s="26" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="L57" s="26" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="M57" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N57" s="54" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="173.25" x14ac:dyDescent="0.25">
@@ -10062,32 +10063,32 @@
         <v>184</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>332</v>
+        <v>504</v>
       </c>
       <c r="I58" s="23"/>
       <c r="J58" s="37" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K58" s="26" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="L58" s="26" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="M58" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N58" s="54" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
@@ -10104,32 +10105,32 @@
         <v>184</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H59" s="10" t="s">
         <v>208</v>
       </c>
       <c r="I59" s="23"/>
       <c r="J59" s="37" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K59" s="26" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L59" s="26" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="M59" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N59" s="49" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
@@ -10146,32 +10147,32 @@
         <v>184</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H60" s="30" t="s">
         <v>209</v>
       </c>
       <c r="I60" s="23"/>
       <c r="J60" s="37" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K60" s="26" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L60" s="26" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="M60" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N60" s="49" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
@@ -10188,28 +10189,28 @@
         <v>184</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H61" s="12" t="s">
         <v>212</v>
       </c>
       <c r="I61" s="51" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="J61" s="37" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="K61" s="39" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="L61" s="39" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="M61" s="13" t="s">
         <v>31</v>
@@ -10230,28 +10231,28 @@
         <v>184</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H62" s="12" t="s">
         <v>213</v>
       </c>
       <c r="I62" s="51" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="J62" s="37" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="K62" s="39" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="L62" s="39" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="M62" s="13" t="s">
         <v>31</v>
@@ -10272,28 +10273,28 @@
         <v>184</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H63" s="12" t="s">
         <v>253</v>
       </c>
       <c r="I63" s="51" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="J63" s="37" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="K63" s="39" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="L63" s="39" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="M63" s="13" t="s">
         <v>31</v>
@@ -10301,26 +10302,26 @@
       <c r="N63" s="19"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="61" t="s">
+      <c r="A64" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="61"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="61"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="61"/>
-      <c r="N64" s="61"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="64"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="64"/>
     </row>
     <row r="65" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B65" s="32" t="s">
         <v>207</v>
@@ -10332,69 +10333,69 @@
         <v>184</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H65" s="21" t="s">
         <v>313</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="37" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K65" s="26" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L65" s="26" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="M65" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N65" s="49" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="65" t="s">
+      <c r="A66" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="65"/>
-      <c r="K66" s="65"/>
-      <c r="L66" s="65"/>
-      <c r="M66" s="65"/>
-      <c r="N66" s="65"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="68"/>
+      <c r="M66" s="68"/>
+      <c r="N66" s="68"/>
     </row>
     <row r="67" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="64" t="s">
+      <c r="A67" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="64"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="64"/>
-      <c r="K67" s="64"/>
-      <c r="L67" s="64"/>
-      <c r="M67" s="64"/>
-      <c r="N67" s="64"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="67"/>
+      <c r="L67" s="67"/>
+      <c r="M67" s="67"/>
+      <c r="N67" s="67"/>
     </row>
     <row r="68" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
@@ -10591,13 +10592,13 @@
       </c>
       <c r="I72" s="23"/>
       <c r="J72" s="27" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K72" s="26" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="L72" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="M72" s="13" t="s">
         <v>31</v>
@@ -10627,17 +10628,17 @@
         <v>265</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>331</v>
+        <v>503</v>
       </c>
       <c r="I73" s="23"/>
       <c r="J73" s="27" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K73" s="26" t="s">
-        <v>345</v>
+        <v>507</v>
       </c>
       <c r="L73" s="26" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="M73" s="13" t="s">
         <v>31</v>
@@ -10667,17 +10668,17 @@
         <v>265</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>332</v>
+        <v>504</v>
       </c>
       <c r="I74" s="23"/>
       <c r="J74" s="27" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K74" s="26" t="s">
-        <v>341</v>
+        <v>506</v>
       </c>
       <c r="L74" s="26" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="M74" s="13" t="s">
         <v>31</v>
@@ -10711,13 +10712,13 @@
       </c>
       <c r="I75" s="23"/>
       <c r="J75" s="27" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K75" s="26" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L75" s="26" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="M75" s="13" t="s">
         <v>31</v>
@@ -10751,13 +10752,13 @@
       </c>
       <c r="I76" s="23"/>
       <c r="J76" s="27" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K76" s="26" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L76" s="26" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M76" s="13" t="s">
         <v>31</v>
@@ -10790,16 +10791,16 @@
         <v>212</v>
       </c>
       <c r="I77" s="51" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="J77" s="37" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="K77" s="39" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="L77" s="39" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="M77" s="13" t="s">
         <v>31</v>
@@ -10832,16 +10833,16 @@
         <v>213</v>
       </c>
       <c r="I78" s="51" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="J78" s="37" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="K78" s="39" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="L78" s="39" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="M78" s="13" t="s">
         <v>31</v>
@@ -10874,16 +10875,16 @@
         <v>253</v>
       </c>
       <c r="I79" s="51" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="J79" s="37" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="K79" s="39" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="L79" s="39" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="M79" s="13" t="s">
         <v>31</v>
@@ -10891,22 +10892,22 @@
       <c r="N79" s="23"/>
     </row>
     <row r="80" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="61" t="s">
+      <c r="A80" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="61"/>
-      <c r="C80" s="61"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="61"/>
-      <c r="H80" s="61"/>
-      <c r="I80" s="61"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="61"/>
-      <c r="L80" s="61"/>
-      <c r="M80" s="61"/>
-      <c r="N80" s="61"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="64"/>
+      <c r="K80" s="64"/>
+      <c r="L80" s="64"/>
+      <c r="M80" s="64"/>
+      <c r="N80" s="64"/>
     </row>
     <row r="81" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
@@ -11016,9 +11017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11089,61 +11090,61 @@
     </row>
     <row r="2" spans="1:16" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>49</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>39</v>
@@ -11152,49 +11153,49 @@
         <v>316</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>317</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="L3" s="39" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="N3" s="16" t="s">
         <v>49</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>260</v>
@@ -11206,10 +11207,10 @@
         <v>265</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="37" t="s">
@@ -11219,45 +11220,45 @@
         <v>193</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="P4" s="52" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="37" t="s">
@@ -11267,30 +11268,30 @@
         <v>193</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="P5" s="52" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>194</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>246</v>
@@ -11302,72 +11303,72 @@
         <v>265</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="51" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="P6" s="52" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>287</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="38" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="N7" s="21" t="s">
         <v>289</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="P7" s="7"/>
     </row>
@@ -12080,15 +12081,16 @@
     <hyperlink ref="P5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C9"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12097,71 +12099,68 @@
     <col min="2" max="2" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="69" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="56" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="70" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="333" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="57" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="333" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="69" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="56" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="69" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
-        <v>514</v>
+      <c r="B8" s="56" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
+        <v>501</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>

--- a/TD_Tarasevich(Teams).xlsx
+++ b/TD_Tarasevich(Teams).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="520">
   <si>
     <t>ID</t>
   </si>
@@ -1727,25 +1727,6 @@
 3)Связь с другим пользователем по видеозвонку установлена</t>
   </si>
   <si>
-    <t xml:space="preserve">Microsoft Teams Version 4.13.1
-</t>
-  </si>
-  <si>
-    <t>BSMO_1.1</t>
-  </si>
-  <si>
-    <t>BSMO_1.2</t>
-  </si>
-  <si>
-    <t>BUSA_1.1</t>
-  </si>
-  <si>
-    <t>BUSA_1.2</t>
-  </si>
-  <si>
-    <t>https://prnt.sc/XM4KT-oxmHga</t>
-  </si>
-  <si>
     <t>GUIm_5</t>
   </si>
   <si>
@@ -1766,12 +1747,6 @@
   <si>
     <t>Microsoft Teams
 Приложение создано для общения, объединяет коллег и партнеров и включает в себя инструменты, необходимые командам для продуктивной совместной работы.</t>
-  </si>
-  <si>
-    <t>Найдено 6 багов (Android 1 баг, iOS 1 баг, Windows 1 баг, macOS 2 бага, Chrome 1 баг) из них:
-Critical = 1
-Major = 2
-Minor = 3</t>
   </si>
   <si>
     <t>Подготовка к тестированию была осуществлена до 29.07.2022 18:00.
@@ -1916,9 +1891,6 @@
     <t>Вывод</t>
   </si>
   <si>
-    <t xml:space="preserve">Невозможно использовать веб-приложением дальше </t>
-  </si>
-  <si>
     <t>Удаление отправленного сообщения в чате</t>
   </si>
   <si>
@@ -1997,13 +1969,52 @@
   </si>
   <si>
     <t>Тестирование программного продукта проводилось на 4 платформах, две из которых покрывали тестирование мобильной версии и две платформы покрыли тестирование десктопной версии, так же было проведено тестирование веб-приложения.
-Использовались два вида тестирования: функциональное и нефункционально. С помощью которых были протестированы основные функциональные возможности приложения, удобство его использования и интерфейс.
-Тестировались модули: профиль (авторизация, редактирование), связь (чат, звонок, собрание), поиск, настройка (внешний вид), приложение (установка, удаление).
+Использовались два вида тестирования: функциональное и нефункционально. С помощью которых были протестированы модули: профиль (авторизация, редактирование), связь (чат, звонок, собрание), поиск, настройка (внешний вид), приложение (установка, удаление), удобство его использования и интерфейс.
 В сумме была проведена 161 проверка.
 Все новые обнаруженные баги зарегистрированы.</t>
   </si>
   <si>
-    <t>По итогам тестирования, программный продукт готов к релизу. Так как его основной функционал работает исправно, а удобство использования и интерфейс соответствует требованиям пользователя. То что был найден баг ID BAHT_1, не помешает пользователю пользоваться программным продуктом, потому что для его воспроиздения пользователю придется использовать DevTools, о наличие котором мало кто знает.</t>
+    <t>iOS Microsoft Teams Version 4.13.1
+Android Microsoft Teams Version 1416/1.0.0.2022325603</t>
+  </si>
+  <si>
+    <t>iOS 15.5/15.4
+Android 11.0/10.0/9.0</t>
+  </si>
+  <si>
+    <t>iOS iPhone SE 2020/11
+Android Samsung A50/J7 2017
+Redmi 9A</t>
+  </si>
+  <si>
+    <t>BSMO_1</t>
+  </si>
+  <si>
+    <t>Найдено 6 багов (Android 1 баг, iOS 1 баг, Windows 1 баг, macOS 2 бага, Chrome 1 баг) из них:
+Critical = 1
+Major = 1
+Minor = 2</t>
+  </si>
+  <si>
+    <t>Windows Microsoft Teams Version 1.5.00.17656
+macOS Microsoft Teams Version 1.5.00.17261</t>
+  </si>
+  <si>
+    <t>Windows 10 Version 21H2
+macOS Monterey Version 12.4</t>
+  </si>
+  <si>
+    <t>Windows Lenovo Y540-15IRH
+macOS MacBook Air M1 2020</t>
+  </si>
+  <si>
+    <t>BUSA_1</t>
+  </si>
+  <si>
+    <t>После использования DevTools веб-приложение повторно обновляет страницу</t>
+  </si>
+  <si>
+    <t>По итогам тестирования, программный продукт готов к релизу. Так как его основной функционал работает исправно, а удобство использования и интерфейс соответствует пользовательским требованиям. То что был найден баг ID BAHT_1, не помешает пользователю пользоваться программным продуктом, потому что для его воспроиздения пользователю придется использовать DevTools, о наличие котором мало кто знает.</t>
   </si>
 </sst>
 </file>
@@ -5034,7 +5045,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>57</v>
@@ -5052,7 +5063,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>58</v>
@@ -5677,7 +5688,7 @@
         <v>40</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>57</v>
@@ -5695,7 +5706,7 @@
         <v>41</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>58</v>
@@ -6276,7 +6287,7 @@
         <v>40</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>57</v>
@@ -6293,7 +6304,7 @@
         <v>41</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>58</v>
@@ -6945,7 +6956,7 @@
         <v>40</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>57</v>
@@ -6962,7 +6973,7 @@
         <v>41</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>58</v>
@@ -7180,7 +7191,7 @@
     </row>
     <row r="145" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B145" s="24" t="s">
         <v>272</v>
@@ -7529,7 +7540,7 @@
         <v>40</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>57</v>
@@ -7546,7 +7557,7 @@
         <v>41</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>58</v>
@@ -8131,7 +8142,7 @@
         <v>261</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="L6" s="39" t="s">
         <v>326</v>
@@ -8173,7 +8184,7 @@
         <v>261</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="L7" s="39" t="s">
         <v>325</v>
@@ -8250,7 +8261,7 @@
         <v>317</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="37" t="s">
@@ -8292,7 +8303,7 @@
         <v>317</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="37" t="s">
@@ -8641,7 +8652,7 @@
         <v>261</v>
       </c>
       <c r="K20" s="46" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="L20" s="46" t="s">
         <v>321</v>
@@ -8683,7 +8694,7 @@
         <v>261</v>
       </c>
       <c r="K21" s="46" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="L21" s="46" t="s">
         <v>388</v>
@@ -8725,7 +8736,7 @@
         <v>261</v>
       </c>
       <c r="K22" s="46" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="L22" s="46" t="s">
         <v>389</v>
@@ -8767,7 +8778,7 @@
         <v>261</v>
       </c>
       <c r="K23" s="46" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="L23" s="46" t="s">
         <v>391</v>
@@ -8844,7 +8855,7 @@
         <v>385</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="I25" s="45"/>
       <c r="J25" s="37" t="s">
@@ -8886,7 +8897,7 @@
         <v>385</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="I26" s="45"/>
       <c r="J26" s="37" t="s">
@@ -9436,14 +9447,14 @@
         <v>265</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="37" t="s">
         <v>334</v>
       </c>
       <c r="K41" s="26" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="L41" s="26" t="s">
         <v>476</v>
@@ -9476,14 +9487,14 @@
         <v>265</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="37" t="s">
         <v>334</v>
       </c>
       <c r="K42" s="26" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="L42" s="26" t="s">
         <v>475</v>
@@ -10030,7 +10041,7 @@
         <v>447</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="I57" s="23"/>
       <c r="J57" s="37" t="s">
@@ -10072,7 +10083,7 @@
         <v>447</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="I58" s="23"/>
       <c r="J58" s="37" t="s">
@@ -10628,14 +10639,14 @@
         <v>265</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="I73" s="23"/>
       <c r="J73" s="27" t="s">
         <v>338</v>
       </c>
       <c r="K73" s="26" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="L73" s="26" t="s">
         <v>476</v>
@@ -10668,14 +10679,14 @@
         <v>265</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="I74" s="23"/>
       <c r="J74" s="27" t="s">
         <v>338</v>
       </c>
       <c r="K74" s="26" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="L74" s="26" t="s">
         <v>475</v>
@@ -11015,11 +11026,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11090,7 +11101,7 @@
     </row>
     <row r="2" spans="1:16" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>183</v>
@@ -11102,13 +11113,13 @@
         <v>39</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>384</v>
+        <v>510</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>385</v>
+        <v>511</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>446</v>
@@ -11136,69 +11147,69 @@
       </c>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:16" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>486</v>
+    <row r="3" spans="1:16" ht="126" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>517</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>456</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>317</v>
+        <v>452</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>516</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>446</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>413</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="J3" s="7"/>
       <c r="K3" s="37" t="s">
-        <v>416</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>417</v>
+        <v>261</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>49</v>
+        <v>466</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>506</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="P3" s="52" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>183</v>
+        <v>455</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>194</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>260</v>
+        <v>457</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>267</v>
@@ -11210,31 +11221,31 @@
         <v>446</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>193</v>
+      <c r="K4" s="51" t="s">
+        <v>464</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>463</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>514</v>
+        <v>461</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>462</v>
       </c>
       <c r="O4" s="16" t="s">
         <v>451</v>
       </c>
       <c r="P4" s="52" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="110.25" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>183</v>
@@ -11242,8 +11253,8 @@
       <c r="C5" s="50" t="s">
         <v>452</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>453</v>
+      <c r="D5" s="20" t="s">
+        <v>287</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>467</v>
@@ -11258,118 +11269,58 @@
         <v>446</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>514</v>
+      <c r="K5" s="7"/>
+      <c r="L5" s="38" t="s">
+        <v>488</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>289</v>
       </c>
       <c r="O5" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="P5" s="52" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>502</v>
-      </c>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="51" t="s">
-        <v>464</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>463</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="P6" s="52" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>452</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>467</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>493</v>
-      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="38" t="s">
-        <v>494</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>451</v>
-      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -12038,50 +11989,13 @@
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
     </row>
-    <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P4" r:id="rId1"/>
-    <hyperlink ref="P6" r:id="rId2"/>
-    <hyperlink ref="P5" r:id="rId3"/>
+    <hyperlink ref="P3" r:id="rId1"/>
+    <hyperlink ref="P4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -12089,8 +12003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12104,7 +12018,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -12112,7 +12026,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="333" customHeight="1" x14ac:dyDescent="0.25">
@@ -12120,15 +12034,15 @@
         <v>16</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -12136,7 +12050,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
@@ -12144,7 +12058,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12152,15 +12066,15 @@
         <v>20</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/TD_Tarasevich(Teams).xlsx
+++ b/TD_Tarasevich(Teams).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -1968,12 +1968,6 @@
     <t xml:space="preserve">Не отображается изображение аватара в заголовке окна </t>
   </si>
   <si>
-    <t>Тестирование программного продукта проводилось на 4 платформах, две из которых покрывали тестирование мобильной версии и две платформы покрыли тестирование десктопной версии, так же было проведено тестирование веб-приложения.
-Использовались два вида тестирования: функциональное и нефункционально. С помощью которых были протестированы модули: профиль (авторизация, редактирование), связь (чат, звонок, собрание), поиск, настройка (внешний вид), приложение (установка, удаление), удобство его использования и интерфейс.
-В сумме была проведена 161 проверка.
-Все новые обнаруженные баги зарегистрированы.</t>
-  </si>
-  <si>
     <t>iOS Microsoft Teams Version 4.13.1
 Android Microsoft Teams Version 1416/1.0.0.2022325603</t>
   </si>
@@ -2015,6 +2009,12 @@
   </si>
   <si>
     <t>По итогам тестирования, программный продукт готов к релизу. Так как его основной функционал работает исправно, а удобство использования и интерфейс соответствует пользовательским требованиям. То что был найден баг ID BAHT_1, не помешает пользователю пользоваться программным продуктом, потому что для его воспроиздения пользователю придется использовать DevTools, о наличие котором мало кто знает.</t>
+  </si>
+  <si>
+    <t>Тестирование программного продукта проводилось на 4 платформах, две из которых покрывали тестирование мобильной версии и две платформы покрыли тестирование десктопной версии, так же было проведено тестирование веб-приложения.
+Использовались два вида тестирования: функциональное и нефункционально. С помощью которых были протестированы модули: профиль (авторизация, редактирование), связь (чат, звонок, собрание), поиск, настройка (внешний вид), приложение (установка, удаление), так же удобство его использования и интерфейс.
+В сумме была проведена 161 проверка.
+Все новые обнаруженные баги зарегистрированы.</t>
   </si>
 </sst>
 </file>
@@ -2378,12 +2378,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2391,6 +2385,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4755,8 +4755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
@@ -4790,24 +4790,24 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -4848,14 +4848,14 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -5194,14 +5194,14 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
@@ -5277,14 +5277,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
@@ -5431,24 +5431,24 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
     </row>
     <row r="42" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -5489,14 +5489,14 @@
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
     </row>
     <row r="45" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
@@ -5843,14 +5843,14 @@
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="59" t="s">
+      <c r="A64" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="60"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
     </row>
     <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
@@ -5907,14 +5907,14 @@
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="59" t="s">
+      <c r="A68" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="60"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
@@ -6043,24 +6043,24 @@
       <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="61" t="s">
+      <c r="A76" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="B76" s="63"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="63"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="59" t="s">
+      <c r="A77" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B77" s="60"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
     </row>
     <row r="78" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -6100,14 +6100,14 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="59" t="s">
+      <c r="A80" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="60"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="60"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
     </row>
     <row r="81" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
@@ -6433,14 +6433,14 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="59" t="s">
+      <c r="A100" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="60"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="60"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="63"/>
     </row>
     <row r="101" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
@@ -6554,14 +6554,14 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="59" t="s">
+      <c r="A107" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B107" s="60"/>
-      <c r="C107" s="60"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="60"/>
-      <c r="F107" s="60"/>
+      <c r="B107" s="63"/>
+      <c r="C107" s="63"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="63"/>
+      <c r="F107" s="63"/>
     </row>
     <row r="108" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
@@ -6712,24 +6712,24 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="61" t="s">
+      <c r="A116" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B116" s="63"/>
-      <c r="C116" s="63"/>
-      <c r="D116" s="63"/>
-      <c r="E116" s="63"/>
-      <c r="F116" s="63"/>
+      <c r="B116" s="61"/>
+      <c r="C116" s="61"/>
+      <c r="D116" s="61"/>
+      <c r="E116" s="61"/>
+      <c r="F116" s="61"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="59" t="s">
+      <c r="A117" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B117" s="60"/>
-      <c r="C117" s="60"/>
-      <c r="D117" s="60"/>
-      <c r="E117" s="60"/>
-      <c r="F117" s="60"/>
+      <c r="B117" s="63"/>
+      <c r="C117" s="63"/>
+      <c r="D117" s="63"/>
+      <c r="E117" s="63"/>
+      <c r="F117" s="63"/>
     </row>
     <row r="118" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
@@ -6769,14 +6769,14 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="59" t="s">
+      <c r="A120" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="B120" s="60"/>
-      <c r="C120" s="60"/>
-      <c r="D120" s="60"/>
-      <c r="E120" s="60"/>
-      <c r="F120" s="60"/>
+      <c r="B120" s="63"/>
+      <c r="C120" s="63"/>
+      <c r="D120" s="63"/>
+      <c r="E120" s="63"/>
+      <c r="F120" s="63"/>
     </row>
     <row r="121" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
@@ -7102,14 +7102,14 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="59" t="s">
+      <c r="A140" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B140" s="60"/>
-      <c r="C140" s="60"/>
-      <c r="D140" s="60"/>
-      <c r="E140" s="60"/>
-      <c r="F140" s="60"/>
+      <c r="B140" s="63"/>
+      <c r="C140" s="63"/>
+      <c r="D140" s="63"/>
+      <c r="E140" s="63"/>
+      <c r="F140" s="63"/>
     </row>
     <row r="141" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
@@ -7207,14 +7207,14 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="59" t="s">
+      <c r="A146" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B146" s="60"/>
-      <c r="C146" s="60"/>
-      <c r="D146" s="60"/>
-      <c r="E146" s="60"/>
-      <c r="F146" s="60"/>
+      <c r="B146" s="63"/>
+      <c r="C146" s="63"/>
+      <c r="D146" s="63"/>
+      <c r="E146" s="63"/>
+      <c r="F146" s="63"/>
     </row>
     <row r="147" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
@@ -7343,24 +7343,24 @@
       <c r="F153" s="4"/>
     </row>
     <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="61" t="s">
+      <c r="A154" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="B154" s="62"/>
-      <c r="C154" s="62"/>
-      <c r="D154" s="62"/>
-      <c r="E154" s="62"/>
-      <c r="F154" s="62"/>
+      <c r="B154" s="60"/>
+      <c r="C154" s="60"/>
+      <c r="D154" s="60"/>
+      <c r="E154" s="60"/>
+      <c r="F154" s="60"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="59" t="s">
+      <c r="A155" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="B155" s="60"/>
-      <c r="C155" s="60"/>
-      <c r="D155" s="60"/>
-      <c r="E155" s="60"/>
-      <c r="F155" s="60"/>
+      <c r="B155" s="63"/>
+      <c r="C155" s="63"/>
+      <c r="D155" s="63"/>
+      <c r="E155" s="63"/>
+      <c r="F155" s="63"/>
     </row>
     <row r="156" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
@@ -7686,14 +7686,14 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="59" t="s">
+      <c r="A175" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B175" s="60"/>
-      <c r="C175" s="60"/>
-      <c r="D175" s="60"/>
-      <c r="E175" s="60"/>
-      <c r="F175" s="60"/>
+      <c r="B175" s="63"/>
+      <c r="C175" s="63"/>
+      <c r="D175" s="63"/>
+      <c r="E175" s="63"/>
+      <c r="F175" s="63"/>
     </row>
     <row r="176" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
@@ -7774,14 +7774,14 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="59" t="s">
+      <c r="A180" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B180" s="60"/>
-      <c r="C180" s="60"/>
-      <c r="D180" s="60"/>
-      <c r="E180" s="60"/>
-      <c r="F180" s="60"/>
+      <c r="B180" s="63"/>
+      <c r="C180" s="63"/>
+      <c r="D180" s="63"/>
+      <c r="E180" s="63"/>
+      <c r="F180" s="63"/>
     </row>
     <row r="181" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="s">
@@ -7891,6 +7891,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A77:F77"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A76:F76"/>
     <mergeCell ref="A175:F175"/>
@@ -7907,14 +7915,6 @@
     <mergeCell ref="A107:F107"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A77:F77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7927,7 +7927,7 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
@@ -11028,9 +11028,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11101,7 +11101,7 @@
     </row>
     <row r="2" spans="1:16" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>183</v>
@@ -11113,13 +11113,13 @@
         <v>39</v>
       </c>
       <c r="E2" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>510</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>511</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>446</v>
@@ -11149,7 +11149,7 @@
     </row>
     <row r="3" spans="1:16" ht="126" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>183</v>
@@ -11161,13 +11161,13 @@
         <v>453</v>
       </c>
       <c r="E3" s="35" t="s">
+        <v>513</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>514</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="G3" s="35" t="s">
         <v>515</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>516</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>446</v>
@@ -11221,7 +11221,7 @@
         <v>446</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="51" t="s">
@@ -12003,8 +12003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12037,12 +12037,12 @@
         <v>493</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -12058,7 +12058,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12074,7 +12074,7 @@
         <v>494</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/TD_Tarasevich(Teams).xlsx
+++ b/TD_Tarasevich(Teams).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="521">
   <si>
     <t>ID</t>
   </si>
@@ -1197,13 +1197,7 @@
     <t>Swype</t>
   </si>
   <si>
-    <t>При свайпе по экрану выполняется заложенный в него функционал</t>
-  </si>
-  <si>
     <t>Заложенный функционал во время свайпа выполняется</t>
-  </si>
-  <si>
-    <t>При манипуляции Scroll bar в разделе Календарь выполняется scroll страницы по вертикали</t>
   </si>
   <si>
     <t>GUIA_1</t>
@@ -1409,21 +1403,6 @@
     <t>Microsoft Teams открыт
 Чат с другим пользователем: forms
 Слабое интернет соединение на устройствах</t>
-  </si>
-  <si>
-    <t>1)По 1 символу в начале слова
-2)По 1 символу в середине слова
-3)По 1 символу в конце слова</t>
-  </si>
-  <si>
-    <t>1)По 2 символам в начале слова
-2)По 2 символам в середине слова
-3)По 2 символам в конце слова</t>
-  </si>
-  <si>
-    <t>1)По &gt;2 символов в начале слова
-2)По &gt;2 символов в середине слова
-3)По &gt;2 символов в конце слова</t>
   </si>
   <si>
     <t xml:space="preserve">Microsoft Teams открыт
@@ -1984,12 +1963,6 @@
     <t>BSMO_1</t>
   </si>
   <si>
-    <t>Найдено 6 багов (Android 1 баг, iOS 1 баг, Windows 1 баг, macOS 2 бага, Chrome 1 баг) из них:
-Critical = 1
-Major = 1
-Minor = 2</t>
-  </si>
-  <si>
     <t>Windows Microsoft Teams Version 1.5.00.17656
 macOS Microsoft Teams Version 1.5.00.17261</t>
   </si>
@@ -2003,9 +1976,6 @@
   </si>
   <si>
     <t>BUSA_1</t>
-  </si>
-  <si>
-    <t>После использования DevTools веб-приложение повторно обновляет страницу</t>
   </si>
   <si>
     <t>По итогам тестирования, программный продукт готов к релизу. Так как его основной функционал работает исправно, а удобство использования и интерфейс соответствует пользовательским требованиям. То что был найден баг ID BAHT_1, не помешает пользователю пользоваться программным продуктом, потому что для его воспроиздения пользователю придется использовать DevTools, о наличие котором мало кто знает.</t>
@@ -2015,6 +1985,41 @@
 Использовались два вида тестирования: функциональное и нефункционально. С помощью которых были протестированы модули: профиль (авторизация, редактирование), связь (чат, звонок, собрание), поиск, настройка (внешний вид), приложение (установка, удаление), так же удобство его использования и интерфейс.
 В сумме была проведена 161 проверка.
 Все новые обнаруженные баги зарегистрированы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполняется scroll страницы по вертикали в разделе Календарь при манипуляции Scroll bar </t>
+  </si>
+  <si>
+    <t>Выполняется заложенный функционал в приложении при свайпе по экрану устройста</t>
+  </si>
+  <si>
+    <t>Найдено 6 багов (Android 1 баг, iOS 1 баг, Windows 1 баг, macOS 2 бага, Chrome 1 баг) из них:
+Critical = 1
+Major = 2
+Minor = 1</t>
+  </si>
+  <si>
+    <t>Веб-приложение повторно обновляет страницу после использования DevTools</t>
+  </si>
+  <si>
+    <t>1)Поиск сообщения/файла/людей/чата по  1 символу в начале слова
+2)Поиск сообщения/файла/людей/чата по 1 символу в середине слова
+3)Поиск сообщения/файла/людей/чата по 1 символу в конце слова</t>
+  </si>
+  <si>
+    <t>1)Поиск сообщения/файла/людей/чата по 2 символам в начале слова
+2)Поиск сообщения/файла/людей/чата по 2 символам в середине слова
+3)Поиск сообщения/файла/людей/чата по 2 символам в конце слова</t>
+  </si>
+  <si>
+    <t>1)Поиск сообщения/файла/людей/чата по 3 символам в начале слова
+2)Поиск сообщения/файла/людей/чата по 3 символам символов в середине слова
+3)Поиск сообщения/файла/людей/чата по 3 символам символов в конце слова</t>
+  </si>
+  <si>
+    <t>1)Не происходит поиск  сообщения/файла/людей/чата по  1 символу в начале слова
+2)Не происходит поиск  сообщения/файла/людей/чата по 1 символу в середине слова
+3)Не происходит поиск  сообщения/файла/людей/чата по 1 символу в конце слова</t>
   </si>
 </sst>
 </file>
@@ -2378,6 +2383,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2385,12 +2396,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3103,13 +3108,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>971551</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1274235</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3147,13 +3152,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1000126</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1220612</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>438150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3191,13 +3196,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>1438275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3235,13 +3240,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1000124</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1228724</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>447675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3279,14 +3284,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>990601</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>413905</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>194829</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3323,13 +3328,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>971551</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1274235</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3367,13 +3372,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1000126</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1220612</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>438150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3411,13 +3416,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>1438275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3455,13 +3460,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1000124</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1228724</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>447675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3499,14 +3504,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>990601</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>413905</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>194829</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3587,13 +3592,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1118113</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>638175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3631,13 +3636,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>981076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>1361</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3675,13 +3680,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>895351</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1100293</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>619125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3719,13 +3724,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>876301</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1060705</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3763,13 +3768,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1009650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1085881</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1200177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3807,13 +3812,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>857251</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1066801</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>409576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3851,14 +3856,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1118088</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>419101</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3939,13 +3944,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1060704</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>409575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3983,13 +3988,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>857251</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1066801</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>409576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4027,14 +4032,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1118088</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>419101</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4115,13 +4120,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1000124</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1228724</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>447675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4159,14 +4164,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>990601</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>413905</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>194829</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4247,13 +4252,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1000126</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1220612</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>438150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4291,13 +4296,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>790575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1257337</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>990628</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4335,13 +4340,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>1419225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1285875</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>1657350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4379,13 +4384,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>800100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1247812</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>1000153</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4423,13 +4428,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>971551</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1274235</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4755,9 +4760,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4790,24 +4795,24 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
     </row>
     <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -4848,14 +4853,14 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -5045,7 +5050,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>57</v>
@@ -5063,7 +5068,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>58</v>
@@ -5194,18 +5199,18 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B27" s="41" t="s">
         <v>350</v>
@@ -5223,33 +5228,33 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B28" s="41" t="s">
         <v>353</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>215</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>357</v>
+        <v>513</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>233</v>
@@ -5261,34 +5266,34 @@
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B30" s="42" t="s">
         <v>354</v>
       </c>
       <c r="C30" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>356</v>
-      </c>
       <c r="E30" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>287</v>
@@ -5306,7 +5311,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>287</v>
@@ -5324,16 +5329,16 @@
     </row>
     <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>223</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>31</v>
@@ -5342,16 +5347,16 @@
     </row>
     <row r="35" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>238</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>31</v>
@@ -5360,13 +5365,13 @@
     </row>
     <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>244</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>245</v>
@@ -5378,7 +5383,7 @@
     </row>
     <row r="37" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>301</v>
@@ -5396,7 +5401,7 @@
     </row>
     <row r="38" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>301</v>
@@ -5414,7 +5419,7 @@
     </row>
     <row r="39" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>301</v>
@@ -5423,7 +5428,7 @@
         <v>314</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>31</v>
@@ -5431,24 +5436,24 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
     </row>
     <row r="42" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -5489,14 +5494,14 @@
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
     </row>
     <row r="45" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
@@ -5671,13 +5676,13 @@
         <v>172</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5688,7 +5693,7 @@
         <v>40</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>57</v>
@@ -5706,7 +5711,7 @@
         <v>41</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>58</v>
@@ -5843,18 +5848,18 @@
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="62" t="s">
+      <c r="A64" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
     </row>
     <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B65" s="41" t="s">
         <v>350</v>
@@ -5872,13 +5877,13 @@
     </row>
     <row r="66" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>215</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>357</v>
+        <v>513</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>233</v>
@@ -5890,35 +5895,35 @@
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B67" s="42" t="s">
         <v>354</v>
       </c>
       <c r="C67" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="D67" s="17" t="s">
-        <v>356</v>
-      </c>
       <c r="E67" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="62" t="s">
+      <c r="A68" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>287</v>
@@ -5936,16 +5941,16 @@
     </row>
     <row r="70" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>223</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>31</v>
@@ -5954,16 +5959,16 @@
     </row>
     <row r="71" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>238</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>31</v>
@@ -5972,13 +5977,13 @@
     </row>
     <row r="72" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>244</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D72" s="21" t="s">
         <v>245</v>
@@ -5990,7 +5995,7 @@
     </row>
     <row r="73" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>301</v>
@@ -6008,7 +6013,7 @@
     </row>
     <row r="74" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>301</v>
@@ -6026,7 +6031,7 @@
     </row>
     <row r="75" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>301</v>
@@ -6035,7 +6040,7 @@
         <v>314</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>31</v>
@@ -6043,24 +6048,24 @@
       <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="59" t="s">
+      <c r="A76" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B76" s="61"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="62" t="s">
+      <c r="A77" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="63"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
@@ -6100,14 +6105,14 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="62" t="s">
+      <c r="A80" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="63"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
     </row>
     <row r="81" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
@@ -6287,7 +6292,7 @@
         <v>40</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>57</v>
@@ -6304,7 +6309,7 @@
         <v>41</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>58</v>
@@ -6433,14 +6438,14 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="62" t="s">
+      <c r="A100" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="63"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="63"/>
-      <c r="E100" s="63"/>
-      <c r="F100" s="63"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
     </row>
     <row r="101" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
@@ -6450,7 +6455,7 @@
         <v>215</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>357</v>
+        <v>513</v>
       </c>
       <c r="D101" s="22" t="s">
         <v>233</v>
@@ -6554,14 +6559,14 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="62" t="s">
+      <c r="A107" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B107" s="63"/>
-      <c r="C107" s="63"/>
-      <c r="D107" s="63"/>
-      <c r="E107" s="63"/>
-      <c r="F107" s="63"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="60"/>
     </row>
     <row r="108" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
@@ -6592,7 +6597,7 @@
         <v>239</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E109" s="13" t="s">
         <v>31</v>
@@ -6609,7 +6614,7 @@
         <v>244</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D110" s="21" t="s">
         <v>245</v>
@@ -6712,24 +6717,24 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="59" t="s">
+      <c r="A116" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B116" s="61"/>
-      <c r="C116" s="61"/>
-      <c r="D116" s="61"/>
-      <c r="E116" s="61"/>
-      <c r="F116" s="61"/>
+      <c r="B116" s="63"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="63"/>
+      <c r="E116" s="63"/>
+      <c r="F116" s="63"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="62" t="s">
+      <c r="A117" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B117" s="63"/>
-      <c r="C117" s="63"/>
-      <c r="D117" s="63"/>
-      <c r="E117" s="63"/>
-      <c r="F117" s="63"/>
+      <c r="B117" s="60"/>
+      <c r="C117" s="60"/>
+      <c r="D117" s="60"/>
+      <c r="E117" s="60"/>
+      <c r="F117" s="60"/>
     </row>
     <row r="118" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
@@ -6769,14 +6774,14 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="62" t="s">
+      <c r="A120" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B120" s="63"/>
-      <c r="C120" s="63"/>
-      <c r="D120" s="63"/>
-      <c r="E120" s="63"/>
-      <c r="F120" s="63"/>
+      <c r="B120" s="60"/>
+      <c r="C120" s="60"/>
+      <c r="D120" s="60"/>
+      <c r="E120" s="60"/>
+      <c r="F120" s="60"/>
     </row>
     <row r="121" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
@@ -6956,7 +6961,7 @@
         <v>40</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>57</v>
@@ -6973,7 +6978,7 @@
         <v>41</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>58</v>
@@ -7102,24 +7107,24 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="62" t="s">
+      <c r="A140" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B140" s="63"/>
-      <c r="C140" s="63"/>
-      <c r="D140" s="63"/>
-      <c r="E140" s="63"/>
-      <c r="F140" s="63"/>
+      <c r="B140" s="60"/>
+      <c r="C140" s="60"/>
+      <c r="D140" s="60"/>
+      <c r="E140" s="60"/>
+      <c r="F140" s="60"/>
     </row>
     <row r="141" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B141" s="20" t="s">
         <v>215</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>357</v>
+        <v>513</v>
       </c>
       <c r="D141" s="22" t="s">
         <v>233</v>
@@ -7131,7 +7136,7 @@
     </row>
     <row r="142" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B142" s="24" t="s">
         <v>217</v>
@@ -7151,7 +7156,7 @@
     </row>
     <row r="143" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B143" s="24" t="s">
         <v>218</v>
@@ -7171,7 +7176,7 @@
     </row>
     <row r="144" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B144" s="24" t="s">
         <v>273</v>
@@ -7191,7 +7196,7 @@
     </row>
     <row r="145" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B145" s="24" t="s">
         <v>272</v>
@@ -7207,18 +7212,18 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="62" t="s">
+      <c r="A146" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B146" s="63"/>
-      <c r="C146" s="63"/>
-      <c r="D146" s="63"/>
-      <c r="E146" s="63"/>
-      <c r="F146" s="63"/>
+      <c r="B146" s="60"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="60"/>
+      <c r="E146" s="60"/>
+      <c r="F146" s="60"/>
     </row>
     <row r="147" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B147" s="20" t="s">
         <v>223</v>
@@ -7236,7 +7241,7 @@
     </row>
     <row r="148" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B148" s="21" t="s">
         <v>238</v>
@@ -7245,7 +7250,7 @@
         <v>239</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E148" s="13" t="s">
         <v>31</v>
@@ -7254,13 +7259,13 @@
     </row>
     <row r="149" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B149" s="21" t="s">
         <v>244</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D149" s="21" t="s">
         <v>245</v>
@@ -7272,7 +7277,7 @@
     </row>
     <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B150" s="20" t="s">
         <v>287</v>
@@ -7290,7 +7295,7 @@
     </row>
     <row r="151" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B151" s="20" t="s">
         <v>301</v>
@@ -7308,7 +7313,7 @@
     </row>
     <row r="152" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B152" s="20" t="s">
         <v>301</v>
@@ -7326,7 +7331,7 @@
     </row>
     <row r="153" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B153" s="20" t="s">
         <v>301</v>
@@ -7343,24 +7348,24 @@
       <c r="F153" s="4"/>
     </row>
     <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="59" t="s">
+      <c r="A154" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B154" s="60"/>
-      <c r="C154" s="60"/>
-      <c r="D154" s="60"/>
-      <c r="E154" s="60"/>
-      <c r="F154" s="60"/>
+      <c r="B154" s="62"/>
+      <c r="C154" s="62"/>
+      <c r="D154" s="62"/>
+      <c r="E154" s="62"/>
+      <c r="F154" s="62"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="62" t="s">
+      <c r="A155" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B155" s="63"/>
-      <c r="C155" s="63"/>
-      <c r="D155" s="63"/>
-      <c r="E155" s="63"/>
-      <c r="F155" s="63"/>
+      <c r="B155" s="60"/>
+      <c r="C155" s="60"/>
+      <c r="D155" s="60"/>
+      <c r="E155" s="60"/>
+      <c r="F155" s="60"/>
     </row>
     <row r="156" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
@@ -7540,7 +7545,7 @@
         <v>40</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>57</v>
@@ -7557,7 +7562,7 @@
         <v>41</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>58</v>
@@ -7686,14 +7691,14 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="62" t="s">
+      <c r="A175" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B175" s="63"/>
-      <c r="C175" s="63"/>
-      <c r="D175" s="63"/>
-      <c r="E175" s="63"/>
-      <c r="F175" s="63"/>
+      <c r="B175" s="60"/>
+      <c r="C175" s="60"/>
+      <c r="D175" s="60"/>
+      <c r="E175" s="60"/>
+      <c r="F175" s="60"/>
     </row>
     <row r="176" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
@@ -7703,7 +7708,7 @@
         <v>215</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>357</v>
+        <v>513</v>
       </c>
       <c r="D176" s="22" t="s">
         <v>233</v>
@@ -7774,14 +7779,14 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="62" t="s">
+      <c r="A180" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B180" s="63"/>
-      <c r="C180" s="63"/>
-      <c r="D180" s="63"/>
-      <c r="E180" s="63"/>
-      <c r="F180" s="63"/>
+      <c r="B180" s="60"/>
+      <c r="C180" s="60"/>
+      <c r="D180" s="60"/>
+      <c r="E180" s="60"/>
+      <c r="F180" s="60"/>
     </row>
     <row r="181" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="s">
@@ -7811,7 +7816,7 @@
         <v>239</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E182" s="13" t="s">
         <v>31</v>
@@ -7828,7 +7833,7 @@
         <v>244</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D183" s="17" t="s">
         <v>245</v>
@@ -7891,14 +7896,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A77:F77"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A76:F76"/>
     <mergeCell ref="A175:F175"/>
@@ -7915,6 +7912,14 @@
     <mergeCell ref="A107:F107"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A77:F77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7926,10 +7931,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7941,7 +7946,8 @@
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="9" width="36.7109375" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" customWidth="1"/>
     <col min="10" max="10" width="30.7109375" customWidth="1"/>
     <col min="11" max="12" width="45.7109375" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
@@ -8028,15 +8034,15 @@
       <c r="M3" s="67"/>
       <c r="N3" s="67"/>
     </row>
-    <row r="4" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>183</v>
+        <v>87</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>207</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>184</v>
@@ -8045,40 +8051,38 @@
         <v>316</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="H4" s="30" t="s">
-        <v>185</v>
+      <c r="H4" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="37" t="s">
-        <v>261</v>
+        <v>331</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="39" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>183</v>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>207</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>184</v>
@@ -8087,34 +8091,32 @@
         <v>316</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="H5" s="30" t="s">
-        <v>188</v>
+      <c r="H5" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="37" t="s">
-        <v>261</v>
+        <v>331</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="38" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>183</v>
@@ -8129,40 +8131,40 @@
         <v>316</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>191</v>
+      <c r="H6" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="37" t="s">
         <v>261</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N6" s="39" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>194</v>
+      <c r="A7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>184</v>
@@ -8171,40 +8173,40 @@
         <v>316</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>322</v>
+      <c r="H7" s="30" t="s">
+        <v>188</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="37" t="s">
         <v>261</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>500</v>
+        <v>385</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="39" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>82</v>
+      <c r="N7" s="38" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>184</v>
@@ -8213,40 +8215,40 @@
         <v>316</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>172</v>
+      <c r="H8" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="37" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>332</v>
+        <v>496</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N8" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>183</v>
+        <v>78</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>184</v>
@@ -8255,40 +8257,40 @@
         <v>316</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>317</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>495</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="37" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>333</v>
+        <v>495</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N9" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="126" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>84</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>184</v>
@@ -8297,40 +8299,40 @@
         <v>316</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>317</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>496</v>
+        <v>172</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="37" t="s">
         <v>331</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N10" s="39" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>207</v>
+        <v>83</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>184</v>
@@ -8339,38 +8341,40 @@
         <v>316</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>317</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>208</v>
+        <v>490</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="37" t="s">
         <v>331</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="N11" s="39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="126" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>207</v>
+        <v>84</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>184</v>
@@ -8379,30 +8383,32 @@
         <v>316</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>317</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>209</v>
+        <v>491</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="37" t="s">
         <v>331</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L12" s="39" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="N12" s="39" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>89</v>
       </c>
@@ -8419,7 +8425,7 @@
         <v>316</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>317</v>
@@ -8428,23 +8434,23 @@
         <v>345</v>
       </c>
       <c r="I13" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="L13" s="39" t="s">
         <v>413</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>416</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>417</v>
-      </c>
-      <c r="L13" s="39" t="s">
-        <v>418</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>344</v>
       </c>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>90</v>
       </c>
@@ -8461,7 +8467,7 @@
         <v>316</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>317</v>
@@ -8470,23 +8476,23 @@
         <v>346</v>
       </c>
       <c r="I14" s="51" t="s">
+        <v>518</v>
+      </c>
+      <c r="J14" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="J14" s="37" t="s">
-        <v>419</v>
-      </c>
       <c r="K14" s="39" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>91</v>
       </c>
@@ -8503,7 +8509,7 @@
         <v>316</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>317</v>
@@ -8512,16 +8518,16 @@
         <v>347</v>
       </c>
       <c r="I15" s="51" t="s">
-        <v>415</v>
+        <v>519</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K15" s="39" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="L15" s="39" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>31</v>
@@ -8548,7 +8554,7 @@
     </row>
     <row r="17" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>207</v>
@@ -8563,7 +8569,7 @@
         <v>316</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>317</v>
@@ -8573,7 +8579,7 @@
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="37" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K17" s="39" t="s">
         <v>343</v>
@@ -8588,7 +8594,7 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B18" s="71"/>
       <c r="C18" s="71"/>
@@ -8622,93 +8628,89 @@
       <c r="M19" s="67"/>
       <c r="N19" s="67"/>
     </row>
-    <row r="20" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>183</v>
+        <v>106</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>207</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E20" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>185</v>
+      <c r="H20" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="K20" s="46" t="s">
-        <v>502</v>
-      </c>
-      <c r="L20" s="46" t="s">
-        <v>321</v>
+        <v>331</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="39" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>183</v>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>207</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E21" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>188</v>
+      <c r="H21" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="K21" s="46" t="s">
-        <v>503</v>
-      </c>
-      <c r="L21" s="46" t="s">
-        <v>388</v>
+        <v>331</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>348</v>
       </c>
       <c r="M21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N21" s="39" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>183</v>
@@ -8720,283 +8722,287 @@
         <v>184</v>
       </c>
       <c r="E22" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>191</v>
+      <c r="H22" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="37" t="s">
         <v>261</v>
       </c>
       <c r="K22" s="46" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="L22" s="46" t="s">
-        <v>389</v>
+        <v>321</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N22" s="39" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>194</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E23" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>322</v>
+      <c r="H23" s="30" t="s">
+        <v>188</v>
       </c>
       <c r="I23" s="45"/>
       <c r="J23" s="37" t="s">
         <v>261</v>
       </c>
       <c r="K23" s="46" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L23" s="46" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="M23" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N23" s="39" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>101</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E24" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>385</v>
-      </c>
       <c r="H24" s="10" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I24" s="45"/>
       <c r="J24" s="37" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="K24" s="46" t="s">
-        <v>392</v>
+        <v>499</v>
       </c>
       <c r="L24" s="46" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N24" s="39" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>183</v>
+        <v>97</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E25" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>385</v>
-      </c>
       <c r="H25" s="10" t="s">
-        <v>495</v>
+        <v>322</v>
       </c>
       <c r="I25" s="45"/>
       <c r="J25" s="37" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="K25" s="46" t="s">
-        <v>397</v>
+        <v>500</v>
       </c>
       <c r="L25" s="46" t="s">
-        <v>329</v>
+        <v>389</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N25" s="39" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>103</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E26" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>385</v>
-      </c>
       <c r="H26" s="10" t="s">
-        <v>496</v>
+        <v>172</v>
       </c>
       <c r="I26" s="45"/>
       <c r="J26" s="37" t="s">
         <v>331</v>
       </c>
       <c r="K26" s="46" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="L26" s="46" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N26" s="39" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>207</v>
+        <v>102</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E27" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>385</v>
-      </c>
       <c r="H27" s="10" t="s">
-        <v>208</v>
+        <v>490</v>
       </c>
       <c r="I27" s="45"/>
       <c r="J27" s="37" t="s">
         <v>331</v>
       </c>
-      <c r="K27" s="39" t="s">
-        <v>343</v>
-      </c>
-      <c r="L27" s="39" t="s">
-        <v>349</v>
+      <c r="K27" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="L27" s="46" t="s">
+        <v>329</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="N27" s="39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>207</v>
+        <v>103</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E28" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>385</v>
-      </c>
       <c r="H28" s="10" t="s">
-        <v>209</v>
+        <v>491</v>
       </c>
       <c r="I28" s="45"/>
       <c r="J28" s="37" t="s">
         <v>331</v>
       </c>
-      <c r="K28" s="39" t="s">
-        <v>343</v>
-      </c>
-      <c r="L28" s="39" t="s">
-        <v>348</v>
+      <c r="K28" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="L28" s="46" t="s">
+        <v>399</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="N28" s="39" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>89</v>
       </c>
@@ -9010,35 +9016,35 @@
         <v>184</v>
       </c>
       <c r="E29" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>383</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>385</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>345</v>
       </c>
       <c r="I29" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="J29" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="K29" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="L29" s="39" t="s">
         <v>413</v>
-      </c>
-      <c r="J29" s="37" t="s">
-        <v>416</v>
-      </c>
-      <c r="K29" s="39" t="s">
-        <v>417</v>
-      </c>
-      <c r="L29" s="39" t="s">
-        <v>418</v>
       </c>
       <c r="M29" s="14" t="s">
         <v>344</v>
       </c>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>90</v>
       </c>
@@ -9052,35 +9058,35 @@
         <v>184</v>
       </c>
       <c r="E30" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>383</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>385</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>346</v>
       </c>
       <c r="I30" s="51" t="s">
+        <v>518</v>
+      </c>
+      <c r="J30" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="J30" s="37" t="s">
-        <v>419</v>
-      </c>
       <c r="K30" s="39" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="L30" s="39" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>91</v>
       </c>
@@ -9094,28 +9100,28 @@
         <v>184</v>
       </c>
       <c r="E31" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>383</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>385</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>347</v>
       </c>
       <c r="I31" s="51" t="s">
-        <v>415</v>
+        <v>519</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K31" s="39" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="L31" s="39" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M31" s="13" t="s">
         <v>31</v>
@@ -9142,7 +9148,7 @@
     </row>
     <row r="33" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B33" s="32" t="s">
         <v>207</v>
@@ -9154,20 +9160,20 @@
         <v>184</v>
       </c>
       <c r="E33" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>383</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>385</v>
       </c>
       <c r="H33" s="21" t="s">
         <v>313</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="37" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K33" s="39" t="s">
         <v>343</v>
@@ -9216,15 +9222,15 @@
       <c r="M35" s="67"/>
       <c r="N35" s="67"/>
     </row>
-    <row r="36" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>183</v>
+        <v>125</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>207</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>184</v>
@@ -9238,35 +9244,35 @@
       <c r="G36" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="H36" s="30" t="s">
-        <v>185</v>
+      <c r="H36" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="37" t="s">
-        <v>261</v>
+        <v>331</v>
       </c>
       <c r="K36" s="26" t="s">
-        <v>262</v>
+        <v>336</v>
       </c>
       <c r="L36" s="26" t="s">
-        <v>251</v>
+        <v>473</v>
       </c>
       <c r="M36" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N36" s="19" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>183</v>
+      <c r="A37" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>207</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>184</v>
@@ -9280,29 +9286,29 @@
       <c r="G37" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="H37" s="30" t="s">
-        <v>188</v>
+      <c r="H37" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="37" t="s">
-        <v>261</v>
+        <v>331</v>
       </c>
       <c r="K37" s="26" t="s">
-        <v>190</v>
+        <v>336</v>
       </c>
       <c r="L37" s="26" t="s">
-        <v>202</v>
+        <v>474</v>
       </c>
       <c r="M37" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N37" s="19" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>183</v>
@@ -9322,35 +9328,35 @@
       <c r="G38" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>191</v>
+      <c r="H38" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="37" t="s">
         <v>261</v>
       </c>
       <c r="K38" s="26" t="s">
-        <v>193</v>
+        <v>262</v>
       </c>
       <c r="L38" s="26" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="M38" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N38" s="19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>194</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>184</v>
@@ -9364,35 +9370,35 @@
       <c r="G39" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="H39" s="10" t="s">
-        <v>196</v>
+      <c r="H39" s="30" t="s">
+        <v>188</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="37" t="s">
         <v>261</v>
       </c>
       <c r="K39" s="26" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L39" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M39" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N39" s="19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="126" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>120</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>184</v>
@@ -9406,33 +9412,35 @@
       <c r="G40" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="H40" s="10" t="s">
-        <v>172</v>
+      <c r="H40" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="37" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="K40" s="26" t="s">
-        <v>335</v>
+        <v>193</v>
       </c>
       <c r="L40" s="26" t="s">
-        <v>474</v>
+        <v>203</v>
       </c>
       <c r="M40" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N40" s="19"/>
-    </row>
-    <row r="41" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="N40" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>183</v>
+        <v>116</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>184</v>
@@ -9447,32 +9455,34 @@
         <v>265</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>495</v>
+        <v>196</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="37" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="K41" s="26" t="s">
-        <v>497</v>
+        <v>198</v>
       </c>
       <c r="L41" s="26" t="s">
-        <v>476</v>
+        <v>204</v>
       </c>
       <c r="M41" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N41" s="19"/>
-    </row>
-    <row r="42" spans="1:14" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>122</v>
+      <c r="N41" s="19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="126" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>184</v>
@@ -9487,17 +9497,17 @@
         <v>265</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>496</v>
+        <v>172</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="37" t="s">
         <v>334</v>
       </c>
       <c r="K42" s="26" t="s">
-        <v>498</v>
+        <v>335</v>
       </c>
       <c r="L42" s="26" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M42" s="13" t="s">
         <v>31</v>
@@ -9506,13 +9516,13 @@
     </row>
     <row r="43" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>207</v>
+        <v>121</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>184</v>
@@ -9527,34 +9537,32 @@
         <v>265</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>208</v>
+        <v>490</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="37" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K43" s="26" t="s">
-        <v>336</v>
+        <v>492</v>
       </c>
       <c r="L43" s="26" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="M43" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N43" s="19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="N43" s="19"/>
+    </row>
+    <row r="44" spans="1:14" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>207</v>
+        <v>122</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>184</v>
@@ -9569,26 +9577,24 @@
         <v>265</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>209</v>
+        <v>491</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="37" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K44" s="26" t="s">
-        <v>336</v>
+        <v>493</v>
       </c>
       <c r="L44" s="26" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="M44" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N44" s="19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="N44" s="19"/>
+    </row>
+    <row r="45" spans="1:14" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>89</v>
       </c>
@@ -9614,23 +9620,23 @@
         <v>212</v>
       </c>
       <c r="I45" s="51" t="s">
-        <v>413</v>
+        <v>517</v>
       </c>
       <c r="J45" s="37" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K45" s="39" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L45" s="39" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M45" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N45" s="19"/>
     </row>
-    <row r="46" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>90</v>
       </c>
@@ -9656,23 +9662,23 @@
         <v>213</v>
       </c>
       <c r="I46" s="51" t="s">
-        <v>414</v>
+        <v>518</v>
       </c>
       <c r="J46" s="37" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K46" s="39" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L46" s="39" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M46" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="19"/>
     </row>
-    <row r="47" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>91</v>
       </c>
@@ -9698,16 +9704,16 @@
         <v>253</v>
       </c>
       <c r="I47" s="51" t="s">
-        <v>415</v>
+        <v>519</v>
       </c>
       <c r="J47" s="37" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="K47" s="39" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L47" s="39" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M47" s="13" t="s">
         <v>31</v>
@@ -9765,7 +9771,7 @@
         <v>336</v>
       </c>
       <c r="L49" s="26" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M49" s="13" t="s">
         <v>31</v>
@@ -9776,7 +9782,7 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="70" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B50" s="70"/>
       <c r="C50" s="70"/>
@@ -9810,93 +9816,93 @@
       <c r="M51" s="67"/>
       <c r="N51" s="67"/>
     </row>
-    <row r="52" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>183</v>
+        <v>144</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>207</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>185</v>
+        <v>442</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="I52" s="23"/>
       <c r="J52" s="37" t="s">
-        <v>261</v>
+        <v>331</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>262</v>
+        <v>336</v>
       </c>
       <c r="L52" s="26" t="s">
-        <v>251</v>
+        <v>473</v>
       </c>
       <c r="M52" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N52" s="19" t="s">
-        <v>263</v>
+      <c r="N52" s="49" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>183</v>
+      <c r="A53" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>207</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="I53" s="23"/>
       <c r="J53" s="37" t="s">
-        <v>261</v>
+        <v>331</v>
       </c>
       <c r="K53" s="26" t="s">
-        <v>190</v>
+        <v>336</v>
       </c>
       <c r="L53" s="26" t="s">
-        <v>202</v>
+        <v>474</v>
       </c>
       <c r="M53" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N53" s="19" t="s">
-        <v>263</v>
+      <c r="N53" s="49" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B54" s="28" t="s">
         <v>183</v>
@@ -9908,285 +9914,285 @@
         <v>184</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="H54" s="29" t="s">
-        <v>191</v>
+        <v>442</v>
+      </c>
+      <c r="H54" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="I54" s="23"/>
       <c r="J54" s="37" t="s">
         <v>261</v>
       </c>
       <c r="K54" s="26" t="s">
-        <v>193</v>
+        <v>262</v>
       </c>
       <c r="L54" s="26" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="M54" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N54" s="19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>194</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H55" s="30" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I55" s="23"/>
       <c r="J55" s="37" t="s">
         <v>261</v>
       </c>
       <c r="K55" s="26" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L55" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M55" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N55" s="19" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="126" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>139</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="B56" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="H56" s="30" t="s">
-        <v>172</v>
+        <v>442</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>191</v>
       </c>
       <c r="I56" s="23"/>
       <c r="J56" s="37" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="K56" s="26" t="s">
-        <v>335</v>
+        <v>193</v>
       </c>
       <c r="L56" s="26" t="s">
-        <v>474</v>
+        <v>203</v>
       </c>
       <c r="M56" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N56" s="48"/>
-    </row>
-    <row r="57" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="N56" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B57" s="28" t="s">
-        <v>183</v>
+        <v>135</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>495</v>
+        <v>442</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>196</v>
       </c>
       <c r="I57" s="23"/>
       <c r="J57" s="37" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="K57" s="26" t="s">
-        <v>470</v>
+        <v>198</v>
       </c>
       <c r="L57" s="26" t="s">
-        <v>477</v>
+        <v>204</v>
       </c>
       <c r="M57" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N57" s="54" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>141</v>
+      <c r="N57" s="19" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="126" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="B58" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>496</v>
+        <v>442</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>172</v>
       </c>
       <c r="I58" s="23"/>
       <c r="J58" s="37" t="s">
         <v>334</v>
       </c>
       <c r="K58" s="26" t="s">
-        <v>472</v>
+        <v>335</v>
       </c>
       <c r="L58" s="26" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="M58" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N58" s="54" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="N58" s="48"/>
+    </row>
+    <row r="59" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>207</v>
+        <v>140</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>208</v>
+        <v>490</v>
       </c>
       <c r="I59" s="23"/>
       <c r="J59" s="37" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K59" s="26" t="s">
-        <v>336</v>
+        <v>465</v>
       </c>
       <c r="L59" s="26" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M59" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N59" s="49" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="N59" s="54" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>207</v>
+        <v>141</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="H60" s="30" t="s">
-        <v>209</v>
+        <v>442</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>491</v>
       </c>
       <c r="I60" s="23"/>
       <c r="J60" s="37" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K60" s="26" t="s">
-        <v>336</v>
+        <v>467</v>
       </c>
       <c r="L60" s="26" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M60" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N60" s="49" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="N60" s="54" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>146</v>
       </c>
@@ -10200,35 +10206,35 @@
         <v>184</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H61" s="12" t="s">
         <v>212</v>
       </c>
       <c r="I61" s="51" t="s">
-        <v>413</v>
+        <v>517</v>
       </c>
       <c r="J61" s="37" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K61" s="39" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L61" s="39" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M61" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N61" s="48"/>
     </row>
-    <row r="62" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>147</v>
       </c>
@@ -10242,35 +10248,35 @@
         <v>184</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H62" s="12" t="s">
         <v>213</v>
       </c>
       <c r="I62" s="51" t="s">
-        <v>414</v>
+        <v>518</v>
       </c>
       <c r="J62" s="37" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K62" s="39" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L62" s="39" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M62" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N62" s="19"/>
     </row>
-    <row r="63" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>148</v>
       </c>
@@ -10284,28 +10290,28 @@
         <v>184</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H63" s="12" t="s">
         <v>253</v>
       </c>
       <c r="I63" s="51" t="s">
-        <v>415</v>
+        <v>519</v>
       </c>
       <c r="J63" s="37" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="K63" s="39" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L63" s="39" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M63" s="13" t="s">
         <v>31</v>
@@ -10332,7 +10338,7 @@
     </row>
     <row r="65" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B65" s="32" t="s">
         <v>207</v>
@@ -10344,13 +10350,13 @@
         <v>184</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H65" s="21" t="s">
         <v>313</v>
@@ -10363,13 +10369,13 @@
         <v>336</v>
       </c>
       <c r="L65" s="26" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M65" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N65" s="49" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -10408,15 +10414,15 @@
       <c r="M67" s="67"/>
       <c r="N67" s="67"/>
     </row>
-    <row r="68" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>183</v>
+        <v>163</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>207</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>184</v>
@@ -10430,35 +10436,33 @@
       <c r="G68" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="H68" s="30" t="s">
-        <v>185</v>
+      <c r="H68" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="I68" s="23"/>
       <c r="J68" s="27" t="s">
-        <v>186</v>
+        <v>338</v>
       </c>
       <c r="K68" s="26" t="s">
-        <v>262</v>
+        <v>336</v>
       </c>
       <c r="L68" s="26" t="s">
-        <v>251</v>
+        <v>477</v>
       </c>
       <c r="M68" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N68" s="26" t="s">
-        <v>187</v>
-      </c>
+      <c r="N68" s="23"/>
     </row>
     <row r="69" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>183</v>
+      <c r="A69" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>207</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>184</v>
@@ -10473,28 +10477,26 @@
         <v>265</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="I69" s="23"/>
       <c r="J69" s="27" t="s">
-        <v>186</v>
+        <v>338</v>
       </c>
       <c r="K69" s="26" t="s">
-        <v>190</v>
+        <v>336</v>
       </c>
       <c r="L69" s="26" t="s">
-        <v>202</v>
+        <v>478</v>
       </c>
       <c r="M69" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N69" s="26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="N69" s="23"/>
+    </row>
+    <row r="70" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B70" s="28" t="s">
         <v>183</v>
@@ -10514,35 +10516,35 @@
       <c r="G70" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="H70" s="29" t="s">
-        <v>191</v>
+      <c r="H70" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="I70" s="23"/>
       <c r="J70" s="27" t="s">
         <v>186</v>
       </c>
       <c r="K70" s="26" t="s">
-        <v>193</v>
+        <v>262</v>
       </c>
       <c r="L70" s="26" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="M70" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N70" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>194</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>184</v>
@@ -10557,34 +10559,34 @@
         <v>265</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I71" s="23"/>
       <c r="J71" s="27" t="s">
         <v>186</v>
       </c>
       <c r="K71" s="26" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L71" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M71" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N71" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="126" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
-        <v>158</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="B72" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>184</v>
@@ -10598,33 +10600,35 @@
       <c r="G72" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="H72" s="30" t="s">
-        <v>172</v>
+      <c r="H72" s="29" t="s">
+        <v>191</v>
       </c>
       <c r="I72" s="23"/>
       <c r="J72" s="27" t="s">
-        <v>338</v>
+        <v>186</v>
       </c>
       <c r="K72" s="26" t="s">
-        <v>339</v>
+        <v>193</v>
       </c>
       <c r="L72" s="26" t="s">
-        <v>474</v>
+        <v>203</v>
       </c>
       <c r="M72" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N72" s="23"/>
-    </row>
-    <row r="73" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="N72" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>183</v>
+        <v>154</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>184</v>
@@ -10638,33 +10642,35 @@
       <c r="G73" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="H73" s="10" t="s">
-        <v>495</v>
+      <c r="H73" s="30" t="s">
+        <v>196</v>
       </c>
       <c r="I73" s="23"/>
       <c r="J73" s="27" t="s">
-        <v>338</v>
+        <v>186</v>
       </c>
       <c r="K73" s="26" t="s">
-        <v>499</v>
+        <v>198</v>
       </c>
       <c r="L73" s="26" t="s">
-        <v>476</v>
+        <v>204</v>
       </c>
       <c r="M73" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N73" s="23"/>
-    </row>
-    <row r="74" spans="1:14" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>160</v>
+      <c r="N73" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="126" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="B74" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D74" s="20" t="s">
         <v>184</v>
@@ -10678,18 +10684,18 @@
       <c r="G74" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="H74" s="10" t="s">
-        <v>496</v>
+      <c r="H74" s="30" t="s">
+        <v>172</v>
       </c>
       <c r="I74" s="23"/>
       <c r="J74" s="27" t="s">
         <v>338</v>
       </c>
       <c r="K74" s="26" t="s">
-        <v>498</v>
+        <v>339</v>
       </c>
       <c r="L74" s="26" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M74" s="13" t="s">
         <v>31</v>
@@ -10698,13 +10704,13 @@
     </row>
     <row r="75" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B75" s="32" t="s">
-        <v>207</v>
+        <v>159</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>184</v>
@@ -10719,32 +10725,32 @@
         <v>265</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>208</v>
+        <v>490</v>
       </c>
       <c r="I75" s="23"/>
       <c r="J75" s="27" t="s">
         <v>338</v>
       </c>
       <c r="K75" s="26" t="s">
-        <v>336</v>
+        <v>494</v>
       </c>
       <c r="L75" s="26" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="M75" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N75" s="23"/>
     </row>
-    <row r="76" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B76" s="32" t="s">
-        <v>207</v>
+        <v>160</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>184</v>
@@ -10758,25 +10764,25 @@
       <c r="G76" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="H76" s="30" t="s">
-        <v>209</v>
+      <c r="H76" s="10" t="s">
+        <v>491</v>
       </c>
       <c r="I76" s="23"/>
       <c r="J76" s="27" t="s">
         <v>338</v>
       </c>
       <c r="K76" s="26" t="s">
-        <v>336</v>
+        <v>493</v>
       </c>
       <c r="L76" s="26" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="M76" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N76" s="23"/>
     </row>
-    <row r="77" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>89</v>
       </c>
@@ -10802,23 +10808,23 @@
         <v>212</v>
       </c>
       <c r="I77" s="51" t="s">
-        <v>413</v>
+        <v>517</v>
       </c>
       <c r="J77" s="37" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="K77" s="39" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L77" s="39" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M77" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N77" s="23"/>
     </row>
-    <row r="78" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>90</v>
       </c>
@@ -10844,23 +10850,23 @@
         <v>213</v>
       </c>
       <c r="I78" s="51" t="s">
-        <v>414</v>
+        <v>518</v>
       </c>
       <c r="J78" s="37" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="K78" s="39" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L78" s="39" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M78" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N78" s="23"/>
     </row>
-    <row r="79" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>91</v>
       </c>
@@ -10886,16 +10892,16 @@
         <v>253</v>
       </c>
       <c r="I79" s="51" t="s">
-        <v>415</v>
+        <v>519</v>
       </c>
       <c r="J79" s="37" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K79" s="39" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L79" s="39" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M79" s="13" t="s">
         <v>31</v>
@@ -11026,11 +11032,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11041,7 +11047,7 @@
     <col min="6" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="41.42578125" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="44.7109375" customWidth="1"/>
     <col min="11" max="11" width="25.7109375" customWidth="1"/>
     <col min="12" max="12" width="41.140625" customWidth="1"/>
     <col min="13" max="14" width="40.7109375" customWidth="1"/>
@@ -11099,81 +11105,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>413</v>
+        <v>520</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>49</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="126" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="37" t="s">
@@ -11183,109 +11189,109 @@
         <v>193</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="O3" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="P3" s="52" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="P3" s="52" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="B4" s="55" t="s">
+      <c r="D4" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C5" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="N5" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="O5" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="51" t="s">
-        <v>464</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>463</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="P4" s="52" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>485</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>452</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>467</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="38" t="s">
-        <v>488</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="P5" s="7"/>
+      <c r="P5" s="52" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -11971,28 +11977,10 @@
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
     </row>
-    <row r="44" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P3" r:id="rId1"/>
-    <hyperlink ref="P4" r:id="rId2"/>
+    <hyperlink ref="P5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -12003,8 +11991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12018,7 +12006,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -12026,7 +12014,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="333" customHeight="1" x14ac:dyDescent="0.25">
@@ -12034,7 +12022,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12042,7 +12030,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -12050,7 +12038,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
@@ -12058,7 +12046,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12066,15 +12054,15 @@
         <v>20</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
